--- a/datasets/Real_vs_Predict.xlsx
+++ b/datasets/Real_vs_Predict.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,1514 +405,1402 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>27.06819403799467</v>
+        <v>3.219706175747628</v>
       </c>
       <c r="B2">
-        <v>27.06833020374993</v>
+        <v>3.220952133962965</v>
       </c>
       <c r="C2">
-        <v>0.0001361657552614304</v>
+        <v>0.001245958215336795</v>
       </c>
       <c r="D2">
-        <v>0.0005030470635399587</v>
+        <v>0.038697885686649</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>38.28614111340648</v>
+        <v>2.700376295693827</v>
       </c>
       <c r="B3">
-        <v>38.28633362395971</v>
+        <v>2.701058910402238</v>
       </c>
       <c r="C3">
-        <v>0.0001925105532265547</v>
+        <v>0.0006826147084106893</v>
       </c>
       <c r="D3">
-        <v>0.000502820466174232</v>
+        <v>0.02527850320339522</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>46.89802035296633</v>
+        <v>2.225197794754311</v>
       </c>
       <c r="B4">
-        <v>46.89825605959058</v>
+        <v>2.226460249518188</v>
       </c>
       <c r="C4">
-        <v>0.0002357066242524297</v>
+        <v>0.001262454763876875</v>
       </c>
       <c r="D4">
-        <v>0.0005025939740706372</v>
+        <v>0.05673449645029264</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>54.16155608894825</v>
+        <v>1.79745404532855</v>
       </c>
       <c r="B5">
-        <v>54.16182817905077</v>
+        <v>1.797156151310815</v>
       </c>
       <c r="C5">
-        <v>0.000272090102527045</v>
+        <v>0.0002978940177345013</v>
       </c>
       <c r="D5">
-        <v>0.0005023675872240411</v>
+        <v>0.01657310897648292</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>60.56383434668712</v>
+        <v>1.412374653486217</v>
       </c>
       <c r="B6">
-        <v>60.56413846271558</v>
+        <v>1.41314661578012</v>
       </c>
       <c r="C6">
-        <v>0.0003041160284666944</v>
+        <v>0.0007719622939035276</v>
       </c>
       <c r="D6">
-        <v>0.0005021413055287008</v>
+        <v>0.05465704811383185</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>85.66344831251371</v>
+        <v>1.073631005418439</v>
       </c>
       <c r="B7">
-        <v>85.66387827032065</v>
+        <v>1.074431642926103</v>
       </c>
       <c r="C7">
-        <v>0.0004299578069435483</v>
+        <v>0.0008006375076636818</v>
       </c>
       <c r="D7">
-        <v>0.0005019151288131605</v>
+        <v>0.07457287500295688</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>68.20970067254854</v>
+        <v>0.7786176858819784</v>
       </c>
       <c r="B8">
-        <v>68.2100437994448</v>
+        <v>0.7810112327487629</v>
       </c>
       <c r="C8">
-        <v>0.0003431268962685863</v>
+        <v>0.002393546866784502</v>
       </c>
       <c r="D8">
-        <v>0.0005030470635193391</v>
+        <v>0.3074097737804676</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>96.47803697530608</v>
+        <v>0.5320193090032052</v>
       </c>
       <c r="B9">
-        <v>96.47852208662134</v>
+        <v>0.5328853852481003</v>
       </c>
       <c r="C9">
-        <v>0.0004851113152568587</v>
+        <v>0.0008660762448950976</v>
       </c>
       <c r="D9">
-        <v>0.0005028204661554471</v>
+        <v>0.1627903781383017</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>118.1792891657544</v>
+        <v>0.3295135306277908</v>
       </c>
       <c r="B10">
-        <v>118.1798831277404</v>
+        <v>0.330054100424115</v>
       </c>
       <c r="C10">
-        <v>0.0005939619859702816</v>
+        <v>0.000540569796324164</v>
       </c>
       <c r="D10">
-        <v>0.0005025939740906802</v>
+        <v>0.1640508647078218</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>136.4828227402606</v>
+        <v>0.1716598904805359</v>
       </c>
       <c r="B11">
-        <v>136.4835083857243</v>
+        <v>0.1725173782768071</v>
       </c>
       <c r="C11">
-        <v>0.0006856454636192666</v>
+        <v>0.0008574877962712335</v>
       </c>
       <c r="D11">
-        <v>0.0005023675872560995</v>
+        <v>0.4995271719391328</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>152.616055824439</v>
+        <v>0.05966737878847223</v>
       </c>
       <c r="B12">
-        <v>152.6168221726942</v>
+        <v>0.06027521880617703</v>
       </c>
       <c r="C12">
-        <v>0.0007663482551549805</v>
+        <v>0.0006078400177048013</v>
       </c>
       <c r="D12">
-        <v>0.000502141305523283</v>
+        <v>1.018714128300599</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>215.865090954098</v>
+        <v>-0.006067118829339596</v>
       </c>
       <c r="B13">
-        <v>215.8661744136473</v>
+        <v>-0.006672377987775757</v>
       </c>
       <c r="C13">
-        <v>0.001083459549363397</v>
+        <v>0.0006052591584361612</v>
       </c>
       <c r="D13">
-        <v>0.000501915128830991</v>
+        <v>-9.976055776412796</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>96.46308377652733</v>
+        <v>-0.0291135208962642</v>
       </c>
       <c r="B14">
-        <v>96.4635690312377</v>
+        <v>-0.02832541210505135</v>
       </c>
       <c r="C14">
-        <v>0.0004852547103695315</v>
+        <v>0.0007881087912128479</v>
       </c>
       <c r="D14">
-        <v>0.0005030470635727386</v>
+        <v>-2.707019855210905</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>136.4405483616108</v>
+        <v>-0.003737483376161106</v>
       </c>
       <c r="B15">
-        <v>136.4412344126121</v>
+        <v>-0.004683883545649747</v>
       </c>
       <c r="C15">
-        <v>0.0006860510012813847</v>
+        <v>0.0009464001694886415</v>
       </c>
       <c r="D15">
-        <v>0.0005028204661440759</v>
+        <v>-25.32185629306319</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>167.1307535298217</v>
+        <v>0.06632684875767067</v>
       </c>
       <c r="B16">
-        <v>167.1315935189178</v>
+        <v>0.06425220769042972</v>
       </c>
       <c r="C16">
-        <v>0.0008399890960788525</v>
+        <v>0.002074641067240951</v>
       </c>
       <c r="D16">
-        <v>0.0005025939740820773</v>
+        <v>3.127905374821565</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>193.0158589502397</v>
+        <v>0.1796626120231249</v>
       </c>
       <c r="B17">
-        <v>193.0168285993533</v>
+        <v>0.1784828616031864</v>
       </c>
       <c r="C17">
-        <v>0.0009696491136139684</v>
+        <v>0.001179750419938508</v>
       </c>
       <c r="D17">
-        <v>0.0005023675872478169</v>
+        <v>0.6566477057489617</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>215.8316959828111</v>
+        <v>0.3400625228430507</v>
       </c>
       <c r="B18">
-        <v>215.832779762907</v>
+        <v>0.3380080781926205</v>
       </c>
       <c r="C18">
-        <v>0.001083780095910925</v>
+        <v>0.002054444650430254</v>
       </c>
       <c r="D18">
-        <v>0.0005021413055092877</v>
+        <v>0.6041373313514007</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>305.2793392701871</v>
+        <v>0.5441264029602549</v>
       </c>
       <c r="B19">
-        <v>305.2808715133761</v>
+        <v>0.5428278574587322</v>
       </c>
       <c r="C19">
-        <v>0.001532243189046767</v>
+        <v>0.001298545501522752</v>
       </c>
       <c r="D19">
-        <v>0.0005019151288488138</v>
+        <v>0.238647765382854</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>21.11745895758224</v>
+        <v>0.7962338913112076</v>
       </c>
       <c r="B20">
-        <v>21.11750658066832</v>
+        <v>0.7929421994015211</v>
       </c>
       <c r="C20">
-        <v>4.762308607908494E-05</v>
+        <v>0.003291691909686478</v>
       </c>
       <c r="D20">
-        <v>0.0002255152297193685</v>
+        <v>0.4134076614430272</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>29.86459686067001</v>
+        <v>1.091804128368968</v>
       </c>
       <c r="B21">
-        <v>29.86466420988422</v>
+        <v>1.088351104020988</v>
       </c>
       <c r="C21">
-        <v>6.734921421625018E-05</v>
+        <v>0.003453024347980005</v>
       </c>
       <c r="D21">
-        <v>0.0002255152297232088</v>
+        <v>0.3162677497051081</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>36.57651184128294</v>
+        <v>1.430419267476538</v>
       </c>
       <c r="B22">
-        <v>36.57659432688764</v>
+        <v>1.429054571317131</v>
       </c>
       <c r="C22">
-        <v>8.248560470036637E-05</v>
+        <v>0.001364696159406709</v>
       </c>
       <c r="D22">
-        <v>0.0002255152297143519</v>
+        <v>0.09540532558780657</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>42.23491791516448</v>
+        <v>1.818848566203085</v>
       </c>
       <c r="B23">
-        <v>42.23501316133664</v>
+        <v>1.815052601289954</v>
       </c>
       <c r="C23">
-        <v>9.524617215816988E-05</v>
+        <v>0.003795964913131167</v>
       </c>
       <c r="D23">
-        <v>0.0002255152297193685</v>
+        <v>0.2087015369869624</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>47.22007374121574</v>
+        <v>2.249567946797578</v>
       </c>
       <c r="B24">
-        <v>47.2201802296735</v>
+        <v>2.246345193939451</v>
       </c>
       <c r="C24">
-        <v>0.0001064884577672842</v>
+        <v>0.003222752858127453</v>
       </c>
       <c r="D24">
-        <v>0.0002255152297111651</v>
+        <v>0.1432609698549125</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>66.77926870108494</v>
+        <v>2.727092271778383</v>
       </c>
       <c r="B25">
-        <v>66.77941929850616</v>
+        <v>2.722932349265629</v>
       </c>
       <c r="C25">
-        <v>0.0001505974212108185</v>
+        <v>0.004159922512754655</v>
       </c>
       <c r="D25">
-        <v>0.0002255152297113607</v>
+        <v>0.1525405852894702</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>53.21432055790838</v>
+        <v>3.248825759880158</v>
       </c>
       <c r="B26">
-        <v>53.21444056430564</v>
+        <v>3.24481406726848</v>
       </c>
       <c r="C26">
-        <v>0.0001200063972603971</v>
+        <v>0.004011692611677553</v>
       </c>
       <c r="D26">
-        <v>0.0002255152297393422</v>
+        <v>0.1234813101157366</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>75.25641384546347</v>
+        <v>3.816473481587067</v>
       </c>
       <c r="B27">
-        <v>75.25658356013803</v>
+        <v>3.811990347948012</v>
       </c>
       <c r="C27">
-        <v>0.0001697146745556211</v>
+        <v>0.004483133639054504</v>
       </c>
       <c r="D27">
-        <v>0.0002255152297106855</v>
+        <v>0.1174679625230937</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>92.16990689655434</v>
+        <v>4.42833333496757</v>
       </c>
       <c r="B28">
-        <v>92.17011475373161</v>
+        <v>4.424461191304221</v>
       </c>
       <c r="C28">
-        <v>0.0002078571772727855</v>
+        <v>0.003872143663349092</v>
       </c>
       <c r="D28">
-        <v>0.0002255152297225072</v>
+        <v>0.08744020312954713</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>106.4286411158168</v>
+        <v>5.085792038051454</v>
       </c>
       <c r="B29">
-        <v>106.4288811286113</v>
+        <v>5.082226597337108</v>
       </c>
       <c r="C29">
-        <v>0.0002400127945207942</v>
+        <v>0.003565440714345947</v>
       </c>
       <c r="D29">
-        <v>0.0002255152297393422</v>
+        <v>0.07010590853242973</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>118.9908381439477</v>
+        <v>5.790215634249964</v>
       </c>
       <c r="B30">
-        <v>118.9911064864097</v>
+        <v>5.785286566046667</v>
       </c>
       <c r="C30">
-        <v>0.0002683424619789321</v>
+        <v>0.004929068203296971</v>
       </c>
       <c r="D30">
-        <v>0.0002255152297139954</v>
+        <v>0.08512754126358989</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>168.2784571013126</v>
+        <v>6.537999045137668</v>
       </c>
       <c r="B31">
-        <v>168.2788365948617</v>
+        <v>6.533641097432913</v>
       </c>
       <c r="C31">
-        <v>0.0003794935491043816</v>
+        <v>0.004357947704755283</v>
       </c>
       <c r="D31">
-        <v>0.0002255152297218331</v>
+        <v>0.06665567973730897</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>75.25641384546347</v>
+        <v>7.332920295167548</v>
       </c>
       <c r="B32">
-        <v>75.25658356013803</v>
+        <v>7.327290191495832</v>
       </c>
       <c r="C32">
-        <v>0.0001697146745556211</v>
+        <v>0.00563010367171568</v>
       </c>
       <c r="D32">
-        <v>0.0002255152297106855</v>
+        <v>0.07677846540110307</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>106.4286411158168</v>
+        <v>8.172223197999942</v>
       </c>
       <c r="B33">
-        <v>106.4288811286113</v>
+        <v>8.166233848235429</v>
       </c>
       <c r="C33">
-        <v>0.0002400127945207942</v>
+        <v>0.005989349764513818</v>
       </c>
       <c r="D33">
-        <v>0.0002255152297393422</v>
+        <v>0.07328911141315429</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>130.3479323757726</v>
+        <v>9.056835190769727</v>
       </c>
       <c r="B34">
-        <v>130.3482263302118</v>
+        <v>9.050472067651693</v>
       </c>
       <c r="C34">
-        <v>0.0002939544391722393</v>
+        <v>0.006363123118033442</v>
       </c>
       <c r="D34">
-        <v>0.0002255152297504919</v>
+        <v>0.07025768918173998</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>150.5128276909269</v>
+        <v>9.985834106709703</v>
       </c>
       <c r="B35">
-        <v>150.5131671202761</v>
+        <v>9.980004849744649</v>
       </c>
       <c r="C35">
-        <v>0.0003394293491112421</v>
+        <v>0.005829256965053986</v>
       </c>
       <c r="D35">
-        <v>0.0002255152297106855</v>
+        <v>0.05837526342578813</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>168.2784571013126</v>
+        <v>10.96091664230036</v>
       </c>
       <c r="B36">
-        <v>168.2788365948617</v>
+        <v>10.95483219451427</v>
       </c>
       <c r="C36">
-        <v>0.0003794935491043816</v>
+        <v>0.006084447786085079</v>
       </c>
       <c r="D36">
-        <v>0.0002255152297218331</v>
+        <v>0.05551039191926689</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>237.9816762878954</v>
+        <v>11.98198211900225</v>
       </c>
       <c r="B37">
-        <v>237.9822129728194</v>
+        <v>11.97495410196058</v>
       </c>
       <c r="C37">
-        <v>0.0005366849239578642</v>
+        <v>0.00702801704166589</v>
       </c>
       <c r="D37">
-        <v>0.0002255152297139954</v>
+        <v>0.058654878398793</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>23.93983226228945</v>
+        <v>13.0485233761499</v>
       </c>
       <c r="B38">
-        <v>23.93977020219642</v>
+        <v>13.04037057208356</v>
       </c>
       <c r="C38">
-        <v>6.206009302545112E-05</v>
+        <v>0.008152804066343222</v>
       </c>
       <c r="D38">
-        <v>0.0002592336167835626</v>
+        <v>0.06248066414353767</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>33.86000871304256</v>
+        <v>14.15940626314065</v>
       </c>
       <c r="B39">
-        <v>33.85992087842976</v>
+        <v>14.15108160488322</v>
       </c>
       <c r="C39">
-        <v>8.783461279904259E-05</v>
+        <v>0.008324658257429007</v>
       </c>
       <c r="D39">
-        <v>0.0002594051689219132</v>
+        <v>0.05879242464494795</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>41.47473708841726</v>
+        <v>15.31472717667958</v>
       </c>
       <c r="B40">
-        <v>41.47462942967967</v>
+        <v>15.30708720035956</v>
       </c>
       <c r="C40">
-        <v>0.0001076587375834492</v>
+        <v>0.007639976320016117</v>
       </c>
       <c r="D40">
-        <v>0.0002595766607367243</v>
+        <v>0.04988646700575803</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>47.89651762858403</v>
+        <v>16.51798146403575</v>
       </c>
       <c r="B41">
-        <v>47.89639321829326</v>
+        <v>16.50838735851258</v>
       </c>
       <c r="C41">
-        <v>0.0001244102907733691</v>
+        <v>0.009594105523166974</v>
       </c>
       <c r="D41">
-        <v>0.0002597480922060242</v>
+        <v>0.05808279627904908</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>53.55621248681934</v>
+        <v>17.7637925715202</v>
       </c>
       <c r="B42">
-        <v>53.55607328379923</v>
+        <v>17.75498207934228</v>
       </c>
       <c r="C42">
-        <v>0.0001392030201117223</v>
+        <v>0.008810492177921958</v>
       </c>
       <c r="D42">
-        <v>0.0002599194633974189</v>
+        <v>0.04959803568100305</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>75.74879816711488</v>
+        <v>19.05884705361218</v>
       </c>
       <c r="B43">
-        <v>75.74860115147919</v>
+        <v>19.04687136284864</v>
       </c>
       <c r="C43">
-        <v>0.0001970156356918551</v>
+        <v>0.01197569076353844</v>
       </c>
       <c r="D43">
-        <v>0.000260090774321204</v>
+        <v>0.06283533694273868</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>60.32647728436181</v>
+        <v>20.3945044561875</v>
       </c>
       <c r="B44">
-        <v>60.32632089785288</v>
+        <v>20.38405520903169</v>
       </c>
       <c r="C44">
-        <v>0.0001563865089266869</v>
+        <v>0.0104492471558153</v>
       </c>
       <c r="D44">
-        <v>0.0002592336167575732</v>
+        <v>0.05123560211165168</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>85.32453461227006</v>
+        <v>21.77553694793183</v>
       </c>
       <c r="B45">
-        <v>85.32431327601689</v>
+        <v>21.76653361789142</v>
       </c>
       <c r="C45">
-        <v>0.0002213362531620078</v>
+        <v>0.009003330040414426</v>
       </c>
       <c r="D45">
-        <v>0.00025940516894443</v>
+        <v>0.04134607592888557</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>104.5130457651755</v>
+        <v>23.20474000457469</v>
       </c>
       <c r="B46">
-        <v>104.5127744737013</v>
+        <v>23.19430658942782</v>
       </c>
       <c r="C46">
-        <v>0.0002712914742204475</v>
+        <v>0.01043341514687057</v>
       </c>
       <c r="D46">
-        <v>0.0002595766607261615</v>
+        <v>0.04496243071378383</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>120.6954230532476</v>
+        <v>24.67730484281448</v>
       </c>
       <c r="B47">
-        <v>120.6951095491888</v>
+        <v>24.66737412364089</v>
       </c>
       <c r="C47">
-        <v>0.0003135040587523008</v>
+        <v>0.009930719173588898</v>
       </c>
       <c r="D47">
-        <v>0.000259748092198982</v>
+        <v>0.04024231672317537</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>134.9574049067954</v>
+        <v>26.19737702421959</v>
       </c>
       <c r="B48">
-        <v>134.9570541262328</v>
+        <v>26.18573622053065</v>
       </c>
       <c r="C48">
-        <v>0.000350780562627051</v>
+        <v>0.0116408036889446</v>
       </c>
       <c r="D48">
-        <v>0.0002599194633812853</v>
+        <v>0.04443499697768455</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>190.88095947708</v>
+        <v>27.76056594001353</v>
       </c>
       <c r="B49">
-        <v>190.8804630133144</v>
+        <v>27.74939288009709</v>
       </c>
       <c r="C49">
-        <v>0.000496463765585986</v>
+        <v>0.01117305991644102</v>
       </c>
       <c r="D49">
-        <v>0.0002600907743475581</v>
+        <v>0.04024795438459124</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>85.3145223457369</v>
+        <v>29.36970712782713</v>
       </c>
       <c r="B50">
-        <v>85.31430118181501</v>
+        <v>29.35834410234021</v>
       </c>
       <c r="C50">
-        <v>0.000221163921892753</v>
+        <v>0.01136302548692214</v>
       </c>
       <c r="D50">
-        <v>0.0002592336167534136</v>
+        <v>0.0386896111611407</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>120.6671140518449</v>
+        <v>31.0273469098853</v>
       </c>
       <c r="B51">
-        <v>120.6668010351138</v>
+        <v>31.01258988725999</v>
       </c>
       <c r="C51">
-        <v>0.0003130167310558818</v>
+        <v>0.01475702262530731</v>
       </c>
       <c r="D51">
-        <v>0.0002594051689355838</v>
+        <v>0.04756134215460663</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>147.8037667660312</v>
+        <v>32.72411871816266</v>
       </c>
       <c r="B52">
-        <v>147.803383101949</v>
+        <v>32.71213023485645</v>
       </c>
       <c r="C52">
-        <v>0.0003836640822214576</v>
+        <v>0.01198848330621161</v>
       </c>
       <c r="D52">
-        <v>0.0002595766607415263</v>
+        <v>0.03663500737624972</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>170.689104198261</v>
+        <v>34.47191849010084</v>
       </c>
       <c r="B53">
-        <v>170.6886608365693</v>
+        <v>34.45696514512959</v>
       </c>
       <c r="C53">
-        <v>0.0004433616917367544</v>
+        <v>0.01495334497124645</v>
       </c>
       <c r="D53">
-        <v>0.0002597480921932634</v>
+        <v>0.04337833699490947</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>190.8585923618674</v>
+        <v>36.25978167363415</v>
       </c>
       <c r="B54">
-        <v>190.8580962832383</v>
+        <v>36.24709461807943</v>
       </c>
       <c r="C54">
-        <v>0.0004960786291405839</v>
+        <v>0.01268705555472138</v>
       </c>
       <c r="D54">
-        <v>0.000259919463410911</v>
+        <v>0.03498933244804013</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>269.9464416912757</v>
+        <v>38.0960774515336</v>
       </c>
       <c r="B55">
-        <v>269.9457395854852</v>
+        <v>38.08251865370593</v>
       </c>
       <c r="C55">
-        <v>0.0007021057904808004</v>
+        <v>0.01355879782767744</v>
       </c>
       <c r="D55">
-        <v>0.0002600907743335857</v>
+        <v>0.0355910601161685</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>14.84025793556593</v>
+        <v>39.9783243882559</v>
       </c>
       <c r="B56">
-        <v>14.8400544148991</v>
+        <v>39.96323725200909</v>
       </c>
       <c r="C56">
-        <v>0.0002035206668260514</v>
+        <v>0.01508713624680524</v>
       </c>
       <c r="D56">
-        <v>0.001371409228260763</v>
+        <v>0.03773829063040288</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>20.99020853878871</v>
+        <v>41.90661119946478</v>
       </c>
       <c r="B57">
-        <v>20.98992063452278</v>
+        <v>41.88925041298895</v>
       </c>
       <c r="C57">
-        <v>0.0002879042659245101</v>
+        <v>0.01736078647582673</v>
       </c>
       <c r="D57">
-        <v>0.001371612222872772</v>
+        <v>0.04142732131976459</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>25.71121878183384</v>
+        <v>43.87695240712237</v>
       </c>
       <c r="B58">
-        <v>25.71086607144372</v>
+        <v>43.86055813664549</v>
       </c>
       <c r="C58">
-        <v>0.000352710390114197</v>
+        <v>0.01639427047688002</v>
       </c>
       <c r="D58">
-        <v>0.001371815132946569</v>
+        <v>0.03736419595591331</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>29.6928776034529</v>
+        <v>45.89467310722644</v>
       </c>
       <c r="B59">
-        <v>29.69247021183977</v>
+        <v>45.8771604229787</v>
       </c>
       <c r="C59">
-        <v>0.0004073916131375199</v>
+        <v>0.017512684247734</v>
       </c>
       <c r="D59">
-        <v>0.001372017958576522</v>
+        <v>0.03815842463202229</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>33.20225077374491</v>
+        <v>47.95455089752981</v>
       </c>
       <c r="B60">
-        <v>33.20179516558701</v>
+        <v>47.93905727198857</v>
       </c>
       <c r="C60">
-        <v>0.000455608157906795</v>
+        <v>0.01549362554123945</v>
       </c>
       <c r="D60">
-        <v>0.001372220699769766</v>
+        <v>0.03230897850413931</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>46.96158312981371</v>
+        <v>50.06424493347262</v>
       </c>
       <c r="B61">
-        <v>46.96093861807816</v>
+        <v>50.04624868367515</v>
       </c>
       <c r="C61">
-        <v>0.0006445117355511343</v>
+        <v>0.01799624979747705</v>
       </c>
       <c r="D61">
-        <v>0.00137242335670316</v>
+        <v>0.03594631222620293</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>37.39627218082987</v>
+        <v>52.21760517324593</v>
       </c>
       <c r="B62">
-        <v>37.39575932490216</v>
+        <v>52.1987346580384</v>
       </c>
       <c r="C62">
-        <v>0.0005128559277096656</v>
+        <v>0.01887051520753147</v>
       </c>
       <c r="D62">
-        <v>0.001371409228250741</v>
+        <v>0.03613822415816173</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>52.89365960194733</v>
+        <v>54.41487834699468</v>
       </c>
       <c r="B63">
-        <v>52.89293410604709</v>
+        <v>54.39651519507831</v>
       </c>
       <c r="C63">
-        <v>0.0007254959002338524</v>
+        <v>0.01836315191637539</v>
       </c>
       <c r="D63">
-        <v>0.001371612222889457</v>
+        <v>0.03374656431146754</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>64.79023072516809</v>
+        <v>56.66035204722863</v>
       </c>
       <c r="B64">
-        <v>64.78934192297832</v>
+        <v>56.63959029479488</v>
       </c>
       <c r="C64">
-        <v>0.0008888021897632825</v>
+        <v>0.02076175243374934</v>
       </c>
       <c r="D64">
-        <v>0.001371815132953405</v>
+        <v>0.03664246988166187</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>74.82369494600343</v>
+        <v>58.94784136816728</v>
       </c>
       <c r="B65">
-        <v>74.82266835147152</v>
+        <v>58.92795995718818</v>
       </c>
       <c r="C65">
-        <v>0.001026594531907676</v>
+        <v>0.01988141097910301</v>
       </c>
       <c r="D65">
-        <v>0.001372017958547114</v>
+        <v>0.03372712302547395</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>83.66703680907311</v>
+        <v>61.2826732592094</v>
       </c>
       <c r="B66">
-        <v>83.66588871267513</v>
+        <v>61.26162418225815</v>
       </c>
       <c r="C66">
-        <v>0.001148096397983522</v>
+        <v>0.02104907695125746</v>
       </c>
       <c r="D66">
-        <v>0.001372220699776258</v>
+        <v>0.03434751754745663</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>118.3394623186655</v>
+        <v>63.6618240328749</v>
       </c>
       <c r="B67">
-        <v>118.3378382002445</v>
+        <v>63.64058297000474</v>
       </c>
       <c r="C67">
-        <v>0.001624118421048593</v>
+        <v>0.02124106287015337</v>
       </c>
       <c r="D67">
-        <v>0.001372423356694956</v>
+        <v>0.03336546382834477</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>52.88631530032529</v>
+        <v>66.08755028393047</v>
       </c>
       <c r="B68">
-        <v>52.88559001251677</v>
+        <v>66.06483632042806</v>
       </c>
       <c r="C68">
-        <v>0.0007252878085282077</v>
+        <v>0.02271396350241162</v>
       </c>
       <c r="D68">
-        <v>0.001371409228284328</v>
+        <v>0.03436950439958225</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>74.80293077261977</v>
+        <v>68.55697085970382</v>
       </c>
       <c r="B69">
-        <v>74.80190476647824</v>
+        <v>68.53438423352804</v>
       </c>
       <c r="C69">
-        <v>0.001026006141529479</v>
+        <v>0.02258662617578011</v>
       </c>
       <c r="D69">
-        <v>0.001371612222852943</v>
+        <v>0.03294577618080848</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>91.62722300081471</v>
+        <v>71.07280890112769</v>
       </c>
       <c r="B70">
-        <v>91.62596604470369</v>
+        <v>71.04922670930473</v>
       </c>
       <c r="C70">
-        <v>0.001256956111021168</v>
+        <v>0.02358219182295329</v>
       </c>
       <c r="D70">
-        <v>0.001371815132943614</v>
+        <v>0.0331803290000251</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>105.8166841795053</v>
+        <v>73.6330606209449</v>
       </c>
       <c r="B71">
-        <v>105.8152323555952</v>
+        <v>73.60936374775807</v>
       </c>
       <c r="C71">
-        <v>0.001451823910102235</v>
+        <v>0.02369687318683589</v>
       </c>
       <c r="D71">
-        <v>0.001372017958566335</v>
+        <v>0.03218238246108612</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>118.3230581789602</v>
+        <v>76.24048909651322</v>
       </c>
       <c r="B72">
-        <v>118.3214345254632</v>
+        <v>76.21479534888806</v>
       </c>
       <c r="C72">
-        <v>0.001623653496949373</v>
+        <v>0.02569374762515508</v>
       </c>
       <c r="D72">
-        <v>0.001372220699784183</v>
+        <v>0.03370092181941441</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>167.3572725749966</v>
+        <v>78.89007310539429</v>
       </c>
       <c r="B73">
-        <v>167.3549757246987</v>
+        <v>78.86552151269474</v>
       </c>
       <c r="C73">
-        <v>0.002296850297966557</v>
+        <v>0.02455159269955232</v>
       </c>
       <c r="D73">
-        <v>0.001372423356706704</v>
+        <v>0.03112127005732682</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>7.377434869454365</v>
+        <v>81.58810245576932</v>
       </c>
       <c r="B74">
-        <v>7.377183182887851</v>
+        <v>81.56154223917811</v>
       </c>
       <c r="C74">
-        <v>0.0002516865665134205</v>
+        <v>0.02656021659120711</v>
       </c>
       <c r="D74">
-        <v>0.003411572870070424</v>
+        <v>0.03255403152145373</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>10.43469942700115</v>
+        <v>84.32830225858284</v>
       </c>
       <c r="B75">
-        <v>10.43434341870642</v>
+        <v>84.30285752833818</v>
       </c>
       <c r="C75">
-        <v>0.0003560082947249299</v>
+        <v>0.02544473024465788</v>
       </c>
       <c r="D75">
-        <v>0.0034117733550016</v>
+        <v>0.03017341694682124</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>12.78159671148452</v>
+        <v>87.11676359543526</v>
       </c>
       <c r="B76">
-        <v>12.78116060675893</v>
+        <v>87.08946738017491</v>
       </c>
       <c r="C76">
-        <v>0.0004361047255834194</v>
+        <v>0.02729621526034975</v>
       </c>
       <c r="D76">
-        <v>0.003411973757485015</v>
+        <v>0.03133290785125083</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>14.76093920472652</v>
+        <v>89.94853471207314</v>
       </c>
       <c r="B77">
-        <v>14.76043553578537</v>
+        <v>89.92137179468827</v>
       </c>
       <c r="C77">
-        <v>0.0005036689411497264</v>
+        <v>0.02716291738487087</v>
       </c>
       <c r="D77">
-        <v>0.003412174077571226</v>
+        <v>0.0301982878007072</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>16.50549245345963</v>
+        <v>92.82519121237088</v>
       </c>
       <c r="B78">
-        <v>16.50492922427453</v>
+        <v>92.79857077187835</v>
       </c>
       <c r="C78">
-        <v>0.0005632291851007665</v>
+        <v>0.02662044049253609</v>
       </c>
       <c r="D78">
-        <v>0.003412374315331081</v>
+        <v>0.02867803464216119</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>23.3454875419857</v>
+        <v>95.74891957016341</v>
       </c>
       <c r="B79">
-        <v>23.34469085983775</v>
+        <v>95.72106431174515</v>
       </c>
       <c r="C79">
-        <v>0.0007966821479499231</v>
+        <v>0.02785525841825631</v>
       </c>
       <c r="D79">
-        <v>0.003412574470835658</v>
+        <v>0.02909198197045387</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>18.59055035110072</v>
+        <v>98.71833689849635</v>
       </c>
       <c r="B80">
-        <v>18.58991612092855</v>
+        <v>98.68885241428859</v>
       </c>
       <c r="C80">
-        <v>0.0006342301721709021</v>
+        <v>0.02948448420775662</v>
       </c>
       <c r="D80">
-        <v>0.003411572870048735</v>
+        <v>0.02986728214239772</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>26.29461439225339</v>
+        <v>101.7316887288901</v>
       </c>
       <c r="B81">
-        <v>26.29371727960575</v>
+        <v>101.7019350795087</v>
       </c>
       <c r="C81">
-        <v>0.0008971126476318148</v>
+        <v>0.02975364938143343</v>
       </c>
       <c r="D81">
-        <v>0.003411773354988281</v>
+        <v>0.02924717927442002</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>32.20860928452907</v>
+        <v>104.7904753905455</v>
       </c>
       <c r="B82">
-        <v>32.20751033523263</v>
+        <v>104.7603123074055</v>
       </c>
       <c r="C82">
-        <v>0.001098949296434171</v>
+        <v>0.03016308314001037</v>
       </c>
       <c r="D82">
-        <v>0.003411973757469978</v>
+        <v>0.02878418389418985</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>37.19639527435105</v>
+        <v>107.8954254948007</v>
       </c>
       <c r="B83">
-        <v>37.19512606859371</v>
+        <v>107.8639840979789</v>
       </c>
       <c r="C83">
-        <v>0.001269205757338909</v>
+        <v>0.03144139682176217</v>
       </c>
       <c r="D83">
-        <v>0.003412174077562016</v>
+        <v>0.029140620816475</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>41.59253100237112</v>
+        <v>111.0452773214064</v>
       </c>
       <c r="B84">
-        <v>41.59111170952609</v>
+        <v>111.0129504512291</v>
       </c>
       <c r="C84">
-        <v>0.001419292845028508</v>
+        <v>0.03232687017732871</v>
       </c>
       <c r="D84">
-        <v>0.003412374315349063</v>
+        <v>0.02911143180250945</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>58.82877576015509</v>
+        <v>114.2406200338595</v>
       </c>
       <c r="B85">
-        <v>58.82676818437199</v>
+        <v>114.2072113671559</v>
       </c>
       <c r="C85">
-        <v>0.002007575783103732</v>
+        <v>0.03340866670357912</v>
       </c>
       <c r="D85">
-        <v>0.003412574470848447</v>
+        <v>0.02924412235654639</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>26.29100843850655</v>
+        <v>117.4797871316415</v>
       </c>
       <c r="B86">
-        <v>26.29011150159539</v>
+        <v>117.4467668457594</v>
       </c>
       <c r="C86">
-        <v>0.0008969369111575531</v>
+        <v>0.03302028588210248</v>
       </c>
       <c r="D86">
-        <v>0.003411572870076273</v>
+        <v>0.02810720608907959</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>37.18620029089551</v>
+        <v>120.7642220827281</v>
       </c>
       <c r="B87">
-        <v>37.18493158202226</v>
+        <v>120.7316168870396</v>
       </c>
       <c r="C87">
-        <v>0.001268708873254809</v>
+        <v>0.03260519568848963</v>
       </c>
       <c r="D87">
-        <v>0.003411773354981454</v>
+        <v>0.02699905247280426</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>45.54985207535699</v>
+        <v>124.0966325167546</v>
       </c>
       <c r="B88">
-        <v>45.54829792635762</v>
+        <v>124.0617614909965</v>
       </c>
       <c r="C88">
-        <v>0.001554148999375116</v>
+        <v>0.03487102575813594</v>
       </c>
       <c r="D88">
-        <v>0.003411973757464579</v>
+        <v>0.02809989687143841</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>52.60364666837776</v>
+        <v>127.4733643652253</v>
       </c>
       <c r="B89">
-        <v>52.60185174038227</v>
+        <v>127.4372006576299</v>
       </c>
       <c r="C89">
-        <v>0.00179492799548342</v>
+        <v>0.03616370759534959</v>
       </c>
       <c r="D89">
-        <v>0.003412174077586194</v>
+        <v>0.02836961884189121</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>58.82072143697665</v>
+        <v>130.8942962526324</v>
       </c>
       <c r="B90">
-        <v>58.81871425378624</v>
+        <v>130.8579343869402</v>
       </c>
       <c r="C90">
-        <v>0.002007183190414707</v>
+        <v>0.0363618656921858</v>
       </c>
       <c r="D90">
-        <v>0.003412374315342765</v>
+        <v>0.02777956468172274</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>83.19645253781688</v>
+        <v>134.3609775886858</v>
       </c>
       <c r="B91">
-        <v>83.19361339691694</v>
+        <v>134.3239626789271</v>
       </c>
       <c r="C91">
-        <v>0.002839140899936865</v>
+        <v>0.03701490975873867</v>
       </c>
       <c r="D91">
-        <v>0.003412574470824145</v>
+        <v>0.02754885415619036</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>17.05249842649656</v>
+        <v>137.872949117355</v>
       </c>
       <c r="B92">
-        <v>17.05227885274235</v>
+        <v>137.8352855335906</v>
       </c>
       <c r="C92">
-        <v>0.0002195737542152187</v>
+        <v>0.03766358376438461</v>
       </c>
       <c r="D92">
-        <v>0.001287633921572689</v>
+        <v>0.02731760218774028</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>24.12033962302736</v>
+        <v>141.4303987354384</v>
       </c>
       <c r="B93">
-        <v>24.12002897607286</v>
+        <v>141.3919029509309</v>
       </c>
       <c r="C93">
-        <v>0.0003106469545031132</v>
+        <v>0.03849578450751778</v>
       </c>
       <c r="D93">
-        <v>0.00128790456253171</v>
+        <v>0.02721888989334501</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>29.54672880447129</v>
+        <v>145.0323648034416</v>
       </c>
       <c r="B94">
-        <v>29.54634819088179</v>
+        <v>144.9938149309478</v>
       </c>
       <c r="C94">
-        <v>0.0003806135894954821</v>
+        <v>0.03854987249380315</v>
       </c>
       <c r="D94">
-        <v>0.001288175053198729</v>
+        <v>0.02658018611642218</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>34.12393355696911</v>
+        <v>148.6818598345328</v>
       </c>
       <c r="B95">
-        <v>34.12349388871902</v>
+        <v>148.6410214736414</v>
       </c>
       <c r="C95">
-        <v>0.0004396682500953375</v>
+        <v>0.04083836089134252</v>
       </c>
       <c r="D95">
-        <v>0.001288445393791784</v>
+        <v>0.02746694246143497</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>38.15876962017883</v>
+        <v>152.3744492125125</v>
       </c>
       <c r="B96">
-        <v>38.15827786216788</v>
+        <v>152.3335225790117</v>
       </c>
       <c r="C96">
-        <v>0.0004917580109520259</v>
+        <v>0.04092663350081693</v>
       </c>
       <c r="D96">
-        <v>0.001288715584508726</v>
+        <v>0.02685924950825428</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>53.97461897363385</v>
+        <v>156.1123630918457</v>
       </c>
       <c r="B97">
-        <v>53.97392324855385</v>
+        <v>156.0713182470586</v>
       </c>
       <c r="C97">
-        <v>0.0006957250800070369</v>
+        <v>0.04104484478710901</v>
       </c>
       <c r="D97">
-        <v>0.001288985625534277</v>
+        <v>0.02629186053827208</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>42.97094264056807</v>
+        <v>159.8949185898636</v>
       </c>
       <c r="B98">
-        <v>42.9703893321342</v>
+        <v>159.8544084777823</v>
       </c>
       <c r="C98">
-        <v>0.000553308433872246</v>
+        <v>0.04051011208133559</v>
       </c>
       <c r="D98">
-        <v>0.001287633921602357</v>
+        <v>0.02533545933704468</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>60.78134150721474</v>
+        <v>163.7260042450968</v>
       </c>
       <c r="B99">
-        <v>60.78055870154432</v>
+        <v>163.6827932711826</v>
       </c>
       <c r="C99">
-        <v>0.0007828056704255459</v>
+        <v>0.04321097391422768</v>
       </c>
       <c r="D99">
-        <v>0.001287904562508919</v>
+        <v>0.02639224850900357</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>74.45541157186351</v>
+        <v>167.600363471084</v>
       </c>
       <c r="B100">
-        <v>74.45445245582586</v>
+        <v>167.5564726272596</v>
       </c>
       <c r="C100">
-        <v>0.0009591160376487551</v>
+        <v>0.04389084382438568</v>
       </c>
       <c r="D100">
-        <v>0.001288175053230385</v>
+        <v>0.02618779751749056</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>85.98960427221893</v>
+        <v>171.521235026842</v>
       </c>
       <c r="B101">
-        <v>85.98849634312354</v>
+        <v>171.4754465460132</v>
       </c>
       <c r="C101">
-        <v>0.001107929095383042</v>
+        <v>0.04578848082874742</v>
       </c>
       <c r="D101">
-        <v>0.001288445393789289</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
-        <v>96.15707092138031</v>
-      </c>
-      <c r="B102">
-        <v>96.15583173022171</v>
-      </c>
-      <c r="C102">
-        <v>0.001239191158603603</v>
-      </c>
-      <c r="D102">
-        <v>0.001288715584542698</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>136.011756046181</v>
-      </c>
-      <c r="B103">
-        <v>136.0100028741966</v>
-      </c>
-      <c r="C103">
-        <v>0.001753171984461233</v>
-      </c>
-      <c r="D103">
-        <v>0.001288985625526345</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
-        <v>60.7700898702477</v>
-      </c>
-      <c r="B104">
-        <v>60.76930737395634</v>
-      </c>
-      <c r="C104">
-        <v>0.0007824962913574041</v>
-      </c>
-      <c r="D104">
-        <v>0.001287633921602121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>85.95779749873384</v>
-      </c>
-      <c r="B105">
-        <v>85.95669044433799</v>
-      </c>
-      <c r="C105">
-        <v>0.001107054395845353</v>
-      </c>
-      <c r="D105">
-        <v>0.001287904562540309</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106">
-        <v>105.295852837</v>
-      </c>
-      <c r="B106">
-        <v>105.2944964420917</v>
-      </c>
-      <c r="C106">
-        <v>0.00135639490834194</v>
-      </c>
-      <c r="D106">
-        <v>0.001288175053239433</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
-        <v>121.6076645848675</v>
-      </c>
-      <c r="B107">
-        <v>121.6060977365146</v>
-      </c>
-      <c r="C107">
-        <v>0.00156684835285148</v>
-      </c>
-      <c r="D107">
-        <v>0.001288445393800001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>135.9866338150876</v>
-      </c>
-      <c r="B108">
-        <v>135.9848813341447</v>
-      </c>
-      <c r="C108">
-        <v>0.001752480942826651</v>
-      </c>
-      <c r="D108">
-        <v>0.001288715584510788</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
-        <v>192.34967004269</v>
-      </c>
-      <c r="B109">
-        <v>192.3471906830925</v>
-      </c>
-      <c r="C109">
-        <v>0.002479359597572284</v>
-      </c>
-      <c r="D109">
-        <v>0.001288985625513168</v>
+        <v>0.02669551721778462</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Real_vs_Predict.xlsx
+++ b/datasets/Real_vs_Predict.xlsx
@@ -408,13 +408,13 @@
         <v>3.219706175747628</v>
       </c>
       <c r="B2">
-        <v>3.220952133962965</v>
+        <v>3.160023845921545</v>
       </c>
       <c r="C2">
-        <v>0.001245958215336795</v>
+        <v>0.0596823298260829</v>
       </c>
       <c r="D2">
-        <v>0.038697885686649</v>
+        <v>1.85365764974577</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>2.700376295693827</v>
       </c>
       <c r="B3">
-        <v>2.701058910402238</v>
+        <v>2.647406350297295</v>
       </c>
       <c r="C3">
-        <v>0.0006826147084106893</v>
+        <v>0.05296994539653177</v>
       </c>
       <c r="D3">
-        <v>0.02527850320339522</v>
+        <v>1.961576446993726</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>2.225197794754311</v>
       </c>
       <c r="B4">
-        <v>2.226460249518188</v>
+        <v>2.179670778966485</v>
       </c>
       <c r="C4">
-        <v>0.001262454763876875</v>
+        <v>0.04552701578782603</v>
       </c>
       <c r="D4">
-        <v>0.05673449645029264</v>
+        <v>2.045976132780267</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>1.79745404532855</v>
       </c>
       <c r="B5">
-        <v>1.797156151310815</v>
+        <v>1.756817131929114</v>
       </c>
       <c r="C5">
-        <v>0.0002978940177345013</v>
+        <v>0.0406369133994362</v>
       </c>
       <c r="D5">
-        <v>0.01657310897648292</v>
+        <v>2.260804024728673</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>1.412374653486217</v>
       </c>
       <c r="B6">
-        <v>1.41314661578012</v>
+        <v>1.378845409185182</v>
       </c>
       <c r="C6">
-        <v>0.0007719622939035276</v>
+        <v>0.03352924430103466</v>
       </c>
       <c r="D6">
-        <v>0.05465704811383185</v>
+        <v>2.373962476476987</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>1.073631005418439</v>
       </c>
       <c r="B7">
-        <v>1.074431642926103</v>
+        <v>1.045755610734689</v>
       </c>
       <c r="C7">
-        <v>0.0008006375076636818</v>
+        <v>0.02787539468374978</v>
       </c>
       <c r="D7">
-        <v>0.07457287500295688</v>
+        <v>2.596366399914612</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.7786176858819784</v>
       </c>
       <c r="B8">
-        <v>0.7810112327487629</v>
+        <v>0.7575477365776364</v>
       </c>
       <c r="C8">
-        <v>0.002393546866784502</v>
+        <v>0.02106994930434203</v>
       </c>
       <c r="D8">
-        <v>0.3074097737804676</v>
+        <v>2.706071244769513</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.5320193090032052</v>
       </c>
       <c r="B9">
-        <v>0.5328853852481003</v>
+        <v>0.5142217867140237</v>
       </c>
       <c r="C9">
-        <v>0.0008660762448950976</v>
+        <v>0.01779752228918141</v>
       </c>
       <c r="D9">
-        <v>0.1627903781383017</v>
+        <v>3.345277509293218</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.3295135306277908</v>
       </c>
       <c r="B10">
-        <v>0.330054100424115</v>
+        <v>0.3157777611438495</v>
       </c>
       <c r="C10">
-        <v>0.000540569796324164</v>
+        <v>0.01373576948394134</v>
       </c>
       <c r="D10">
-        <v>0.1640508647078218</v>
+        <v>4.168499380821141</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.1716598904805359</v>
       </c>
       <c r="B11">
-        <v>0.1725173782768071</v>
+        <v>0.1622156598671154</v>
       </c>
       <c r="C11">
-        <v>0.0008574877962712335</v>
+        <v>0.009444230613420507</v>
       </c>
       <c r="D11">
-        <v>0.4995271719391328</v>
+        <v>5.501710729852391</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.05966737878847223</v>
       </c>
       <c r="B12">
-        <v>0.06027521880617703</v>
+        <v>0.05353548288382015</v>
       </c>
       <c r="C12">
-        <v>0.0006078400177048013</v>
+        <v>0.006131895904652081</v>
       </c>
       <c r="D12">
-        <v>1.018714128300599</v>
+        <v>10.27679785698373</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>-0.006067118829339596</v>
       </c>
       <c r="B13">
-        <v>-0.006672377987775757</v>
+        <v>-0.01026276980603535</v>
       </c>
       <c r="C13">
-        <v>0.0006052591584361612</v>
+        <v>0.004195650976695759</v>
       </c>
       <c r="D13">
-        <v>-9.976055776412796</v>
+        <v>-69.1539278315479</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>-0.0291135208962642</v>
       </c>
       <c r="B14">
-        <v>-0.02832541210505135</v>
+        <v>-0.02917909820245157</v>
       </c>
       <c r="C14">
-        <v>0.0007881087912128479</v>
+        <v>6.557730618737129E-05</v>
       </c>
       <c r="D14">
-        <v>-2.707019855210905</v>
+        <v>-0.225246909918704</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>-0.003737483376161106</v>
       </c>
       <c r="B15">
-        <v>-0.004683883545649747</v>
+        <v>-0.003213502305428051</v>
       </c>
       <c r="C15">
-        <v>0.0009464001694886415</v>
+        <v>0.000523981070733055</v>
       </c>
       <c r="D15">
-        <v>-25.32185629306319</v>
+        <v>-14.01962277812867</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.06632684875767067</v>
       </c>
       <c r="B16">
-        <v>0.06425220769042972</v>
+        <v>0.06763401788503387</v>
       </c>
       <c r="C16">
-        <v>0.002074641067240951</v>
+        <v>0.0013071691273632</v>
       </c>
       <c r="D16">
-        <v>3.127905374821565</v>
+        <v>1.97079938493539</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.1796626120231249</v>
       </c>
       <c r="B17">
-        <v>0.1784828616031864</v>
+        <v>0.183363462368936</v>
       </c>
       <c r="C17">
-        <v>0.001179750419938508</v>
+        <v>0.00370085034581108</v>
       </c>
       <c r="D17">
-        <v>0.6566477057489617</v>
+        <v>2.059888979758756</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.3400625228430507</v>
       </c>
       <c r="B18">
-        <v>0.3380080781926205</v>
+        <v>0.3439748311462778</v>
       </c>
       <c r="C18">
-        <v>0.002054444650430254</v>
+        <v>0.003912308303227086</v>
       </c>
       <c r="D18">
-        <v>0.6041373313514007</v>
+        <v>1.150467352449989</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.5441264029602549</v>
       </c>
       <c r="B19">
-        <v>0.5428278574587322</v>
+        <v>0.5494681242170589</v>
       </c>
       <c r="C19">
-        <v>0.001298545501522752</v>
+        <v>0.005341721256803988</v>
       </c>
       <c r="D19">
-        <v>0.238647765382854</v>
+        <v>0.9817059469533163</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.7962338913112076</v>
       </c>
       <c r="B20">
-        <v>0.7929421994015211</v>
+        <v>0.7998433415812789</v>
       </c>
       <c r="C20">
-        <v>0.003291691909686478</v>
+        <v>0.003609450270071313</v>
       </c>
       <c r="D20">
-        <v>0.4134076614430272</v>
+        <v>0.4533153272498119</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>1.091804128368968</v>
       </c>
       <c r="B21">
-        <v>1.088351104020988</v>
+        <v>1.095100483238938</v>
       </c>
       <c r="C21">
-        <v>0.003453024347980005</v>
+        <v>0.003296354869970264</v>
       </c>
       <c r="D21">
-        <v>0.3162677497051081</v>
+        <v>0.3019181540277417</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>1.430419267476538</v>
       </c>
       <c r="B22">
-        <v>1.429054571317131</v>
+        <v>1.435239549190038</v>
       </c>
       <c r="C22">
-        <v>0.001364696159406709</v>
+        <v>0.004820281713500574</v>
       </c>
       <c r="D22">
-        <v>0.09540532558780657</v>
+        <v>0.3369838356556978</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>1.818848566203085</v>
       </c>
       <c r="B23">
-        <v>1.815052601289954</v>
+        <v>1.820260539434578</v>
       </c>
       <c r="C23">
-        <v>0.003795964913131167</v>
+        <v>0.001411973231493002</v>
       </c>
       <c r="D23">
-        <v>0.2087015369869624</v>
+        <v>0.07763005990325789</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>2.249567946797578</v>
       </c>
       <c r="B24">
-        <v>2.246345193939451</v>
+        <v>2.250163453972555</v>
       </c>
       <c r="C24">
-        <v>0.003222752858127453</v>
+        <v>0.00059550717497725</v>
       </c>
       <c r="D24">
-        <v>0.1432609698549125</v>
+        <v>0.0264720688177033</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>2.727092271778383</v>
       </c>
       <c r="B25">
-        <v>2.722932349265629</v>
+        <v>2.724948292803975</v>
       </c>
       <c r="C25">
-        <v>0.004159922512754655</v>
+        <v>0.00214397897440799</v>
       </c>
       <c r="D25">
-        <v>0.1525405852894702</v>
+        <v>0.07861776429771716</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>3.248825759880158</v>
       </c>
       <c r="B26">
-        <v>3.24481406726848</v>
+        <v>3.244615055928829</v>
       </c>
       <c r="C26">
-        <v>0.004011692611677553</v>
+        <v>0.004210703951328831</v>
       </c>
       <c r="D26">
-        <v>0.1234813101157366</v>
+        <v>0.12960694917305</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>3.816473481587067</v>
       </c>
       <c r="B27">
-        <v>3.811990347948012</v>
+        <v>3.809163743347127</v>
       </c>
       <c r="C27">
-        <v>0.004483133639054504</v>
+        <v>0.007309738239940078</v>
       </c>
       <c r="D27">
-        <v>0.1174679625230937</v>
+        <v>0.1915312205156565</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>4.42833333496757</v>
       </c>
       <c r="B28">
-        <v>4.424461191304221</v>
+        <v>4.418594355058862</v>
       </c>
       <c r="C28">
-        <v>0.003872143663349092</v>
+        <v>0.009738979908708423</v>
       </c>
       <c r="D28">
-        <v>0.08744020312954713</v>
+        <v>0.2199242733559881</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>5.085792038051454</v>
       </c>
       <c r="B29">
-        <v>5.082226597337108</v>
+        <v>5.072906891064039</v>
       </c>
       <c r="C29">
-        <v>0.003565440714345947</v>
+        <v>0.01288514698741494</v>
       </c>
       <c r="D29">
-        <v>0.07010590853242973</v>
+        <v>0.2533557583756746</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>5.790215634249964</v>
       </c>
       <c r="B30">
-        <v>5.785286566046667</v>
+        <v>5.772101351362652</v>
       </c>
       <c r="C30">
-        <v>0.004929068203296971</v>
+        <v>0.01811428288731243</v>
       </c>
       <c r="D30">
-        <v>0.08512754126358989</v>
+        <v>0.3128429756599015</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>6.537999045137668</v>
       </c>
       <c r="B31">
-        <v>6.533641097432913</v>
+        <v>6.516177735954709</v>
       </c>
       <c r="C31">
-        <v>0.004357947704755283</v>
+        <v>0.02182130918295933</v>
       </c>
       <c r="D31">
-        <v>0.06665567973730897</v>
+        <v>0.3337612782184162</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>7.332920295167548</v>
       </c>
       <c r="B32">
-        <v>7.327290191495832</v>
+        <v>7.3051360448402</v>
       </c>
       <c r="C32">
-        <v>0.00563010367171568</v>
+        <v>0.02778425032734777</v>
       </c>
       <c r="D32">
-        <v>0.07677846540110307</v>
+        <v>0.3788974816166734</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>8.172223197999942</v>
       </c>
       <c r="B33">
-        <v>8.166233848235429</v>
+        <v>8.138976278019134</v>
       </c>
       <c r="C33">
-        <v>0.005989349764513818</v>
+        <v>0.03324691998080809</v>
       </c>
       <c r="D33">
-        <v>0.07328911141315429</v>
+        <v>0.4068283400402584</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>9.056835190769727</v>
       </c>
       <c r="B34">
-        <v>9.050472067651693</v>
+        <v>9.017698435491504</v>
       </c>
       <c r="C34">
-        <v>0.006363123118033442</v>
+        <v>0.03913675527822313</v>
       </c>
       <c r="D34">
-        <v>0.07025768918173998</v>
+        <v>0.4321239644297531</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>9.985834106709703</v>
       </c>
       <c r="B35">
-        <v>9.980004849744649</v>
+        <v>9.94130251725732</v>
       </c>
       <c r="C35">
-        <v>0.005829256965053986</v>
+        <v>0.044531589452383</v>
       </c>
       <c r="D35">
-        <v>0.05837526342578813</v>
+        <v>0.4459476191624417</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>10.96091664230036</v>
       </c>
       <c r="B36">
-        <v>10.95483219451427</v>
+        <v>10.90978852331657</v>
       </c>
       <c r="C36">
-        <v>0.006084447786085079</v>
+        <v>0.05112811898379199</v>
       </c>
       <c r="D36">
-        <v>0.05551039191926689</v>
+        <v>0.4664584236183167</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>11.98198211900225</v>
       </c>
       <c r="B37">
-        <v>11.97495410196058</v>
+        <v>11.92315645366926</v>
       </c>
       <c r="C37">
-        <v>0.00702801704166589</v>
+        <v>0.05882566533298572</v>
       </c>
       <c r="D37">
-        <v>0.058654878398793</v>
+        <v>0.4909510358865748</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>13.0485233761499</v>
       </c>
       <c r="B38">
-        <v>13.04037057208356</v>
+        <v>12.98140630831539</v>
       </c>
       <c r="C38">
-        <v>0.008152804066343222</v>
+        <v>0.06711706783451099</v>
       </c>
       <c r="D38">
-        <v>0.06248066414353767</v>
+        <v>0.5143652342853415</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>14.15940626314065</v>
       </c>
       <c r="B39">
-        <v>14.15108160488322</v>
+        <v>14.08453808725496</v>
       </c>
       <c r="C39">
-        <v>0.008324658257429007</v>
+        <v>0.07486817588568684</v>
       </c>
       <c r="D39">
-        <v>0.05879242464494795</v>
+        <v>0.5287522265716853</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>15.31472717667958</v>
       </c>
       <c r="B40">
-        <v>15.30708720035956</v>
+        <v>15.23255179048797</v>
       </c>
       <c r="C40">
-        <v>0.007639976320016117</v>
+        <v>0.08217538619161324</v>
       </c>
       <c r="D40">
-        <v>0.04988646700575803</v>
+        <v>0.5365775390158133</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>16.51798146403575</v>
       </c>
       <c r="B41">
-        <v>16.50838735851258</v>
+        <v>16.42544741801442</v>
       </c>
       <c r="C41">
-        <v>0.009594105523166974</v>
+        <v>0.09253404602133131</v>
       </c>
       <c r="D41">
-        <v>0.05808279627904908</v>
+        <v>0.5602019001099119</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>17.7637925715202</v>
       </c>
       <c r="B42">
-        <v>17.75498207934228</v>
+        <v>17.66322496983432</v>
       </c>
       <c r="C42">
-        <v>0.008810492177921958</v>
+        <v>0.1005676016858814</v>
       </c>
       <c r="D42">
-        <v>0.04959803568100305</v>
+        <v>0.5661381221435586</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>19.05884705361218</v>
       </c>
       <c r="B43">
-        <v>19.04687136284864</v>
+        <v>18.94588444594763</v>
       </c>
       <c r="C43">
-        <v>0.01197569076353844</v>
+        <v>0.1129626076645458</v>
       </c>
       <c r="D43">
-        <v>0.06283533694273868</v>
+        <v>0.5927043086435612</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>20.3945044561875</v>
       </c>
       <c r="B44">
-        <v>20.38405520903169</v>
+        <v>20.27342584635441</v>
       </c>
       <c r="C44">
-        <v>0.0104492471558153</v>
+        <v>0.1210786098330949</v>
       </c>
       <c r="D44">
-        <v>0.05123560211165168</v>
+        <v>0.59368252900286</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>21.77553694793183</v>
       </c>
       <c r="B45">
-        <v>21.76653361789142</v>
+        <v>21.64584917105461</v>
       </c>
       <c r="C45">
-        <v>0.009003330040414426</v>
+        <v>0.1296877768772156</v>
       </c>
       <c r="D45">
-        <v>0.04134607592888557</v>
+        <v>0.5955663788558513</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>23.20474000457469</v>
       </c>
       <c r="B46">
-        <v>23.19430658942782</v>
+        <v>23.06315442004826</v>
       </c>
       <c r="C46">
-        <v>0.01043341514687057</v>
+        <v>0.1415855845264247</v>
       </c>
       <c r="D46">
-        <v>0.04496243071378383</v>
+        <v>0.6101580302063796</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>24.67730484281448</v>
       </c>
       <c r="B47">
-        <v>24.66737412364089</v>
+        <v>24.52534159333534</v>
       </c>
       <c r="C47">
-        <v>0.009930719173588898</v>
+        <v>0.1519632494791416</v>
       </c>
       <c r="D47">
-        <v>0.04024231672317537</v>
+        <v>0.6158016462782004</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>26.19737702421959</v>
       </c>
       <c r="B48">
-        <v>26.18573622053065</v>
+        <v>26.03241069091587</v>
       </c>
       <c r="C48">
-        <v>0.0116408036889446</v>
+        <v>0.1649663333037203</v>
       </c>
       <c r="D48">
-        <v>0.04443499697768455</v>
+        <v>0.6297055356007902</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>27.76056594001353</v>
       </c>
       <c r="B49">
-        <v>27.74939288009709</v>
+        <v>27.58436171278984</v>
       </c>
       <c r="C49">
-        <v>0.01117305991644102</v>
+        <v>0.1762042272236961</v>
       </c>
       <c r="D49">
-        <v>0.04024795438459124</v>
+        <v>0.6347285123957751</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>29.36970712782713</v>
       </c>
       <c r="B50">
-        <v>29.35834410234021</v>
+        <v>29.18119465895724</v>
       </c>
       <c r="C50">
-        <v>0.01136302548692214</v>
+        <v>0.188512468869888</v>
       </c>
       <c r="D50">
-        <v>0.0386896111611407</v>
+        <v>0.6418602271020836</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>31.0273469098853</v>
       </c>
       <c r="B51">
-        <v>31.01258988725999</v>
+        <v>30.82290952941809</v>
       </c>
       <c r="C51">
-        <v>0.01475702262530731</v>
+        <v>0.2044373804672119</v>
       </c>
       <c r="D51">
-        <v>0.04756134215460663</v>
+        <v>0.65889417184451</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>32.72411871816266</v>
       </c>
       <c r="B52">
-        <v>32.71213023485645</v>
+        <v>32.50950632417236</v>
       </c>
       <c r="C52">
-        <v>0.01198848330621161</v>
+        <v>0.2146123939903006</v>
       </c>
       <c r="D52">
-        <v>0.03663500737624972</v>
+        <v>0.6558232960791262</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>34.47191849010084</v>
       </c>
       <c r="B53">
-        <v>34.45696514512959</v>
+        <v>34.24098504322009</v>
       </c>
       <c r="C53">
-        <v>0.01495334497124645</v>
+        <v>0.2309334468807549</v>
       </c>
       <c r="D53">
-        <v>0.04337833699490947</v>
+        <v>0.6699175937860004</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>36.25978167363415</v>
       </c>
       <c r="B54">
-        <v>36.24709461807943</v>
+        <v>36.01734568656125</v>
       </c>
       <c r="C54">
-        <v>0.01268705555472138</v>
+        <v>0.242435987072902</v>
       </c>
       <c r="D54">
-        <v>0.03498933244804013</v>
+        <v>0.6686085130214293</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>38.0960774515336</v>
       </c>
       <c r="B55">
-        <v>38.08251865370593</v>
+        <v>37.83858825419586</v>
       </c>
       <c r="C55">
-        <v>0.01355879782767744</v>
+        <v>0.2574891973377476</v>
       </c>
       <c r="D55">
-        <v>0.0355910601161685</v>
+        <v>0.6758942509641029</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>39.9783243882559</v>
       </c>
       <c r="B56">
-        <v>39.96323725200909</v>
+        <v>39.70471274612388</v>
       </c>
       <c r="C56">
-        <v>0.01508713624680524</v>
+        <v>0.2736116421320176</v>
       </c>
       <c r="D56">
-        <v>0.03773829063040288</v>
+        <v>0.6843999750334565</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>41.90661119946478</v>
       </c>
       <c r="B57">
-        <v>41.88925041298895</v>
+        <v>41.61571916234536</v>
       </c>
       <c r="C57">
-        <v>0.01736078647582673</v>
+        <v>0.2908920371194128</v>
       </c>
       <c r="D57">
-        <v>0.04142732131976459</v>
+        <v>0.6941435463126353</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>43.87695240712237</v>
       </c>
       <c r="B58">
-        <v>43.86055813664549</v>
+        <v>43.57160750286029</v>
       </c>
       <c r="C58">
-        <v>0.01639427047688002</v>
+        <v>0.3053449042620784</v>
       </c>
       <c r="D58">
-        <v>0.03736419595591331</v>
+        <v>0.6959118341421383</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>45.89467310722644</v>
       </c>
       <c r="B59">
-        <v>45.8771604229787</v>
+        <v>45.57237776766866</v>
       </c>
       <c r="C59">
-        <v>0.017512684247734</v>
+        <v>0.3222953395577832</v>
       </c>
       <c r="D59">
-        <v>0.03815842463202229</v>
+        <v>0.7022499949063491</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>47.95455089752981</v>
       </c>
       <c r="B60">
-        <v>47.93905727198857</v>
+        <v>47.61802995677044</v>
       </c>
       <c r="C60">
-        <v>0.01549362554123945</v>
+        <v>0.336520940759371</v>
       </c>
       <c r="D60">
-        <v>0.03230897850413931</v>
+        <v>0.7017497494209783</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>50.06424493347262</v>
       </c>
       <c r="B61">
-        <v>50.04624868367515</v>
+        <v>49.70856407016568</v>
       </c>
       <c r="C61">
-        <v>0.01799624979747705</v>
+        <v>0.3556808633069437</v>
       </c>
       <c r="D61">
-        <v>0.03594631222620293</v>
+        <v>0.7104488718037927</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>52.21760517324593</v>
       </c>
       <c r="B62">
-        <v>52.1987346580384</v>
+        <v>51.84398010785438</v>
       </c>
       <c r="C62">
-        <v>0.01887051520753147</v>
+        <v>0.3736250653915505</v>
       </c>
       <c r="D62">
-        <v>0.03613822415816173</v>
+        <v>0.7155155127316716</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>54.41487834699468</v>
       </c>
       <c r="B63">
-        <v>54.39651519507831</v>
+        <v>54.02427806983648</v>
       </c>
       <c r="C63">
-        <v>0.01836315191637539</v>
+        <v>0.3906002771582067</v>
       </c>
       <c r="D63">
-        <v>0.03374656431146754</v>
+        <v>0.7178188925966411</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>56.66035204722863</v>
       </c>
       <c r="B64">
-        <v>56.63959029479488</v>
+        <v>56.24945795611202</v>
       </c>
       <c r="C64">
-        <v>0.02076175243374934</v>
+        <v>0.410894091116603</v>
       </c>
       <c r="D64">
-        <v>0.03664246988166187</v>
+        <v>0.7251880305546049</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>58.94784136816728</v>
       </c>
       <c r="B65">
-        <v>58.92795995718818</v>
+        <v>58.51951976668102</v>
       </c>
       <c r="C65">
-        <v>0.01988141097910301</v>
+        <v>0.4283216014862603</v>
       </c>
       <c r="D65">
-        <v>0.03372712302547395</v>
+        <v>0.726611172767321</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>61.2826732592094</v>
       </c>
       <c r="B66">
-        <v>61.26162418225815</v>
+        <v>60.83446350154348</v>
       </c>
       <c r="C66">
-        <v>0.02104907695125746</v>
+        <v>0.4482097576659214</v>
       </c>
       <c r="D66">
-        <v>0.03434751754745663</v>
+        <v>0.7313808843979658</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>63.6618240328749</v>
       </c>
       <c r="B67">
-        <v>63.64058297000474</v>
+        <v>63.19428916069934</v>
       </c>
       <c r="C67">
-        <v>0.02124106287015337</v>
+        <v>0.4675348721755554</v>
       </c>
       <c r="D67">
-        <v>0.03336546382834477</v>
+        <v>0.734403827220095</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>66.08755028393047</v>
       </c>
       <c r="B68">
-        <v>66.06483632042806</v>
+        <v>65.59899674414866</v>
       </c>
       <c r="C68">
-        <v>0.02271396350241162</v>
+        <v>0.4885535397818046</v>
       </c>
       <c r="D68">
-        <v>0.03436950439958225</v>
+        <v>0.7392520038688724</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>68.55697085970382</v>
       </c>
       <c r="B69">
-        <v>68.53438423352804</v>
+        <v>68.04858625189141</v>
       </c>
       <c r="C69">
-        <v>0.02258662617578011</v>
+        <v>0.5083846078124168</v>
       </c>
       <c r="D69">
-        <v>0.03294577618080848</v>
+        <v>0.741550569456728</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>71.07280890112769</v>
       </c>
       <c r="B70">
-        <v>71.04922670930473</v>
+        <v>70.54305768392763</v>
       </c>
       <c r="C70">
-        <v>0.02358219182295329</v>
+        <v>0.529751217200058</v>
       </c>
       <c r="D70">
-        <v>0.0331803290000251</v>
+        <v>0.745364120808869</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>73.6330606209449</v>
       </c>
       <c r="B71">
-        <v>73.60936374775807</v>
+        <v>73.08241104025724</v>
       </c>
       <c r="C71">
-        <v>0.02369687318683589</v>
+        <v>0.5506495806876615</v>
       </c>
       <c r="D71">
-        <v>0.03218238246108612</v>
+        <v>0.7478292713138007</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>76.24048909651322</v>
       </c>
       <c r="B72">
-        <v>76.21479534888806</v>
+        <v>75.66664632088032</v>
       </c>
       <c r="C72">
-        <v>0.02569374762515508</v>
+        <v>0.5738427756328974</v>
       </c>
       <c r="D72">
-        <v>0.03370092181941441</v>
+        <v>0.7526745728329037</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>78.89007310539429</v>
       </c>
       <c r="B73">
-        <v>78.86552151269474</v>
+        <v>78.29576352579681</v>
       </c>
       <c r="C73">
-        <v>0.02455159269955232</v>
+        <v>0.5943095795974784</v>
       </c>
       <c r="D73">
-        <v>0.03112127005732682</v>
+        <v>0.753338862804072</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>81.58810245576932</v>
       </c>
       <c r="B74">
-        <v>81.56154223917811</v>
+        <v>80.96976265500675</v>
       </c>
       <c r="C74">
-        <v>0.02656021659120711</v>
+        <v>0.6183398007625698</v>
       </c>
       <c r="D74">
-        <v>0.03255403152145373</v>
+        <v>0.7578798650180463</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>84.32830225858284</v>
       </c>
       <c r="B75">
-        <v>84.30285752833818</v>
+        <v>83.68864370851016</v>
       </c>
       <c r="C75">
-        <v>0.02544473024465788</v>
+        <v>0.6396585500726815</v>
       </c>
       <c r="D75">
-        <v>0.03017341694682124</v>
+        <v>0.7585336511474446</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>87.11676359543526</v>
       </c>
       <c r="B76">
-        <v>87.08946738017491</v>
+        <v>86.452406686307</v>
       </c>
       <c r="C76">
-        <v>0.02729621526034975</v>
+        <v>0.6643569091282586</v>
       </c>
       <c r="D76">
-        <v>0.03133290785125083</v>
+        <v>0.7626051309866033</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>89.94853471207314</v>
       </c>
       <c r="B77">
-        <v>89.92137179468827</v>
+        <v>89.26105158839725</v>
       </c>
       <c r="C77">
-        <v>0.02716291738487087</v>
+        <v>0.6874831236758894</v>
       </c>
       <c r="D77">
-        <v>0.0301982878007072</v>
+        <v>0.7643071961945073</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>92.82519121237088</v>
       </c>
       <c r="B78">
-        <v>92.79857077187835</v>
+        <v>92.11457841478094</v>
       </c>
       <c r="C78">
-        <v>0.02662044049253609</v>
+        <v>0.7106127975899454</v>
       </c>
       <c r="D78">
-        <v>0.02867803464216119</v>
+        <v>0.765538738254968</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>95.74891957016341</v>
       </c>
       <c r="B79">
-        <v>95.72106431174515</v>
+        <v>95.01298716545811</v>
       </c>
       <c r="C79">
-        <v>0.02785525841825631</v>
+        <v>0.7359324047052951</v>
       </c>
       <c r="D79">
-        <v>0.02909198197045387</v>
+        <v>0.7686064845525642</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>98.71833689849635</v>
       </c>
       <c r="B80">
-        <v>98.68885241428859</v>
+        <v>97.95627784042871</v>
       </c>
       <c r="C80">
-        <v>0.02948448420775662</v>
+        <v>0.762059058067635</v>
       </c>
       <c r="D80">
-        <v>0.02986728214239772</v>
+        <v>0.7719528934641549</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>101.7316887288901</v>
       </c>
       <c r="B81">
-        <v>101.7019350795087</v>
+        <v>100.9444504396927</v>
       </c>
       <c r="C81">
-        <v>0.02975364938143343</v>
+        <v>0.7872382891973899</v>
       </c>
       <c r="D81">
-        <v>0.02924717927442002</v>
+        <v>0.7738378267713031</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>104.7904753905455</v>
       </c>
       <c r="B82">
-        <v>104.7603123074055</v>
+        <v>103.9775049632502</v>
       </c>
       <c r="C82">
-        <v>0.03016308314001037</v>
+        <v>0.8129704272952694</v>
       </c>
       <c r="D82">
-        <v>0.02878418389418985</v>
+        <v>0.7758056486196816</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>107.8954254948007</v>
       </c>
       <c r="B83">
-        <v>107.8639840979789</v>
+        <v>107.0554414111011</v>
       </c>
       <c r="C83">
-        <v>0.03144139682176217</v>
+        <v>0.8399840836995907</v>
       </c>
       <c r="D83">
-        <v>0.029140620816475</v>
+        <v>0.7785168646840065</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>111.0452773214064</v>
       </c>
       <c r="B84">
-        <v>111.0129504512291</v>
+        <v>110.1782597832454</v>
       </c>
       <c r="C84">
-        <v>0.03232687017732871</v>
+        <v>0.8670175381609795</v>
       </c>
       <c r="D84">
-        <v>0.02911143180250945</v>
+        <v>0.780778398753067</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>114.2406200338595</v>
       </c>
       <c r="B85">
-        <v>114.2072113671559</v>
+        <v>113.3459600796832</v>
       </c>
       <c r="C85">
-        <v>0.03340866670357912</v>
+        <v>0.8946599541762623</v>
       </c>
       <c r="D85">
-        <v>0.02924412235654639</v>
+        <v>0.7831364657431799</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>117.4797871316415</v>
       </c>
       <c r="B86">
-        <v>117.4467668457594</v>
+        <v>116.5585423004144</v>
       </c>
       <c r="C86">
-        <v>0.03302028588210248</v>
+        <v>0.9212448312270567</v>
       </c>
       <c r="D86">
-        <v>0.02810720608907959</v>
+        <v>0.7841730511434785</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>120.7642220827281</v>
       </c>
       <c r="B87">
-        <v>120.7316168870396</v>
+        <v>119.8160064454391</v>
       </c>
       <c r="C87">
-        <v>0.03260519568848963</v>
+        <v>0.9482156372889534</v>
       </c>
       <c r="D87">
-        <v>0.02699905247280426</v>
+        <v>0.7851792699326043</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>124.0966325167546</v>
       </c>
       <c r="B88">
-        <v>124.0617614909965</v>
+        <v>123.1183525147572</v>
       </c>
       <c r="C88">
-        <v>0.03487102575813594</v>
+        <v>0.9782800019973763</v>
       </c>
       <c r="D88">
-        <v>0.02809989687143841</v>
+        <v>0.7883211511523459</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>127.4733643652253</v>
       </c>
       <c r="B89">
-        <v>127.4372006576299</v>
+        <v>126.4655805083687</v>
       </c>
       <c r="C89">
-        <v>0.03616370759534959</v>
+        <v>1.007783856856562</v>
       </c>
       <c r="D89">
-        <v>0.02836961884189121</v>
+        <v>0.790583869716618</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>130.8942962526324</v>
       </c>
       <c r="B90">
-        <v>130.8579343869402</v>
+        <v>129.8576904262738</v>
       </c>
       <c r="C90">
-        <v>0.0363618656921858</v>
+        <v>1.036605826358624</v>
       </c>
       <c r="D90">
-        <v>0.02777956468172274</v>
+        <v>0.7919411739361997</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>134.3609775886858</v>
       </c>
       <c r="B91">
-        <v>134.3239626789271</v>
+        <v>133.2946822684721</v>
       </c>
       <c r="C91">
-        <v>0.03701490975873867</v>
+        <v>1.066295320213669</v>
       </c>
       <c r="D91">
-        <v>0.02754885415619036</v>
+        <v>0.7936049136810233</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1668,13 +1668,13 @@
         <v>137.872949117355</v>
       </c>
       <c r="B92">
-        <v>137.8352855335906</v>
+        <v>136.776556034964</v>
       </c>
       <c r="C92">
-        <v>0.03766358376438461</v>
+        <v>1.096393082391046</v>
       </c>
       <c r="D92">
-        <v>0.02731760218774028</v>
+        <v>0.7952198668484386</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1682,13 +1682,13 @@
         <v>141.4303987354384</v>
       </c>
       <c r="B93">
-        <v>141.3919029509309</v>
+        <v>140.3033117257493</v>
       </c>
       <c r="C93">
-        <v>0.03849578450751778</v>
+        <v>1.127087009689092</v>
       </c>
       <c r="D93">
-        <v>0.02721888989334501</v>
+        <v>0.7969199123856222</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1696,13 +1696,13 @@
         <v>145.0323648034416</v>
       </c>
       <c r="B94">
-        <v>144.9938149309478</v>
+        <v>143.874949340828</v>
       </c>
       <c r="C94">
-        <v>0.03854987249380315</v>
+        <v>1.157415462613585</v>
       </c>
       <c r="D94">
-        <v>0.02658018611642218</v>
+        <v>0.7980394335996649</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1710,13 +1710,13 @@
         <v>148.6818598345328</v>
       </c>
       <c r="B95">
-        <v>148.6410214736414</v>
+        <v>147.4914688802002</v>
       </c>
       <c r="C95">
-        <v>0.04083836089134252</v>
+        <v>1.190390954332543</v>
       </c>
       <c r="D95">
-        <v>0.02746694246143497</v>
+        <v>0.8006295829614467</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>152.3744492125125</v>
       </c>
       <c r="B96">
-        <v>152.3335225790117</v>
+        <v>151.1528703438658</v>
       </c>
       <c r="C96">
-        <v>0.04092663350081693</v>
+        <v>1.221578868646674</v>
       </c>
       <c r="D96">
-        <v>0.02685924950825428</v>
+        <v>0.8016953465360659</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1738,13 +1738,13 @@
         <v>156.1123630918457</v>
       </c>
       <c r="B97">
-        <v>156.0713182470586</v>
+        <v>154.8591537318249</v>
       </c>
       <c r="C97">
-        <v>0.04104484478710901</v>
+        <v>1.253209360020833</v>
       </c>
       <c r="D97">
-        <v>0.02629186053827208</v>
+        <v>0.8027611235911732</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1752,13 +1752,13 @@
         <v>159.8949185898636</v>
       </c>
       <c r="B98">
-        <v>159.8544084777823</v>
+        <v>158.6103190440774</v>
       </c>
       <c r="C98">
-        <v>0.04051011208133559</v>
+        <v>1.284599545786193</v>
       </c>
       <c r="D98">
-        <v>0.02533545933704468</v>
+        <v>0.8034023576954553</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1766,13 +1766,13 @@
         <v>163.7260042450968</v>
       </c>
       <c r="B99">
-        <v>163.6827932711826</v>
+        <v>162.4063662806233</v>
       </c>
       <c r="C99">
-        <v>0.04321097391422768</v>
+        <v>1.319637964473458</v>
       </c>
       <c r="D99">
-        <v>0.02639224850900357</v>
+        <v>0.8060038908040338</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1780,13 +1780,13 @@
         <v>167.600363471084</v>
       </c>
       <c r="B100">
-        <v>167.5564726272596</v>
+        <v>166.2472954414627</v>
       </c>
       <c r="C100">
-        <v>0.04389084382438568</v>
+        <v>1.353068029621255</v>
       </c>
       <c r="D100">
-        <v>0.02618779751749056</v>
+        <v>0.8073180759269053</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1794,13 +1794,13 @@
         <v>171.521235026842</v>
       </c>
       <c r="B101">
-        <v>171.4754465460132</v>
+        <v>170.1331065265955</v>
       </c>
       <c r="C101">
-        <v>0.04578848082874742</v>
+        <v>1.388128500246467</v>
       </c>
       <c r="D101">
-        <v>0.02669551721778462</v>
+        <v>0.8093041657665496</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Real_vs_Predict.xlsx
+++ b/datasets/Real_vs_Predict.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,1402 +405,1514 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>3.219706175747628</v>
+        <v>27.06819403799467</v>
       </c>
       <c r="B2">
-        <v>3.160023845921545</v>
+        <v>27.06744035153203</v>
       </c>
       <c r="C2">
-        <v>0.0596823298260829</v>
+        <v>0.0007536864626445094</v>
       </c>
       <c r="D2">
-        <v>1.85365764974577</v>
+        <v>0.002784398772916236</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2.700376295693827</v>
+        <v>38.28614111340648</v>
       </c>
       <c r="B3">
-        <v>2.647406350297295</v>
+        <v>38.28507551459078</v>
       </c>
       <c r="C3">
-        <v>0.05296994539653177</v>
+        <v>0.001065598815699786</v>
       </c>
       <c r="D3">
-        <v>1.961576446993726</v>
+        <v>0.002783249459754644</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2.225197794754311</v>
+        <v>46.89802035296633</v>
       </c>
       <c r="B4">
-        <v>2.179670778966485</v>
+        <v>46.8967156028228</v>
       </c>
       <c r="C4">
-        <v>0.04552701578782603</v>
+        <v>0.001304750143525268</v>
       </c>
       <c r="D4">
-        <v>2.045976132780267</v>
+        <v>0.002782100680807825</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1.79745404532855</v>
+        <v>54.16155608894825</v>
       </c>
       <c r="B5">
-        <v>1.756817131929114</v>
+        <v>54.16004988183506</v>
       </c>
       <c r="C5">
-        <v>0.0406369133994362</v>
+        <v>0.001506207113187941</v>
       </c>
       <c r="D5">
-        <v>2.260804024728673</v>
+        <v>0.002780952435551025</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1.412374653486217</v>
+        <v>60.56383434668712</v>
       </c>
       <c r="B6">
-        <v>1.378845409185182</v>
+        <v>60.56215079035926</v>
       </c>
       <c r="C6">
-        <v>0.03352924430103466</v>
+        <v>0.001683556327854774</v>
       </c>
       <c r="D6">
-        <v>2.373962476476987</v>
+        <v>0.002779804723422148</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1.073631005418439</v>
+        <v>85.66344831251371</v>
       </c>
       <c r="B7">
-        <v>1.045755610734689</v>
+        <v>85.66106801864468</v>
       </c>
       <c r="C7">
-        <v>0.02787539468374978</v>
+        <v>0.002380293869023831</v>
       </c>
       <c r="D7">
-        <v>2.596366399914612</v>
+        <v>0.002778657544043925</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.7786176858819784</v>
+        <v>68.20970067254854</v>
       </c>
       <c r="B8">
-        <v>0.7575477365776364</v>
+        <v>68.20780144247999</v>
       </c>
       <c r="C8">
-        <v>0.02106994930434203</v>
+        <v>0.001899230068545421</v>
       </c>
       <c r="D8">
-        <v>2.706071244769513</v>
+        <v>0.002784398772929639</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.5320193090032052</v>
+        <v>96.47803697530608</v>
       </c>
       <c r="B9">
-        <v>0.5142217867140237</v>
+        <v>96.4753517508632</v>
       </c>
       <c r="C9">
-        <v>0.01779752228918141</v>
+        <v>0.002685224442885215</v>
       </c>
       <c r="D9">
-        <v>3.345277509293218</v>
+        <v>0.002783249459742333</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.3295135306277908</v>
+        <v>118.1792891657544</v>
       </c>
       <c r="B10">
-        <v>0.3157777611438495</v>
+        <v>118.1760012989459</v>
       </c>
       <c r="C10">
-        <v>0.01373576948394134</v>
+        <v>0.00328786680844928</v>
       </c>
       <c r="D10">
-        <v>4.168499380821141</v>
+        <v>0.002782100680803576</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.1716598904805359</v>
+        <v>136.4828227402606</v>
       </c>
       <c r="B11">
-        <v>0.1622156598671154</v>
+        <v>136.4790272178776</v>
       </c>
       <c r="C11">
-        <v>0.009444230613420507</v>
+        <v>0.003795522383057914</v>
       </c>
       <c r="D11">
-        <v>5.501710729852391</v>
+        <v>0.00278095243551721</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.05966737878847223</v>
+        <v>152.616055824439</v>
       </c>
       <c r="B12">
-        <v>0.05353548288382015</v>
+        <v>152.6118133961105</v>
       </c>
       <c r="C12">
-        <v>0.006131895904652081</v>
+        <v>0.004242428328524284</v>
       </c>
       <c r="D12">
-        <v>10.27679785698373</v>
+        <v>0.002779804723432596</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>-0.006067118829339596</v>
+        <v>215.865090954098</v>
       </c>
       <c r="B13">
-        <v>-0.01026276980603535</v>
+        <v>215.8590928024632</v>
       </c>
       <c r="C13">
-        <v>0.004195650976695759</v>
+        <v>0.005998151634742044</v>
       </c>
       <c r="D13">
-        <v>-69.1539278315479</v>
+        <v>0.002778657544038699</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>-0.0291135208962642</v>
+        <v>96.46308377652733</v>
       </c>
       <c r="B14">
-        <v>-0.02917909820245157</v>
+        <v>96.46039785960636</v>
       </c>
       <c r="C14">
-        <v>6.557730618737129E-05</v>
+        <v>0.002685916920967202</v>
       </c>
       <c r="D14">
-        <v>-0.225246909918704</v>
+        <v>0.002784398772891785</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>-0.003737483376161106</v>
+        <v>136.4405483616108</v>
       </c>
       <c r="B15">
-        <v>-0.003213502305428051</v>
+        <v>136.4367508807856</v>
       </c>
       <c r="C15">
-        <v>0.000523981070733055</v>
+        <v>0.003797480825170396</v>
       </c>
       <c r="D15">
-        <v>-14.01962277812867</v>
+        <v>0.002783249459761673</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.06632684875767067</v>
+        <v>167.1307535298217</v>
       </c>
       <c r="B16">
-        <v>0.06763401788503387</v>
+        <v>167.1261037839899</v>
       </c>
       <c r="C16">
-        <v>0.0013071691273632</v>
+        <v>0.004649745831812879</v>
       </c>
       <c r="D16">
-        <v>1.97079938493539</v>
+        <v>0.002782100680820068</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.1796626120231249</v>
+        <v>193.0158589502397</v>
       </c>
       <c r="B17">
-        <v>0.183363462368936</v>
+        <v>193.0104912710092</v>
       </c>
       <c r="C17">
-        <v>0.00370085034581108</v>
+        <v>0.005367679230431577</v>
       </c>
       <c r="D17">
-        <v>2.059888979758756</v>
+        <v>0.002780952435527792</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.3400625228430507</v>
+        <v>215.8316959828111</v>
       </c>
       <c r="B18">
-        <v>0.3439748311462778</v>
+        <v>215.8256962831315</v>
       </c>
       <c r="C18">
-        <v>0.003912308303227086</v>
+        <v>0.005999699679620107</v>
       </c>
       <c r="D18">
-        <v>1.150467352449989</v>
+        <v>0.002779804723444292</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.5441264029602549</v>
+        <v>305.2793392701871</v>
       </c>
       <c r="B19">
-        <v>0.5494681242170589</v>
+        <v>305.270856602796</v>
       </c>
       <c r="C19">
-        <v>0.005341721256803988</v>
+        <v>0.008482667391035648</v>
       </c>
       <c r="D19">
-        <v>0.9817059469533163</v>
+        <v>0.00277865754404299</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.7962338913112076</v>
+        <v>21.11745895758224</v>
       </c>
       <c r="B20">
-        <v>0.7998433415812789</v>
+        <v>21.11716822681487</v>
       </c>
       <c r="C20">
-        <v>0.003609450270071313</v>
+        <v>0.0002907307673680748</v>
       </c>
       <c r="D20">
-        <v>0.4533153272498119</v>
+        <v>0.001376731774178198</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>1.091804128368968</v>
+        <v>29.86459686067001</v>
       </c>
       <c r="B21">
-        <v>1.095100483238938</v>
+        <v>29.86418570527579</v>
       </c>
       <c r="C21">
-        <v>0.003296354869970264</v>
+        <v>0.0004111553942109936</v>
       </c>
       <c r="D21">
-        <v>0.3019181540277417</v>
+        <v>0.001376731774177947</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>1.430419267476538</v>
+        <v>36.57651184128294</v>
       </c>
       <c r="B22">
-        <v>1.435239549190038</v>
+        <v>36.57600828082253</v>
       </c>
       <c r="C22">
-        <v>0.004820281713500574</v>
+        <v>0.0005035604604088917</v>
       </c>
       <c r="D22">
-        <v>0.3369838356556978</v>
+        <v>0.001376731774188856</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>1.818848566203085</v>
+        <v>42.23491791516448</v>
       </c>
       <c r="B23">
-        <v>1.820260539434578</v>
+        <v>42.23433645362974</v>
       </c>
       <c r="C23">
-        <v>0.001411973231493002</v>
+        <v>0.0005814615347361496</v>
       </c>
       <c r="D23">
-        <v>0.07763005990325789</v>
+        <v>0.001376731774178198</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>2.249567946797578</v>
+        <v>47.22007374121574</v>
       </c>
       <c r="B24">
-        <v>2.250163453972555</v>
+        <v>47.21942364745674</v>
       </c>
       <c r="C24">
-        <v>0.00059550717497725</v>
+        <v>0.0006500937589919431</v>
       </c>
       <c r="D24">
-        <v>0.0264720688177033</v>
+        <v>0.001376731774191435</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>2.727092271778383</v>
+        <v>66.77926870108494</v>
       </c>
       <c r="B25">
-        <v>2.724948292803975</v>
+        <v>66.77834932967417</v>
       </c>
       <c r="C25">
-        <v>0.00214397897440799</v>
+        <v>0.000919371410773806</v>
       </c>
       <c r="D25">
-        <v>0.07861776429771716</v>
+        <v>0.001376731774181392</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>3.248825759880158</v>
+        <v>53.21432055790838</v>
       </c>
       <c r="B26">
-        <v>3.244615055928829</v>
+        <v>53.21358793944885</v>
       </c>
       <c r="C26">
-        <v>0.004210703951328831</v>
+        <v>0.0007326184595299878</v>
       </c>
       <c r="D26">
-        <v>0.12960694917305</v>
+        <v>0.001376731774171099</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>3.816473481587067</v>
+        <v>75.25641384546347</v>
       </c>
       <c r="B27">
-        <v>3.809163743347127</v>
+        <v>75.25537776650192</v>
       </c>
       <c r="C27">
-        <v>0.007309738239940078</v>
+        <v>0.00103607896154756</v>
       </c>
       <c r="D27">
-        <v>0.1915312205156565</v>
+        <v>0.001376731774218093</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>4.42833333496757</v>
+        <v>92.16990689655434</v>
       </c>
       <c r="B28">
-        <v>4.418594355058862</v>
+        <v>92.16863796415986</v>
       </c>
       <c r="C28">
-        <v>0.009738979908708423</v>
+        <v>0.001268932394481226</v>
       </c>
       <c r="D28">
-        <v>0.2199242733559881</v>
+        <v>0.001376731774184599</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>5.085792038051454</v>
+        <v>106.4286411158168</v>
       </c>
       <c r="B29">
-        <v>5.072906891064039</v>
+        <v>106.4271758788977</v>
       </c>
       <c r="C29">
-        <v>0.01288514698741494</v>
+        <v>0.001465236919059976</v>
       </c>
       <c r="D29">
-        <v>0.2533557583756746</v>
+        <v>0.001376731774171099</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>5.790215634249964</v>
+        <v>118.9908381439477</v>
       </c>
       <c r="B30">
-        <v>5.772101351362652</v>
+        <v>118.9891999592706</v>
       </c>
       <c r="C30">
-        <v>0.01811428288731243</v>
+        <v>0.001638184677105414</v>
       </c>
       <c r="D30">
-        <v>0.3128429756599015</v>
+        <v>0.001376731774192262</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>6.537999045137668</v>
+        <v>168.2784571013126</v>
       </c>
       <c r="B31">
-        <v>6.516177735954709</v>
+        <v>168.2761403583246</v>
       </c>
       <c r="C31">
-        <v>0.02182130918295933</v>
+        <v>0.002316742988028864</v>
       </c>
       <c r="D31">
-        <v>0.3337612782184162</v>
+        <v>0.001376731774189052</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>7.332920295167548</v>
+        <v>75.25641384546347</v>
       </c>
       <c r="B32">
-        <v>7.3051360448402</v>
+        <v>75.25537776650192</v>
       </c>
       <c r="C32">
-        <v>0.02778425032734777</v>
+        <v>0.00103607896154756</v>
       </c>
       <c r="D32">
-        <v>0.3788974816166734</v>
+        <v>0.001376731774218093</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>8.172223197999942</v>
+        <v>106.4286411158168</v>
       </c>
       <c r="B33">
-        <v>8.138976278019134</v>
+        <v>106.4271758788977</v>
       </c>
       <c r="C33">
-        <v>0.03324691998080809</v>
+        <v>0.001465236919059976</v>
       </c>
       <c r="D33">
-        <v>0.4068283400402584</v>
+        <v>0.001376731774171099</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>9.056835190769727</v>
+        <v>130.3479323757726</v>
       </c>
       <c r="B34">
-        <v>9.017698435491504</v>
+        <v>130.3461378343706</v>
       </c>
       <c r="C34">
-        <v>0.03913675527822313</v>
+        <v>0.001794541401977767</v>
       </c>
       <c r="D34">
-        <v>0.4321239644297531</v>
+        <v>0.001376731774159936</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>9.985834106709703</v>
+        <v>150.5128276909269</v>
       </c>
       <c r="B35">
-        <v>9.94130251725732</v>
+        <v>150.5107555330038</v>
       </c>
       <c r="C35">
-        <v>0.044531589452383</v>
+        <v>0.002072157923095119</v>
       </c>
       <c r="D35">
-        <v>0.4459476191624417</v>
+        <v>0.001376731774218093</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>10.96091664230036</v>
+        <v>168.2784571013126</v>
       </c>
       <c r="B36">
-        <v>10.90978852331657</v>
+        <v>168.2761403583246</v>
       </c>
       <c r="C36">
-        <v>0.05112811898379199</v>
+        <v>0.002316742988028864</v>
       </c>
       <c r="D36">
-        <v>0.4664584236183167</v>
+        <v>0.001376731774189052</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>11.98198211900225</v>
+        <v>237.9816762878954</v>
       </c>
       <c r="B37">
-        <v>11.92315645366926</v>
+        <v>237.9783999185412</v>
       </c>
       <c r="C37">
-        <v>0.05882566533298572</v>
+        <v>0.003276369354210829</v>
       </c>
       <c r="D37">
-        <v>0.4909510358865748</v>
+        <v>0.001376731774192262</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>13.0485233761499</v>
+        <v>23.93983226228945</v>
       </c>
       <c r="B38">
-        <v>12.98140630831539</v>
+        <v>23.94009129507708</v>
       </c>
       <c r="C38">
-        <v>0.06711706783451099</v>
+        <v>0.0002590327876283993</v>
       </c>
       <c r="D38">
-        <v>0.5143652342853415</v>
+        <v>0.001082015883780579</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>14.15940626314065</v>
+        <v>33.86000871304256</v>
       </c>
       <c r="B39">
-        <v>14.08453808725496</v>
+        <v>33.86037537835183</v>
       </c>
       <c r="C39">
-        <v>0.07486817588568684</v>
+        <v>0.0003666653092651018</v>
       </c>
       <c r="D39">
-        <v>0.5287522265716853</v>
+        <v>0.001082886045223803</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>15.31472717667958</v>
+        <v>41.47473708841726</v>
       </c>
       <c r="B40">
-        <v>15.23255179048797</v>
+        <v>41.47518657332763</v>
       </c>
       <c r="C40">
-        <v>0.08217538619161324</v>
+        <v>0.0004494849103693355</v>
       </c>
       <c r="D40">
-        <v>0.5365775390158133</v>
+        <v>0.001083755900395723</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>16.51798146403575</v>
+        <v>47.89651762858403</v>
       </c>
       <c r="B41">
-        <v>16.42544741801442</v>
+        <v>47.89703712640367</v>
       </c>
       <c r="C41">
-        <v>0.09253404602133131</v>
+        <v>0.0005194978196456645</v>
       </c>
       <c r="D41">
-        <v>0.5602019001099119</v>
+        <v>0.00108462544954549</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>17.7637925715202</v>
+        <v>53.55621248681934</v>
       </c>
       <c r="B42">
-        <v>17.66322496983432</v>
+        <v>53.55679383666362</v>
       </c>
       <c r="C42">
-        <v>0.1005676016858814</v>
+        <v>0.0005813498442748255</v>
       </c>
       <c r="D42">
-        <v>0.5661381221435586</v>
+        <v>0.001085494692922695</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>19.05884705361218</v>
+        <v>75.74879816711488</v>
       </c>
       <c r="B43">
-        <v>18.94588444594763</v>
+        <v>75.74962107450888</v>
       </c>
       <c r="C43">
-        <v>0.1129626076645458</v>
+        <v>0.0008229073939958198</v>
       </c>
       <c r="D43">
-        <v>0.5927043086435612</v>
+        <v>0.001086363630721037</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>20.3945044561875</v>
+        <v>60.32647728436181</v>
       </c>
       <c r="B44">
-        <v>20.27342584635441</v>
+        <v>60.32713002642816</v>
       </c>
       <c r="C44">
-        <v>0.1210786098330949</v>
+        <v>0.000652742066357348</v>
       </c>
       <c r="D44">
-        <v>0.59368252900286</v>
+        <v>0.001082015883805892</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>21.77553694793183</v>
+        <v>85.32453461227006</v>
       </c>
       <c r="B45">
-        <v>21.64584917105461</v>
+        <v>85.32545857974851</v>
       </c>
       <c r="C45">
-        <v>0.1296877768772156</v>
+        <v>0.0009239674784566887</v>
       </c>
       <c r="D45">
-        <v>0.5955663788558513</v>
+        <v>0.001082886045210047</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>23.20474000457469</v>
+        <v>104.5130457651755</v>
       </c>
       <c r="B46">
-        <v>23.06315442004826</v>
+        <v>104.5141784314757</v>
       </c>
       <c r="C46">
-        <v>0.1415855845264247</v>
+        <v>0.001132666300179608</v>
       </c>
       <c r="D46">
-        <v>0.6101580302063796</v>
+        <v>0.001083755900411258</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>24.67730484281448</v>
+        <v>120.6954230532476</v>
       </c>
       <c r="B47">
-        <v>24.52534159333534</v>
+        <v>120.6967321465224</v>
       </c>
       <c r="C47">
-        <v>0.1519632494791416</v>
+        <v>0.001309093274883821</v>
       </c>
       <c r="D47">
-        <v>0.6158016462782004</v>
+        <v>0.001084625449555187</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>26.19737702421959</v>
+        <v>134.9574049067954</v>
       </c>
       <c r="B48">
-        <v>26.03241069091587</v>
+        <v>134.9588698622634</v>
       </c>
       <c r="C48">
-        <v>0.1649663333037203</v>
+        <v>0.001464955467980644</v>
       </c>
       <c r="D48">
-        <v>0.6297055356007902</v>
+        <v>0.001085494692930985</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>27.76056594001353</v>
+        <v>190.88095947708</v>
       </c>
       <c r="B49">
-        <v>27.58436171278984</v>
+        <v>190.8830331384017</v>
       </c>
       <c r="C49">
-        <v>0.1762042272236961</v>
+        <v>0.002073661321702502</v>
       </c>
       <c r="D49">
-        <v>0.6347285123957751</v>
+        <v>0.001086363630706444</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>29.36970712782713</v>
+        <v>85.3145223457369</v>
       </c>
       <c r="B50">
-        <v>29.18119465895724</v>
+        <v>85.31544546241989</v>
       </c>
       <c r="C50">
-        <v>0.188512468869888</v>
+        <v>0.0009231166829835047</v>
       </c>
       <c r="D50">
-        <v>0.6418602271020836</v>
+        <v>0.001082015883817032</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>31.0273469098853</v>
+        <v>120.6671140518449</v>
       </c>
       <c r="B51">
-        <v>30.82290952941809</v>
+        <v>120.6684207391841</v>
       </c>
       <c r="C51">
-        <v>0.2044373804672119</v>
+        <v>0.001306687339209134</v>
       </c>
       <c r="D51">
-        <v>0.65889417184451</v>
+        <v>0.001082886045196799</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>32.72411871816266</v>
+        <v>147.8037667660312</v>
       </c>
       <c r="B52">
-        <v>32.50950632417236</v>
+        <v>147.8053685980745</v>
       </c>
       <c r="C52">
-        <v>0.2146123939903006</v>
+        <v>0.00160183204334885</v>
       </c>
       <c r="D52">
-        <v>0.6558232960791262</v>
+        <v>0.001083755900405773</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>34.47191849010084</v>
+        <v>170.689104198261</v>
       </c>
       <c r="B53">
-        <v>34.24098504322009</v>
+        <v>170.6909555357248</v>
       </c>
       <c r="C53">
-        <v>0.2309334468807549</v>
+        <v>0.001851337463762093</v>
       </c>
       <c r="D53">
-        <v>0.6699175937860004</v>
+        <v>0.001084625449561036</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>36.25978167363415</v>
+        <v>190.8585923618674</v>
       </c>
       <c r="B54">
-        <v>36.01734568656125</v>
+        <v>190.8606641217584</v>
       </c>
       <c r="C54">
-        <v>0.242435987072902</v>
+        <v>0.002071759891038027</v>
       </c>
       <c r="D54">
-        <v>0.6686085130214293</v>
+        <v>0.001085494692903307</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>38.0960774515336</v>
+        <v>269.9464416912757</v>
       </c>
       <c r="B55">
-        <v>37.83858825419586</v>
+        <v>269.9493742912406</v>
       </c>
       <c r="C55">
-        <v>0.2574891973377476</v>
+        <v>0.002932599964935889</v>
       </c>
       <c r="D55">
-        <v>0.6758942509641029</v>
+        <v>0.001086363630712257</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>39.9783243882559</v>
+        <v>14.84025793556593</v>
       </c>
       <c r="B56">
-        <v>39.70471274612388</v>
+        <v>14.84125571689474</v>
       </c>
       <c r="C56">
-        <v>0.2736116421320176</v>
+        <v>0.0009977813288113424</v>
       </c>
       <c r="D56">
-        <v>0.6843999750334565</v>
+        <v>0.006723476998469652</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>41.90661119946478</v>
+        <v>20.99020853878871</v>
       </c>
       <c r="B57">
-        <v>41.61571916234536</v>
+        <v>20.99162002677125</v>
       </c>
       <c r="C57">
-        <v>0.2908920371194128</v>
+        <v>0.001411487982540649</v>
       </c>
       <c r="D57">
-        <v>0.6941435463126353</v>
+        <v>0.006724506714320154</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>43.87695240712237</v>
+        <v>25.71121878183384</v>
       </c>
       <c r="B58">
-        <v>43.57160750286029</v>
+        <v>25.71294799910941</v>
       </c>
       <c r="C58">
-        <v>0.3053449042620784</v>
+        <v>0.001729217275567407</v>
       </c>
       <c r="D58">
-        <v>0.6959118341421383</v>
+        <v>0.006725536001386208</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>45.89467310722644</v>
+        <v>29.6928776034529</v>
       </c>
       <c r="B59">
-        <v>45.57237776766866</v>
+        <v>29.69487491412371</v>
       </c>
       <c r="C59">
-        <v>0.3222953395577832</v>
+        <v>0.001997310670809327</v>
       </c>
       <c r="D59">
-        <v>0.7022499949063491</v>
+        <v>0.006726564860042615</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>47.95455089752981</v>
+        <v>33.20225077374491</v>
       </c>
       <c r="B60">
-        <v>47.61802995677044</v>
+        <v>33.20448448614033</v>
       </c>
       <c r="C60">
-        <v>0.336520940759371</v>
+        <v>0.002233712395415921</v>
       </c>
       <c r="D60">
-        <v>0.7017497494209783</v>
+        <v>0.006727593290700209</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>50.06424493347262</v>
+        <v>46.96158312981371</v>
       </c>
       <c r="B61">
-        <v>49.70856407016568</v>
+        <v>46.96474299689599</v>
       </c>
       <c r="C61">
-        <v>0.3556808633069437</v>
+        <v>0.003159867082281664</v>
       </c>
       <c r="D61">
-        <v>0.7104488718037927</v>
+        <v>0.006728621293594365</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>52.21760517324593</v>
+        <v>37.39627218082987</v>
       </c>
       <c r="B62">
-        <v>51.84398010785438</v>
+        <v>37.39878651058824</v>
       </c>
       <c r="C62">
-        <v>0.3736250653915505</v>
+        <v>0.002514329758369627</v>
       </c>
       <c r="D62">
-        <v>0.7155155127316716</v>
+        <v>0.006723476998486833</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>54.41487834699468</v>
+        <v>52.89365960194733</v>
       </c>
       <c r="B63">
-        <v>54.02427806983648</v>
+        <v>52.8972164396387</v>
       </c>
       <c r="C63">
-        <v>0.3906002771582067</v>
+        <v>0.003556837691370163</v>
       </c>
       <c r="D63">
-        <v>0.7178188925966411</v>
+        <v>0.00672450671429665</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>56.66035204722863</v>
+        <v>64.79023072516809</v>
       </c>
       <c r="B64">
-        <v>56.24945795611202</v>
+        <v>64.79458821546088</v>
       </c>
       <c r="C64">
-        <v>0.410894091116603</v>
+        <v>0.004357490292790089</v>
       </c>
       <c r="D64">
-        <v>0.7251880305546049</v>
+        <v>0.006725536001367257</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>58.94784136816728</v>
+        <v>74.82369494600343</v>
       </c>
       <c r="B65">
-        <v>58.51951976668102</v>
+        <v>74.82872801037468</v>
       </c>
       <c r="C65">
-        <v>0.4283216014862603</v>
+        <v>0.005033064371247065</v>
       </c>
       <c r="D65">
-        <v>0.726611172767321</v>
+        <v>0.00672656486007431</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>61.2826732592094</v>
+        <v>83.66703680907311</v>
       </c>
       <c r="B66">
-        <v>60.83446350154348</v>
+        <v>83.67266558702799</v>
       </c>
       <c r="C66">
-        <v>0.4482097576659214</v>
+        <v>0.00562877795488248</v>
       </c>
       <c r="D66">
-        <v>0.7313808843979658</v>
+        <v>0.006727593290685392</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>63.6618240328749</v>
+        <v>118.3394623186655</v>
       </c>
       <c r="B67">
-        <v>63.19428916069934</v>
+        <v>118.3474249329259</v>
       </c>
       <c r="C67">
-        <v>0.4675348721755554</v>
+        <v>0.007962614260321743</v>
       </c>
       <c r="D67">
-        <v>0.734403827220095</v>
+        <v>0.006728621293613745</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>66.08755028393047</v>
+        <v>52.88631530032529</v>
       </c>
       <c r="B68">
-        <v>65.59899674414866</v>
+        <v>52.88987109956984</v>
       </c>
       <c r="C68">
-        <v>0.4885535397818046</v>
+        <v>0.003555799244544744</v>
       </c>
       <c r="D68">
-        <v>0.7392520038688724</v>
+        <v>0.0067234769984493</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>68.55697085970382</v>
+        <v>74.80293077261977</v>
       </c>
       <c r="B69">
-        <v>68.04858625189141</v>
+        <v>74.80796090072209</v>
       </c>
       <c r="C69">
-        <v>0.5083846078124168</v>
+        <v>0.005030128102319509</v>
       </c>
       <c r="D69">
-        <v>0.741550569456728</v>
+        <v>0.006724506714328757</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>71.07280890112769</v>
+        <v>91.62722300081471</v>
       </c>
       <c r="B70">
-        <v>70.54305768392763</v>
+        <v>91.6333854226847</v>
       </c>
       <c r="C70">
-        <v>0.529751217200058</v>
+        <v>0.006162421869987611</v>
       </c>
       <c r="D70">
-        <v>0.745364120808869</v>
+        <v>0.006725536001383364</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>73.6330606209449</v>
+        <v>105.8166841795053</v>
       </c>
       <c r="B71">
-        <v>73.08241104025724</v>
+        <v>105.8238020073994</v>
       </c>
       <c r="C71">
-        <v>0.5506495806876615</v>
+        <v>0.007117827894106199</v>
       </c>
       <c r="D71">
-        <v>0.7478292713138007</v>
+        <v>0.006726564860066547</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>76.24048909651322</v>
+        <v>118.3230581789602</v>
       </c>
       <c r="B72">
-        <v>75.66664632088032</v>
+        <v>118.3310184730835</v>
       </c>
       <c r="C72">
-        <v>0.5738427756328974</v>
+        <v>0.007960294123378731</v>
       </c>
       <c r="D72">
-        <v>0.7526745728329037</v>
+        <v>0.006727593290683054</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>78.89007310539429</v>
+        <v>167.3572725749966</v>
       </c>
       <c r="B73">
-        <v>78.29576352579681</v>
+        <v>167.3685334120755</v>
       </c>
       <c r="C73">
-        <v>0.5943095795974784</v>
+        <v>0.01126083707887915</v>
       </c>
       <c r="D73">
-        <v>0.753338862804072</v>
+        <v>0.006728621293605815</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>81.58810245576932</v>
+        <v>7.377434869454365</v>
       </c>
       <c r="B74">
-        <v>80.96976265500675</v>
+        <v>7.378694426764324</v>
       </c>
       <c r="C74">
-        <v>0.6183398007625698</v>
+        <v>0.001259557309959192</v>
       </c>
       <c r="D74">
-        <v>0.7578798650180463</v>
+        <v>0.01707310646921846</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>84.32830225858284</v>
+        <v>10.43469942700115</v>
       </c>
       <c r="B75">
-        <v>83.68864370851016</v>
+        <v>10.43648106047656</v>
       </c>
       <c r="C75">
-        <v>0.6396585500726815</v>
+        <v>0.001781633475406608</v>
       </c>
       <c r="D75">
-        <v>0.7585336511474446</v>
+        <v>0.0170741235803726</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>87.11676359543526</v>
+        <v>12.78159671148452</v>
       </c>
       <c r="B76">
-        <v>86.452406686307</v>
+        <v>12.78377918705216</v>
       </c>
       <c r="C76">
-        <v>0.6643569091282586</v>
+        <v>0.002182475567646947</v>
       </c>
       <c r="D76">
-        <v>0.7626051309866033</v>
+        <v>0.01707514027324887</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>89.94853471207314</v>
+        <v>14.76093920472652</v>
       </c>
       <c r="B77">
-        <v>89.26105158839725</v>
+        <v>14.76345980581309</v>
       </c>
       <c r="C77">
-        <v>0.6874831236758894</v>
+        <v>0.002520601086578367</v>
       </c>
       <c r="D77">
-        <v>0.7643071961945073</v>
+        <v>0.01707615654816368</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>92.82519121237088</v>
+        <v>16.50549245345963</v>
       </c>
       <c r="B78">
-        <v>92.11457841478094</v>
+        <v>16.50831112486228</v>
       </c>
       <c r="C78">
-        <v>0.7106127975899454</v>
+        <v>0.002818671402650352</v>
       </c>
       <c r="D78">
-        <v>0.765538738254968</v>
+        <v>0.01707717240547733</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>95.74891957016341</v>
+        <v>23.3454875419857</v>
       </c>
       <c r="B79">
-        <v>95.01298716545811</v>
+        <v>23.34947452820158</v>
       </c>
       <c r="C79">
-        <v>0.7359324047052951</v>
+        <v>0.003986986215874566</v>
       </c>
       <c r="D79">
-        <v>0.7686064845525642</v>
+        <v>0.01707818784552762</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>98.71833689849635</v>
+        <v>18.59055035110072</v>
       </c>
       <c r="B80">
-        <v>97.95627784042871</v>
+        <v>18.59372433555538</v>
       </c>
       <c r="C80">
-        <v>0.762059058067635</v>
+        <v>0.003173984454662104</v>
       </c>
       <c r="D80">
-        <v>0.7719528934641549</v>
+        <v>0.01707310646924542</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>101.7316887288901</v>
+        <v>26.29461439225339</v>
       </c>
       <c r="B81">
-        <v>100.9444504396927</v>
+        <v>26.29910396720971</v>
       </c>
       <c r="C81">
-        <v>0.7872382891973899</v>
+        <v>0.004489574956320297</v>
       </c>
       <c r="D81">
-        <v>0.7738378267713031</v>
+        <v>0.01707412358038977</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>104.7904753905455</v>
+        <v>32.20860928452907</v>
       </c>
       <c r="B82">
-        <v>103.9775049632502</v>
+        <v>32.21410894974446</v>
       </c>
       <c r="C82">
-        <v>0.8129704272952694</v>
+        <v>0.005499665215396021</v>
       </c>
       <c r="D82">
-        <v>0.7758056486196816</v>
+        <v>0.01707514027324894</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>107.8954254948007</v>
+        <v>37.19639527435105</v>
       </c>
       <c r="B83">
-        <v>107.0554414111011</v>
+        <v>37.20274698903836</v>
       </c>
       <c r="C83">
-        <v>0.8399840836995907</v>
+        <v>0.006351714687312437</v>
       </c>
       <c r="D83">
-        <v>0.7785168646840065</v>
+        <v>0.01707615654813813</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>111.0452773214064</v>
+        <v>41.59253100237112</v>
       </c>
       <c r="B84">
-        <v>110.1782597832454</v>
+        <v>41.59963383059819</v>
       </c>
       <c r="C84">
-        <v>0.8670175381609795</v>
+        <v>0.007102828227075975</v>
       </c>
       <c r="D84">
-        <v>0.780778398753067</v>
+        <v>0.01707717240547601</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>114.2406200338595</v>
+        <v>58.82877576015509</v>
       </c>
       <c r="B85">
-        <v>113.3459600796832</v>
+        <v>58.83882264898664</v>
       </c>
       <c r="C85">
-        <v>0.8946599541762623</v>
+        <v>0.01004688883154614</v>
       </c>
       <c r="D85">
-        <v>0.7831364657431799</v>
+        <v>0.0170781878455321</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>117.4797871316415</v>
+        <v>26.29100843850655</v>
       </c>
       <c r="B86">
-        <v>116.5585423004144</v>
+        <v>26.29549713036908</v>
       </c>
       <c r="C86">
-        <v>0.9212448312270567</v>
+        <v>0.004488691862533756</v>
       </c>
       <c r="D86">
-        <v>0.7841730511434785</v>
+        <v>0.01707310646920447</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>120.7642220827281</v>
+        <v>37.18620029089551</v>
       </c>
       <c r="B87">
-        <v>119.8160064454391</v>
+        <v>37.19254950868803</v>
       </c>
       <c r="C87">
-        <v>0.9482156372889534</v>
+        <v>0.006349217792518402</v>
       </c>
       <c r="D87">
-        <v>0.7851792699326043</v>
+        <v>0.01707412358038881</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>124.0966325167546</v>
+        <v>45.54985207535699</v>
       </c>
       <c r="B88">
-        <v>123.1183525147572</v>
+        <v>45.55762977649312</v>
       </c>
       <c r="C88">
-        <v>0.9782800019973763</v>
+        <v>0.007777701136127746</v>
       </c>
       <c r="D88">
-        <v>0.7883211511523459</v>
+        <v>0.01707514027325584</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>127.4733643652253</v>
+        <v>52.60364666837776</v>
       </c>
       <c r="B89">
-        <v>126.4655805083687</v>
+        <v>52.61262934943288</v>
       </c>
       <c r="C89">
-        <v>1.007783856856562</v>
+        <v>0.00898268105512301</v>
       </c>
       <c r="D89">
-        <v>0.790583869716618</v>
+        <v>0.01707615654814075</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>130.8942962526324</v>
+        <v>58.82072143697665</v>
       </c>
       <c r="B90">
-        <v>129.8576904262738</v>
+        <v>58.83076635298659</v>
       </c>
       <c r="C90">
-        <v>1.036605826358624</v>
+        <v>0.01004491600993873</v>
       </c>
       <c r="D90">
-        <v>0.7919411739361997</v>
+        <v>0.01707717240547846</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>134.3609775886858</v>
+        <v>83.19645253781688</v>
       </c>
       <c r="B91">
-        <v>133.2946822684721</v>
+        <v>83.21066098426215</v>
       </c>
       <c r="C91">
-        <v>1.066295320213669</v>
+        <v>0.01420844644526653</v>
       </c>
       <c r="D91">
-        <v>0.7936049136810233</v>
+        <v>0.01707818784557923</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>137.872949117355</v>
+        <v>17.05249842649656</v>
       </c>
       <c r="B92">
-        <v>136.776556034964</v>
+        <v>17.05357248104788</v>
       </c>
       <c r="C92">
-        <v>1.096393082391046</v>
+        <v>0.001074054551320813</v>
       </c>
       <c r="D92">
-        <v>0.7952198668484386</v>
+        <v>0.006298517228724224</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>141.4303987354384</v>
+        <v>24.12033962302736</v>
       </c>
       <c r="B93">
-        <v>140.3033117257493</v>
+        <v>24.12185917791102</v>
       </c>
       <c r="C93">
-        <v>1.127087009689092</v>
+        <v>0.001519554883657293</v>
       </c>
       <c r="D93">
-        <v>0.7969199123856222</v>
+        <v>0.006299890082006117</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>145.0323648034416</v>
+        <v>29.54672880447129</v>
       </c>
       <c r="B94">
-        <v>143.874949340828</v>
+        <v>29.5485906213169</v>
       </c>
       <c r="C94">
-        <v>1.157415462613585</v>
+        <v>0.001861816845611486</v>
       </c>
       <c r="D94">
-        <v>0.7980394335996649</v>
+        <v>0.006301262173326404</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>148.6818598345328</v>
+        <v>34.12393355696911</v>
       </c>
       <c r="B95">
-        <v>147.4914688802002</v>
+        <v>34.12608426343817</v>
       </c>
       <c r="C95">
-        <v>1.190390954332543</v>
+        <v>0.002150706469052466</v>
       </c>
       <c r="D95">
-        <v>0.8006295829614467</v>
+        <v>0.006302633503438023</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>152.3744492125125</v>
+        <v>38.15876962017883</v>
       </c>
       <c r="B96">
-        <v>151.1528703438658</v>
+        <v>38.16117515056996</v>
       </c>
       <c r="C96">
-        <v>1.221578868646674</v>
+        <v>0.002405530391129673</v>
       </c>
       <c r="D96">
-        <v>0.8016953465360659</v>
+        <v>0.006304004073175355</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>156.1123630918457</v>
+        <v>53.97461897363385</v>
       </c>
       <c r="B97">
-        <v>154.8591537318249</v>
+        <v>53.97802227516227</v>
       </c>
       <c r="C97">
-        <v>1.253209360020833</v>
+        <v>0.00340330152841517</v>
       </c>
       <c r="D97">
-        <v>0.8027611235911732</v>
+        <v>0.006305373883375914</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>159.8949185898636</v>
+        <v>42.97094264056807</v>
       </c>
       <c r="B98">
-        <v>158.6103190440774</v>
+        <v>42.97364917279363</v>
       </c>
       <c r="C98">
-        <v>1.284599545786193</v>
+        <v>0.002706532225559499</v>
       </c>
       <c r="D98">
-        <v>0.8034023576954553</v>
+        <v>0.006298517228719838</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>163.7260042450968</v>
+        <v>60.78134150721474</v>
       </c>
       <c r="B99">
-        <v>162.4063662806233</v>
+        <v>60.78517066492007</v>
       </c>
       <c r="C99">
-        <v>1.319637964473458</v>
+        <v>0.003829157705332875</v>
       </c>
       <c r="D99">
-        <v>0.8060038908040338</v>
+        <v>0.006299890082021889</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>167.600363471084</v>
+        <v>74.45541157186351</v>
       </c>
       <c r="B100">
-        <v>166.2472954414627</v>
+        <v>74.46010320254885</v>
       </c>
       <c r="C100">
-        <v>1.353068029621255</v>
+        <v>0.004691630685343284</v>
       </c>
       <c r="D100">
-        <v>0.8073180759269053</v>
+        <v>0.006301262173287399</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>171.521235026842</v>
+        <v>85.98960427221893</v>
       </c>
       <c r="B101">
-        <v>170.1331065265955</v>
+        <v>85.99502388182728</v>
       </c>
       <c r="C101">
-        <v>1.388128500246467</v>
+        <v>0.005419609608352971</v>
       </c>
       <c r="D101">
-        <v>0.8093041657665496</v>
+        <v>0.006302633503459337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>96.15707092138031</v>
+      </c>
+      <c r="B102">
+        <v>96.16313266704782</v>
+      </c>
+      <c r="C102">
+        <v>0.006061745667508944</v>
+      </c>
+      <c r="D102">
+        <v>0.006304004073153531</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>136.011756046181</v>
+      </c>
+      <c r="B103">
+        <v>136.0203320959251</v>
+      </c>
+      <c r="C103">
+        <v>0.008576049744078773</v>
+      </c>
+      <c r="D103">
+        <v>0.006305373883392026</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>60.7700898702477</v>
+      </c>
+      <c r="B104">
+        <v>60.77391748482808</v>
+      </c>
+      <c r="C104">
+        <v>0.003827614580380612</v>
+      </c>
+      <c r="D104">
+        <v>0.006298517228710838</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>85.95779749873384</v>
+      </c>
+      <c r="B105">
+        <v>85.96321274549318</v>
+      </c>
+      <c r="C105">
+        <v>0.00541524675934113</v>
+      </c>
+      <c r="D105">
+        <v>0.006299890082014837</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>105.295852837</v>
+      </c>
+      <c r="B106">
+        <v>105.3024878047449</v>
+      </c>
+      <c r="C106">
+        <v>0.0066349677448585</v>
+      </c>
+      <c r="D106">
+        <v>0.006301262173287636</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>121.6076645848675</v>
+      </c>
+      <c r="B107">
+        <v>121.6153290702783</v>
+      </c>
+      <c r="C107">
+        <v>0.007664485410884936</v>
+      </c>
+      <c r="D107">
+        <v>0.006302633503446694</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>135.9866338150876</v>
+      </c>
+      <c r="B108">
+        <v>135.9952064180222</v>
+      </c>
+      <c r="C108">
+        <v>0.008572602934663109</v>
+      </c>
+      <c r="D108">
+        <v>0.006304004073165012</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>192.34967004269</v>
+      </c>
+      <c r="B109">
+        <v>192.3617984085497</v>
+      </c>
+      <c r="C109">
+        <v>0.0121283658596667</v>
+      </c>
+      <c r="D109">
+        <v>0.006305373883394203</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Real_vs_Predict.xlsx
+++ b/datasets/Real_vs_Predict.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,1514 +405,1402 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>27.06819403799467</v>
+        <v>3.219706175747628</v>
       </c>
       <c r="B2">
-        <v>27.06744035153203</v>
+        <v>3.21636591215306</v>
       </c>
       <c r="C2">
-        <v>0.0007536864626445094</v>
+        <v>0.003340263594568071</v>
       </c>
       <c r="D2">
-        <v>0.002784398772916236</v>
+        <v>0.103744360890088</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>38.28614111340648</v>
+        <v>2.700376295693827</v>
       </c>
       <c r="B3">
-        <v>38.28507551459078</v>
+        <v>2.696887601650782</v>
       </c>
       <c r="C3">
-        <v>0.001065598815699786</v>
+        <v>0.003488694043045193</v>
       </c>
       <c r="D3">
-        <v>0.002783249459754644</v>
+        <v>0.1291928850289666</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>46.89802035296633</v>
+        <v>2.225197794754311</v>
       </c>
       <c r="B4">
-        <v>46.8967156028228</v>
+        <v>2.222700485029582</v>
       </c>
       <c r="C4">
-        <v>0.001304750143525268</v>
+        <v>0.002497309724729391</v>
       </c>
       <c r="D4">
-        <v>0.002782100680807825</v>
+        <v>0.1122286625762688</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>54.16155608894825</v>
+        <v>1.79745404532855</v>
       </c>
       <c r="B5">
-        <v>54.16004988183506</v>
+        <v>1.793804562289459</v>
       </c>
       <c r="C5">
-        <v>0.001506207113187941</v>
+        <v>0.003649483039091406</v>
       </c>
       <c r="D5">
-        <v>0.002780952435551025</v>
+        <v>0.2030362360904938</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>60.56383434668712</v>
+        <v>1.412374653486217</v>
       </c>
       <c r="B6">
-        <v>60.56215079035926</v>
+        <v>1.410199833430414</v>
       </c>
       <c r="C6">
-        <v>0.001683556327854774</v>
+        <v>0.00217482005580294</v>
       </c>
       <c r="D6">
-        <v>0.002779804723422148</v>
+        <v>0.1539832260820279</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>85.66344831251371</v>
+        <v>1.073631005418439</v>
       </c>
       <c r="B7">
-        <v>85.66106801864468</v>
+        <v>1.071886298452447</v>
       </c>
       <c r="C7">
-        <v>0.002380293869023831</v>
+        <v>0.00174470696599216</v>
       </c>
       <c r="D7">
-        <v>0.002778657544043925</v>
+        <v>0.1625052701707487</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>68.20970067254854</v>
+        <v>0.7786176858819784</v>
       </c>
       <c r="B8">
-        <v>68.20780144247999</v>
+        <v>0.7788639573555574</v>
       </c>
       <c r="C8">
-        <v>0.001899230068545421</v>
+        <v>0.0002462714735789184</v>
       </c>
       <c r="D8">
-        <v>0.002784398772929639</v>
+        <v>0.0316293192467051</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>96.47803697530608</v>
+        <v>0.5320193090032052</v>
       </c>
       <c r="B9">
-        <v>96.4753517508632</v>
+        <v>0.5311328101397468</v>
       </c>
       <c r="C9">
-        <v>0.002685224442885215</v>
+        <v>0.0008864988634583737</v>
       </c>
       <c r="D9">
-        <v>0.002783249459742333</v>
+        <v>0.1666290768880783</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>118.1792891657544</v>
+        <v>0.3295135306277908</v>
       </c>
       <c r="B10">
-        <v>118.1760012989459</v>
+        <v>0.3286928568050129</v>
       </c>
       <c r="C10">
-        <v>0.00328786680844928</v>
+        <v>0.0008206738227778954</v>
       </c>
       <c r="D10">
-        <v>0.002782100680803576</v>
+        <v>0.2490561832815616</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>136.4828227402606</v>
+        <v>0.1716598904805359</v>
       </c>
       <c r="B11">
-        <v>136.4790272178776</v>
+        <v>0.1715440973513576</v>
       </c>
       <c r="C11">
-        <v>0.003795522383057914</v>
+        <v>0.0001157931291783376</v>
       </c>
       <c r="D11">
-        <v>0.00278095243551721</v>
+        <v>0.06745497090449741</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>152.616055824439</v>
+        <v>0.05966737878847223</v>
       </c>
       <c r="B12">
-        <v>152.6118133961105</v>
+        <v>0.05968653177878025</v>
       </c>
       <c r="C12">
-        <v>0.004242428328524284</v>
+        <v>1.915299030801759E-05</v>
       </c>
       <c r="D12">
-        <v>0.002779804723432596</v>
+        <v>0.03209960064764561</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>215.865090954098</v>
+        <v>-0.006067118829339596</v>
       </c>
       <c r="B13">
-        <v>215.8590928024632</v>
+        <v>-0.006879839912719898</v>
       </c>
       <c r="C13">
-        <v>0.005998151634742044</v>
+        <v>0.0008127210833803024</v>
       </c>
       <c r="D13">
-        <v>0.002778657544038699</v>
+        <v>-13.39550297663721</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>96.46308377652733</v>
+        <v>-0.0291135208962642</v>
       </c>
       <c r="B14">
-        <v>96.46039785960636</v>
+        <v>-0.02815501772314244</v>
       </c>
       <c r="C14">
-        <v>0.002685916920967202</v>
+        <v>0.0009585031731217594</v>
       </c>
       <c r="D14">
-        <v>0.002784398772891785</v>
+        <v>-3.292295619403262</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>136.4405483616108</v>
+        <v>-0.003737483376161106</v>
       </c>
       <c r="B15">
-        <v>136.4367508807856</v>
+        <v>-0.004139001652486041</v>
       </c>
       <c r="C15">
-        <v>0.003797480825170396</v>
+        <v>0.0004015182763249347</v>
       </c>
       <c r="D15">
-        <v>0.002783249459761673</v>
+        <v>-10.74301169835162</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>167.1307535298217</v>
+        <v>0.06632684875767067</v>
       </c>
       <c r="B16">
-        <v>167.1261037839899</v>
+        <v>0.06516820829924708</v>
       </c>
       <c r="C16">
-        <v>0.004649745831812879</v>
+        <v>0.001158640458423593</v>
       </c>
       <c r="D16">
-        <v>0.002782100680820068</v>
+        <v>1.746864927439504</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>193.0158589502397</v>
+        <v>0.1796626120231249</v>
       </c>
       <c r="B17">
-        <v>193.0104912710092</v>
+        <v>0.1797666121320582</v>
       </c>
       <c r="C17">
-        <v>0.005367679230431577</v>
+        <v>0.0001040001089333553</v>
       </c>
       <c r="D17">
-        <v>0.002780952435527792</v>
+        <v>0.05788633915662384</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>215.8316959828111</v>
+        <v>0.3400625228430507</v>
       </c>
       <c r="B18">
-        <v>215.8256962831315</v>
+        <v>0.3396562098459479</v>
       </c>
       <c r="C18">
-        <v>0.005999699679620107</v>
+        <v>0.000406312997102809</v>
       </c>
       <c r="D18">
-        <v>0.002779804723444292</v>
+        <v>0.1194818510742905</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>305.2793392701871</v>
+        <v>0.5441264029602549</v>
       </c>
       <c r="B19">
-        <v>305.270856602796</v>
+        <v>0.5448370014409156</v>
       </c>
       <c r="C19">
-        <v>0.008482667391035648</v>
+        <v>0.0007105984806606847</v>
       </c>
       <c r="D19">
-        <v>0.00277865754404299</v>
+        <v>0.130594376011669</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>21.11745895758224</v>
+        <v>0.7962338913112076</v>
       </c>
       <c r="B20">
-        <v>21.11716822681487</v>
+        <v>0.7953089869169601</v>
       </c>
       <c r="C20">
-        <v>0.0002907307673680748</v>
+        <v>0.0009249043942475277</v>
       </c>
       <c r="D20">
-        <v>0.001376731774178198</v>
+        <v>0.1161598877340464</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>29.86459686067001</v>
+        <v>1.091804128368968</v>
       </c>
       <c r="B21">
-        <v>29.86418570527579</v>
+        <v>1.091072166274083</v>
       </c>
       <c r="C21">
-        <v>0.0004111553942109936</v>
+        <v>0.0007319620948853522</v>
       </c>
       <c r="D21">
-        <v>0.001376731774177947</v>
+        <v>0.06704152108115043</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>36.57651184128294</v>
+        <v>1.430419267476538</v>
       </c>
       <c r="B22">
-        <v>36.57600828082253</v>
+        <v>1.432126539512284</v>
       </c>
       <c r="C22">
-        <v>0.0005035604604088917</v>
+        <v>0.001707272035745611</v>
       </c>
       <c r="D22">
-        <v>0.001376731774188856</v>
+        <v>0.1193546587747997</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>42.23491791516448</v>
+        <v>1.818848566203085</v>
       </c>
       <c r="B23">
-        <v>42.23433645362974</v>
+        <v>1.818472106631563</v>
       </c>
       <c r="C23">
-        <v>0.0005814615347361496</v>
+        <v>0.0003764595715221031</v>
       </c>
       <c r="D23">
-        <v>0.001376731774178198</v>
+        <v>0.02069768635593323</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>47.22007374121574</v>
+        <v>2.249567946797578</v>
       </c>
       <c r="B24">
-        <v>47.21942364745674</v>
+        <v>2.250108867631918</v>
       </c>
       <c r="C24">
-        <v>0.0006500937589919431</v>
+        <v>0.0005409208343403193</v>
       </c>
       <c r="D24">
-        <v>0.001376731774191435</v>
+        <v>0.0240455432835607</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>66.77926870108494</v>
+        <v>2.727092271778383</v>
       </c>
       <c r="B25">
-        <v>66.77834932967417</v>
+        <v>2.727036822513353</v>
       </c>
       <c r="C25">
-        <v>0.000919371410773806</v>
+        <v>5.544926502976111E-05</v>
       </c>
       <c r="D25">
-        <v>0.001376731774181392</v>
+        <v>0.002033274253445106</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>53.21432055790838</v>
+        <v>3.248825759880158</v>
       </c>
       <c r="B26">
-        <v>53.21358793944885</v>
+        <v>3.249255971275865</v>
       </c>
       <c r="C26">
-        <v>0.0007326184595299878</v>
+        <v>0.0004302113957068698</v>
       </c>
       <c r="D26">
-        <v>0.001376731774171099</v>
+        <v>0.01324205813126584</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>75.25641384546347</v>
+        <v>3.816473481587067</v>
       </c>
       <c r="B27">
-        <v>75.25537776650192</v>
+        <v>3.816766313919456</v>
       </c>
       <c r="C27">
-        <v>0.00103607896154756</v>
+        <v>0.0002928323323887483</v>
       </c>
       <c r="D27">
-        <v>0.001376731774218093</v>
+        <v>0.007672851227751096</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>92.16990689655434</v>
+        <v>4.42833333496757</v>
       </c>
       <c r="B28">
-        <v>92.16863796415986</v>
+        <v>4.429567850444123</v>
       </c>
       <c r="C28">
-        <v>0.001268932394481226</v>
+        <v>0.001234515476552289</v>
       </c>
       <c r="D28">
-        <v>0.001376731774184599</v>
+        <v>0.02787765471050137</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>106.4286411158168</v>
+        <v>5.085792038051454</v>
       </c>
       <c r="B29">
-        <v>106.4271758788977</v>
+        <v>5.087660580849869</v>
       </c>
       <c r="C29">
-        <v>0.001465236919059976</v>
+        <v>0.001868542798415085</v>
       </c>
       <c r="D29">
-        <v>0.001376731774171099</v>
+        <v>0.03674044837922609</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>118.9908381439477</v>
+        <v>5.790215634249964</v>
       </c>
       <c r="B30">
-        <v>118.9891999592706</v>
+        <v>5.791044505136691</v>
       </c>
       <c r="C30">
-        <v>0.001638184677105414</v>
+        <v>0.0008288708867265626</v>
       </c>
       <c r="D30">
-        <v>0.001376731774192262</v>
+        <v>0.01431502622844772</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>168.2784571013126</v>
+        <v>6.537999045137668</v>
       </c>
       <c r="B31">
-        <v>168.2761403583246</v>
+        <v>6.539719623304594</v>
       </c>
       <c r="C31">
-        <v>0.002316742988028864</v>
+        <v>0.001720578166925613</v>
       </c>
       <c r="D31">
-        <v>0.001376731774189052</v>
+        <v>0.02631658639052896</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>75.25641384546347</v>
+        <v>7.332920295167548</v>
       </c>
       <c r="B32">
-        <v>75.25537776650192</v>
+        <v>7.333685935353571</v>
       </c>
       <c r="C32">
-        <v>0.00103607896154756</v>
+        <v>0.0007656401860236528</v>
       </c>
       <c r="D32">
-        <v>0.001376731774218093</v>
+        <v>0.0104411360713714</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>106.4286411158168</v>
+        <v>8.172223197999942</v>
       </c>
       <c r="B33">
-        <v>106.4271758788977</v>
+        <v>8.17294344128363</v>
       </c>
       <c r="C33">
-        <v>0.001465236919059976</v>
+        <v>0.0007202432836876937</v>
       </c>
       <c r="D33">
-        <v>0.001376731774171099</v>
+        <v>0.008813309013194414</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>130.3479323757726</v>
+        <v>9.056835190769727</v>
       </c>
       <c r="B34">
-        <v>130.3461378343706</v>
+        <v>9.057492141094762</v>
       </c>
       <c r="C34">
-        <v>0.001794541401977767</v>
+        <v>0.0006569503250357656</v>
       </c>
       <c r="D34">
-        <v>0.001376731774159936</v>
+        <v>0.007253641158285583</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>150.5128276909269</v>
+        <v>9.985834106709703</v>
       </c>
       <c r="B35">
-        <v>150.5107555330038</v>
+        <v>9.987332034786977</v>
       </c>
       <c r="C35">
-        <v>0.002072157923095119</v>
+        <v>0.001497928077274224</v>
       </c>
       <c r="D35">
-        <v>0.001376731774218093</v>
+        <v>0.01500053036398565</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>168.2784571013126</v>
+        <v>10.96091664230036</v>
       </c>
       <c r="B36">
-        <v>168.2761403583246</v>
+        <v>10.96246312236027</v>
       </c>
       <c r="C36">
-        <v>0.002316742988028864</v>
+        <v>0.001546480059905875</v>
       </c>
       <c r="D36">
-        <v>0.001376731774189052</v>
+        <v>0.01410903951169285</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>237.9816762878954</v>
+        <v>11.98198211900225</v>
       </c>
       <c r="B37">
-        <v>237.9783999185412</v>
+        <v>11.98288540381464</v>
       </c>
       <c r="C37">
-        <v>0.003276369354210829</v>
+        <v>0.0009032848123862181</v>
       </c>
       <c r="D37">
-        <v>0.001376731774192262</v>
+        <v>0.007538692708894105</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>23.93983226228945</v>
+        <v>13.0485233761499</v>
       </c>
       <c r="B38">
-        <v>23.94009129507708</v>
+        <v>13.04859887915008</v>
       </c>
       <c r="C38">
-        <v>0.0002590327876283993</v>
+        <v>7.550300018088762E-05</v>
       </c>
       <c r="D38">
-        <v>0.001082015883780579</v>
+        <v>0.000578632524189611</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>33.86000871304256</v>
+        <v>14.15940626314065</v>
       </c>
       <c r="B39">
-        <v>33.86037537835183</v>
+        <v>14.15960354836661</v>
       </c>
       <c r="C39">
-        <v>0.0003666653092651018</v>
+        <v>0.0001972852259566338</v>
       </c>
       <c r="D39">
-        <v>0.001082886045223803</v>
+        <v>0.001393315667975435</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>41.47473708841726</v>
+        <v>15.31472717667958</v>
       </c>
       <c r="B40">
-        <v>41.47518657332763</v>
+        <v>15.3158994114642</v>
       </c>
       <c r="C40">
-        <v>0.0004494849103693355</v>
+        <v>0.001172234784624138</v>
       </c>
       <c r="D40">
-        <v>0.001083755900395723</v>
+        <v>0.007654297534004732</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>47.89651762858403</v>
+        <v>16.51798146403575</v>
       </c>
       <c r="B41">
-        <v>47.89703712640367</v>
+        <v>16.51748646844289</v>
       </c>
       <c r="C41">
-        <v>0.0005194978196456645</v>
+        <v>0.0004949955928594818</v>
       </c>
       <c r="D41">
-        <v>0.00108462544954549</v>
+        <v>0.002996707521056524</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>53.55621248681934</v>
+        <v>17.7637925715202</v>
       </c>
       <c r="B42">
-        <v>53.55679383666362</v>
+        <v>17.76436471930265</v>
       </c>
       <c r="C42">
-        <v>0.0005813498442748255</v>
+        <v>0.0005721477824529586</v>
       </c>
       <c r="D42">
-        <v>0.001085494692922695</v>
+        <v>0.003220865027270441</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>75.74879816711488</v>
+        <v>19.05884705361218</v>
       </c>
       <c r="B43">
-        <v>75.74962107450888</v>
+        <v>19.05653416404348</v>
       </c>
       <c r="C43">
-        <v>0.0008229073939958198</v>
+        <v>0.002312889568699461</v>
       </c>
       <c r="D43">
-        <v>0.001086363630721037</v>
+        <v>0.01213551670881951</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>60.32647728436181</v>
+        <v>20.3945044561875</v>
       </c>
       <c r="B44">
-        <v>60.32713002642816</v>
+        <v>20.3939948026654</v>
       </c>
       <c r="C44">
-        <v>0.000652742066357348</v>
+        <v>0.0005096535221049692</v>
       </c>
       <c r="D44">
-        <v>0.001082015883805892</v>
+        <v>0.002498974776267952</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>85.32453461227006</v>
+        <v>21.77553694793183</v>
       </c>
       <c r="B45">
-        <v>85.32545857974851</v>
+        <v>21.77674663516839</v>
       </c>
       <c r="C45">
-        <v>0.0009239674784566887</v>
+        <v>0.001209687236560342</v>
       </c>
       <c r="D45">
-        <v>0.001082886045210047</v>
+        <v>0.005555257899967578</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>104.5130457651755</v>
+        <v>23.20474000457469</v>
       </c>
       <c r="B46">
-        <v>104.5141784314757</v>
+        <v>23.20478966155246</v>
       </c>
       <c r="C46">
-        <v>0.001132666300179608</v>
+        <v>4.96569777723721E-05</v>
       </c>
       <c r="D46">
-        <v>0.001083755900411258</v>
+        <v>0.0002139949758652004</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>120.6954230532476</v>
+        <v>24.67730484281448</v>
       </c>
       <c r="B47">
-        <v>120.6967321465224</v>
+        <v>24.6781238818176</v>
       </c>
       <c r="C47">
-        <v>0.001309093274883821</v>
+        <v>0.0008190390031188599</v>
       </c>
       <c r="D47">
-        <v>0.001084625449555187</v>
+        <v>0.003318996982595314</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>134.9574049067954</v>
+        <v>26.19737702421959</v>
       </c>
       <c r="B48">
-        <v>134.9588698622634</v>
+        <v>26.19674929596383</v>
       </c>
       <c r="C48">
-        <v>0.001464955467980644</v>
+        <v>0.0006277282557611841</v>
       </c>
       <c r="D48">
-        <v>0.001085494692930985</v>
+        <v>0.002396149260213519</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>190.88095947708</v>
+        <v>27.76056594001353</v>
       </c>
       <c r="B49">
-        <v>190.8830331384017</v>
+        <v>27.76066590399113</v>
       </c>
       <c r="C49">
-        <v>0.002073661321702502</v>
+        <v>9.996397760048126E-05</v>
       </c>
       <c r="D49">
-        <v>0.001086363630706444</v>
+        <v>0.0003600934426786853</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>85.3145223457369</v>
+        <v>29.36970712782713</v>
       </c>
       <c r="B50">
-        <v>85.31544546241989</v>
+        <v>29.36987370589951</v>
       </c>
       <c r="C50">
-        <v>0.0009231166829835047</v>
+        <v>0.0001665780723847377</v>
       </c>
       <c r="D50">
-        <v>0.001082015883817032</v>
+        <v>0.0005671764844631655</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>120.6671140518449</v>
+        <v>31.0273469098853</v>
       </c>
       <c r="B51">
-        <v>120.6684207391841</v>
+        <v>31.02437270168898</v>
       </c>
       <c r="C51">
-        <v>0.001306687339209134</v>
+        <v>0.002974208196317107</v>
       </c>
       <c r="D51">
-        <v>0.001082886045196799</v>
+        <v>0.009585763826199158</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>147.8037667660312</v>
+        <v>32.72411871816266</v>
       </c>
       <c r="B52">
-        <v>147.8053685980745</v>
+        <v>32.72416289135951</v>
       </c>
       <c r="C52">
-        <v>0.00160183204334885</v>
+        <v>4.417319684790755E-05</v>
       </c>
       <c r="D52">
-        <v>0.001083755900405773</v>
+        <v>0.0001349866660378248</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>170.689104198261</v>
+        <v>34.47191849010084</v>
       </c>
       <c r="B53">
-        <v>170.6909555357248</v>
+        <v>34.46924427491113</v>
       </c>
       <c r="C53">
-        <v>0.001851337463762093</v>
+        <v>0.002674215189713891</v>
       </c>
       <c r="D53">
-        <v>0.001084625449561036</v>
+        <v>0.007757662778420164</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>190.8585923618674</v>
+        <v>36.25978167363415</v>
       </c>
       <c r="B54">
-        <v>190.8606641217584</v>
+        <v>36.25961685234382</v>
       </c>
       <c r="C54">
-        <v>0.002071759891038027</v>
+        <v>0.0001648212903333501</v>
       </c>
       <c r="D54">
-        <v>0.001085494692903307</v>
+        <v>0.000454556764342566</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>269.9464416912757</v>
+        <v>38.0960774515336</v>
       </c>
       <c r="B55">
-        <v>269.9493742912406</v>
+        <v>38.09528062365759</v>
       </c>
       <c r="C55">
-        <v>0.002932599964935889</v>
+        <v>0.0007968278760088765</v>
       </c>
       <c r="D55">
-        <v>0.001086363630712257</v>
+        <v>0.002091627089488709</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>14.84025793556593</v>
+        <v>39.9783243882559</v>
       </c>
       <c r="B56">
-        <v>14.84125571689474</v>
+        <v>39.97623558885243</v>
       </c>
       <c r="C56">
-        <v>0.0009977813288113424</v>
+        <v>0.002088799403466624</v>
       </c>
       <c r="D56">
-        <v>0.006723476998469652</v>
+        <v>0.005224829793217228</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>20.99020853878871</v>
+        <v>41.90661119946478</v>
       </c>
       <c r="B57">
-        <v>20.99162002677125</v>
+        <v>41.90248174792836</v>
       </c>
       <c r="C57">
-        <v>0.001411487982540649</v>
+        <v>0.004129451536421413</v>
       </c>
       <c r="D57">
-        <v>0.006724506714320154</v>
+        <v>0.009853938121520439</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>25.71121878183384</v>
+        <v>43.87695240712237</v>
       </c>
       <c r="B58">
-        <v>25.71294799910941</v>
+        <v>43.87401910088536</v>
       </c>
       <c r="C58">
-        <v>0.001729217275567407</v>
+        <v>0.002933306237004274</v>
       </c>
       <c r="D58">
-        <v>0.006725536001386208</v>
+        <v>0.006685300769722836</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>29.6928776034529</v>
+        <v>45.89467310722644</v>
       </c>
       <c r="B59">
-        <v>29.69487491412371</v>
+        <v>45.89084764772345</v>
       </c>
       <c r="C59">
-        <v>0.001997310670809327</v>
+        <v>0.00382545950299118</v>
       </c>
       <c r="D59">
-        <v>0.006726564860042615</v>
+        <v>0.008335301776860971</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>33.20225077374491</v>
+        <v>47.95455089752981</v>
       </c>
       <c r="B60">
-        <v>33.20448448614033</v>
+        <v>47.95296738844259</v>
       </c>
       <c r="C60">
-        <v>0.002233712395415921</v>
+        <v>0.001583509087218715</v>
       </c>
       <c r="D60">
-        <v>0.006727593290700209</v>
+        <v>0.003302103882908605</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>46.96158312981371</v>
+        <v>50.06424493347262</v>
       </c>
       <c r="B61">
-        <v>46.96474299689599</v>
+        <v>50.06037832304283</v>
       </c>
       <c r="C61">
-        <v>0.003159867082281664</v>
+        <v>0.003866610429788864</v>
       </c>
       <c r="D61">
-        <v>0.006728621293594365</v>
+        <v>0.007723297205274884</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>37.39627218082987</v>
+        <v>52.21760517324593</v>
       </c>
       <c r="B62">
-        <v>37.39878651058824</v>
+        <v>52.21308045152417</v>
       </c>
       <c r="C62">
-        <v>0.002514329758369627</v>
+        <v>0.004524721721757885</v>
       </c>
       <c r="D62">
-        <v>0.006723476998486833</v>
+        <v>0.008665126841313204</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>52.89365960194733</v>
+        <v>54.41487834699468</v>
       </c>
       <c r="B63">
-        <v>52.8972164396387</v>
+        <v>54.41107377388655</v>
       </c>
       <c r="C63">
-        <v>0.003556837691370163</v>
+        <v>0.00380457310813398</v>
       </c>
       <c r="D63">
-        <v>0.00672450671429665</v>
+        <v>0.00699178831913001</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>64.79023072516809</v>
+        <v>56.66035204722863</v>
       </c>
       <c r="B64">
-        <v>64.79458821546088</v>
+        <v>56.65435829013001</v>
       </c>
       <c r="C64">
-        <v>0.004357490292790089</v>
+        <v>0.005993757098615049</v>
       </c>
       <c r="D64">
-        <v>0.006725536001367257</v>
+        <v>0.01057839720730824</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>74.82369494600343</v>
+        <v>58.94784136816728</v>
       </c>
       <c r="B65">
-        <v>74.82872801037468</v>
+        <v>58.94293400025456</v>
       </c>
       <c r="C65">
-        <v>0.005033064371247065</v>
+        <v>0.004907367912721838</v>
       </c>
       <c r="D65">
-        <v>0.00672656486007431</v>
+        <v>0.00832493234497284</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>83.66703680907311</v>
+        <v>61.2826732592094</v>
       </c>
       <c r="B66">
-        <v>83.67266558702799</v>
+        <v>61.27680090426021</v>
       </c>
       <c r="C66">
-        <v>0.00562877795488248</v>
+        <v>0.005872354949197245</v>
       </c>
       <c r="D66">
-        <v>0.006727593290685392</v>
+        <v>0.009582406636144519</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>118.3394623186655</v>
+        <v>63.6618240328749</v>
       </c>
       <c r="B67">
-        <v>118.3474249329259</v>
+        <v>63.6559590021469</v>
       </c>
       <c r="C67">
-        <v>0.007962614260321743</v>
+        <v>0.005865030727996157</v>
       </c>
       <c r="D67">
-        <v>0.006728621293613745</v>
+        <v>0.009212790894850045</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>52.88631530032529</v>
+        <v>66.08755028393047</v>
       </c>
       <c r="B68">
-        <v>52.88987109956984</v>
+        <v>66.08040829391469</v>
       </c>
       <c r="C68">
-        <v>0.003555799244544744</v>
+        <v>0.007141990015782085</v>
       </c>
       <c r="D68">
-        <v>0.0067234769984493</v>
+        <v>0.01080686148162265</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>74.80293077261977</v>
+        <v>68.55697085970382</v>
       </c>
       <c r="B69">
-        <v>74.80796090072209</v>
+        <v>68.55014877956353</v>
       </c>
       <c r="C69">
-        <v>0.005030128102319509</v>
+        <v>0.006822080140295839</v>
       </c>
       <c r="D69">
-        <v>0.006724506714328757</v>
+        <v>0.009950964948927896</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>91.62722300081471</v>
+        <v>71.07280890112769</v>
       </c>
       <c r="B70">
-        <v>91.6333854226847</v>
+        <v>71.0651804590935</v>
       </c>
       <c r="C70">
-        <v>0.006162421869987611</v>
+        <v>0.00762844203418922</v>
       </c>
       <c r="D70">
-        <v>0.006725536001383364</v>
+        <v>0.01073327782049737</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>105.8166841795053</v>
+        <v>73.6330606209449</v>
       </c>
       <c r="B71">
-        <v>105.8238020073994</v>
+        <v>73.62550333250451</v>
       </c>
       <c r="C71">
-        <v>0.007117827894106199</v>
+        <v>0.007557288440395382</v>
       </c>
       <c r="D71">
-        <v>0.006726564860066547</v>
+        <v>0.01026344467643345</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>118.3230581789602</v>
+        <v>76.24048909651322</v>
       </c>
       <c r="B72">
-        <v>118.3310184730835</v>
+        <v>76.2311173997966</v>
       </c>
       <c r="C72">
-        <v>0.007960294123378731</v>
+        <v>0.009371696716613087</v>
       </c>
       <c r="D72">
-        <v>0.006727593290683054</v>
+        <v>0.01229228304759353</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>167.3572725749966</v>
+        <v>78.89007310539429</v>
       </c>
       <c r="B73">
-        <v>167.3685334120755</v>
+        <v>78.88202266096975</v>
       </c>
       <c r="C73">
-        <v>0.01126083707887915</v>
+        <v>0.008050444424540615</v>
       </c>
       <c r="D73">
-        <v>0.006728621293605815</v>
+        <v>0.010204635523389</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>7.377434869454365</v>
+        <v>81.58810245576932</v>
       </c>
       <c r="B74">
-        <v>7.378694426764324</v>
+        <v>81.57821911602397</v>
       </c>
       <c r="C74">
-        <v>0.001259557309959192</v>
+        <v>0.009883339745343278</v>
       </c>
       <c r="D74">
-        <v>0.01707310646921846</v>
+        <v>0.01211370217943388</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>10.43469942700115</v>
+        <v>84.32830225858284</v>
       </c>
       <c r="B75">
-        <v>10.43648106047656</v>
+        <v>84.31970676495934</v>
       </c>
       <c r="C75">
-        <v>0.001781633475406608</v>
+        <v>0.008595493623502648</v>
       </c>
       <c r="D75">
-        <v>0.0170741235803726</v>
+        <v>0.01019289300660361</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>12.78159671148452</v>
+        <v>87.11676359543526</v>
       </c>
       <c r="B76">
-        <v>12.78377918705216</v>
+        <v>87.10648560777574</v>
       </c>
       <c r="C76">
-        <v>0.002182475567646947</v>
+        <v>0.0102779876595207</v>
       </c>
       <c r="D76">
-        <v>0.01707514027324887</v>
+        <v>0.01179794477587692</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>14.76093920472652</v>
+        <v>89.94853471207314</v>
       </c>
       <c r="B77">
-        <v>14.76345980581309</v>
+        <v>89.93855564447321</v>
       </c>
       <c r="C77">
-        <v>0.002520601086578367</v>
+        <v>0.009979067599928726</v>
       </c>
       <c r="D77">
-        <v>0.01707615654816368</v>
+        <v>0.01109419695592808</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>16.50549245345963</v>
+        <v>92.82519121237088</v>
       </c>
       <c r="B78">
-        <v>16.50831112486228</v>
+        <v>92.81591687505176</v>
       </c>
       <c r="C78">
-        <v>0.002818671402650352</v>
+        <v>0.009274337319126857</v>
       </c>
       <c r="D78">
-        <v>0.01707717240547733</v>
+        <v>0.009991185795576212</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>23.3454875419857</v>
+        <v>95.74891957016341</v>
       </c>
       <c r="B79">
-        <v>23.34947452820158</v>
+        <v>95.73856929951143</v>
       </c>
       <c r="C79">
-        <v>0.003986986215874566</v>
+        <v>0.01035027065198335</v>
       </c>
       <c r="D79">
-        <v>0.01707818784552762</v>
+        <v>0.01080980411940714</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>18.59055035110072</v>
+        <v>98.71833689849635</v>
       </c>
       <c r="B80">
-        <v>18.59372433555538</v>
+        <v>98.70651291785214</v>
       </c>
       <c r="C80">
-        <v>0.003173984454662104</v>
+        <v>0.01182398064420909</v>
       </c>
       <c r="D80">
-        <v>0.01707310646924542</v>
+        <v>0.01197749173627862</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>26.29461439225339</v>
+        <v>101.7316887288901</v>
       </c>
       <c r="B81">
-        <v>26.29910396720971</v>
+        <v>101.7197477300739</v>
       </c>
       <c r="C81">
-        <v>0.004489574956320297</v>
+        <v>0.01194099881618627</v>
       </c>
       <c r="D81">
-        <v>0.01707412358038977</v>
+        <v>0.01173773773480595</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>32.20860928452907</v>
+        <v>104.7904753905455</v>
       </c>
       <c r="B82">
-        <v>32.21410894974446</v>
+        <v>104.7782737361768</v>
       </c>
       <c r="C82">
-        <v>0.005499665215396021</v>
+        <v>0.01220165436866694</v>
       </c>
       <c r="D82">
-        <v>0.01707514027324894</v>
+        <v>0.01164385820676199</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>37.19639527435105</v>
+        <v>107.8954254948007</v>
       </c>
       <c r="B83">
-        <v>37.20274698903836</v>
+        <v>107.8820909361608</v>
       </c>
       <c r="C83">
-        <v>0.006351714687312437</v>
+        <v>0.01333455863994004</v>
       </c>
       <c r="D83">
-        <v>0.01707615654813813</v>
+        <v>0.01235878034568075</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>41.59253100237112</v>
+        <v>111.0452773214064</v>
       </c>
       <c r="B84">
-        <v>41.59963383059819</v>
+        <v>111.0311993300258</v>
       </c>
       <c r="C84">
-        <v>0.007102828227075975</v>
+        <v>0.01407799138064547</v>
       </c>
       <c r="D84">
-        <v>0.01707717240547601</v>
+        <v>0.01267770383417434</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>58.82877576015509</v>
+        <v>114.2406200338595</v>
       </c>
       <c r="B85">
-        <v>58.83882264898664</v>
+        <v>114.2255989177719</v>
       </c>
       <c r="C85">
-        <v>0.01004688883154614</v>
+        <v>0.01502111608759549</v>
       </c>
       <c r="D85">
-        <v>0.0170781878455321</v>
+        <v>0.0131486647071273</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>26.29100843850655</v>
+        <v>117.4797871316415</v>
       </c>
       <c r="B86">
-        <v>26.29549713036908</v>
+        <v>117.4652896993991</v>
       </c>
       <c r="C86">
-        <v>0.004488691862533756</v>
+        <v>0.01449743224243605</v>
       </c>
       <c r="D86">
-        <v>0.01707310646920447</v>
+        <v>0.01234036305002069</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>37.18620029089551</v>
+        <v>120.7642220827281</v>
       </c>
       <c r="B87">
-        <v>37.19254950868803</v>
+        <v>120.7502716749074</v>
       </c>
       <c r="C87">
-        <v>0.006349217792518402</v>
+        <v>0.01395040782072954</v>
       </c>
       <c r="D87">
-        <v>0.01707412358038881</v>
+        <v>0.01155177218892941</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>45.54985207535699</v>
+        <v>124.0966325167546</v>
       </c>
       <c r="B88">
-        <v>45.55762977649312</v>
+        <v>124.0805448442967</v>
       </c>
       <c r="C88">
-        <v>0.007777701136127746</v>
+        <v>0.01608767245792819</v>
       </c>
       <c r="D88">
-        <v>0.01707514027325584</v>
+        <v>0.01296382676279</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>52.60364666837776</v>
+        <v>127.4733643652253</v>
       </c>
       <c r="B89">
-        <v>52.61262934943288</v>
+        <v>127.4561092075671</v>
       </c>
       <c r="C89">
-        <v>0.00898268105512301</v>
+        <v>0.01725515765822649</v>
       </c>
       <c r="D89">
-        <v>0.01707615654814075</v>
+        <v>0.01353628481067508</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>58.82072143697665</v>
+        <v>130.8942962526324</v>
       </c>
       <c r="B90">
-        <v>58.83076635298659</v>
+        <v>130.8769647647186</v>
       </c>
       <c r="C90">
-        <v>0.01004491600993873</v>
+        <v>0.01733148791379335</v>
       </c>
       <c r="D90">
-        <v>0.01707717240547846</v>
+        <v>0.013240827453889</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>83.19645253781688</v>
+        <v>134.3609775886858</v>
       </c>
       <c r="B91">
-        <v>83.21066098426215</v>
+        <v>134.3431115157511</v>
       </c>
       <c r="C91">
-        <v>0.01420844644526653</v>
+        <v>0.01786607293468023</v>
       </c>
       <c r="D91">
-        <v>0.01707818784557923</v>
+        <v>0.01329706977078789</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>17.05249842649656</v>
+        <v>137.872949117355</v>
       </c>
       <c r="B92">
-        <v>17.05357248104788</v>
+        <v>137.8545494606648</v>
       </c>
       <c r="C92">
-        <v>0.001074054551320813</v>
+        <v>0.01839965669023513</v>
       </c>
       <c r="D92">
-        <v>0.006298517228724224</v>
+        <v>0.01334537108840232</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>24.12033962302736</v>
+        <v>141.4303987354384</v>
       </c>
       <c r="B93">
-        <v>24.12185917791102</v>
+        <v>141.4112785994596</v>
       </c>
       <c r="C93">
-        <v>0.001519554883657293</v>
+        <v>0.01912013597882378</v>
       </c>
       <c r="D93">
-        <v>0.006299890082006117</v>
+        <v>0.01351911339413683</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>29.54672880447129</v>
+        <v>145.0323648034416</v>
       </c>
       <c r="B94">
-        <v>29.5485906213169</v>
+        <v>145.0132989321353</v>
       </c>
       <c r="C94">
-        <v>0.001861816845611486</v>
+        <v>0.01906587130625326</v>
       </c>
       <c r="D94">
-        <v>0.006301262173326404</v>
+        <v>0.01314594251572241</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>34.12393355696911</v>
+        <v>148.6818598345328</v>
       </c>
       <c r="B95">
-        <v>34.12608426343817</v>
+        <v>148.6606104586923</v>
       </c>
       <c r="C95">
-        <v>0.002150706469052466</v>
+        <v>0.02124937584051168</v>
       </c>
       <c r="D95">
-        <v>0.006302633503438023</v>
+        <v>0.0142918415630259</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>38.15876962017883</v>
+        <v>152.3744492125125</v>
       </c>
       <c r="B96">
-        <v>38.16117515056996</v>
+        <v>152.3532131791302</v>
       </c>
       <c r="C96">
-        <v>0.002405530391129673</v>
+        <v>0.02123603338233693</v>
       </c>
       <c r="D96">
-        <v>0.006304004073175355</v>
+        <v>0.01393674168608125</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>53.97461897363385</v>
+        <v>156.1123630918457</v>
       </c>
       <c r="B97">
-        <v>53.97802227516227</v>
+        <v>156.0911070934492</v>
       </c>
       <c r="C97">
-        <v>0.00340330152841517</v>
+        <v>0.02125599839652637</v>
       </c>
       <c r="D97">
-        <v>0.006305373883375914</v>
+        <v>0.01361583283703214</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>42.97094264056807</v>
+        <v>159.8949185898636</v>
       </c>
       <c r="B98">
-        <v>42.97364917279363</v>
+        <v>159.8742922016494</v>
       </c>
       <c r="C98">
-        <v>0.002706532225559499</v>
+        <v>0.02062638821425367</v>
       </c>
       <c r="D98">
-        <v>0.006298517228719838</v>
+        <v>0.01289996479948254</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>60.78134150721474</v>
+        <v>163.7260042450968</v>
       </c>
       <c r="B99">
-        <v>60.78517066492007</v>
+        <v>163.7027685037305</v>
       </c>
       <c r="C99">
-        <v>0.003829157705332875</v>
+        <v>0.02323574136624984</v>
       </c>
       <c r="D99">
-        <v>0.006299890082021889</v>
+        <v>0.01419184537812703</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>74.45541157186351</v>
+        <v>167.600363471084</v>
       </c>
       <c r="B100">
-        <v>74.46010320254885</v>
+        <v>167.5765359996929</v>
       </c>
       <c r="C100">
-        <v>0.004691630685343284</v>
+        <v>0.02382747139114372</v>
       </c>
       <c r="D100">
-        <v>0.006301262173287399</v>
+        <v>0.01421683754000609</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>85.98960427221893</v>
+        <v>171.521235026842</v>
       </c>
       <c r="B101">
-        <v>85.99502388182728</v>
+        <v>171.4955946895362</v>
       </c>
       <c r="C101">
-        <v>0.005419609608352971</v>
+        <v>0.02564033730581627</v>
       </c>
       <c r="D101">
-        <v>0.006302633503459337</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
-        <v>96.15707092138031</v>
-      </c>
-      <c r="B102">
-        <v>96.16313266704782</v>
-      </c>
-      <c r="C102">
-        <v>0.006061745667508944</v>
-      </c>
-      <c r="D102">
-        <v>0.006304004073153531</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>136.011756046181</v>
-      </c>
-      <c r="B103">
-        <v>136.0203320959251</v>
-      </c>
-      <c r="C103">
-        <v>0.008576049744078773</v>
-      </c>
-      <c r="D103">
-        <v>0.006305373883392026</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
-        <v>60.7700898702477</v>
-      </c>
-      <c r="B104">
-        <v>60.77391748482808</v>
-      </c>
-      <c r="C104">
-        <v>0.003827614580380612</v>
-      </c>
-      <c r="D104">
-        <v>0.006298517228710838</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>85.95779749873384</v>
-      </c>
-      <c r="B105">
-        <v>85.96321274549318</v>
-      </c>
-      <c r="C105">
-        <v>0.00541524675934113</v>
-      </c>
-      <c r="D105">
-        <v>0.006299890082014837</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106">
-        <v>105.295852837</v>
-      </c>
-      <c r="B106">
-        <v>105.3024878047449</v>
-      </c>
-      <c r="C106">
-        <v>0.0066349677448585</v>
-      </c>
-      <c r="D106">
-        <v>0.006301262173287636</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
-        <v>121.6076645848675</v>
-      </c>
-      <c r="B107">
-        <v>121.6153290702783</v>
-      </c>
-      <c r="C107">
-        <v>0.007664485410884936</v>
-      </c>
-      <c r="D107">
-        <v>0.006302633503446694</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>135.9866338150876</v>
-      </c>
-      <c r="B108">
-        <v>135.9952064180222</v>
-      </c>
-      <c r="C108">
-        <v>0.008572602934663109</v>
-      </c>
-      <c r="D108">
-        <v>0.006304004073165012</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
-        <v>192.34967004269</v>
-      </c>
-      <c r="B109">
-        <v>192.3617984085497</v>
-      </c>
-      <c r="C109">
-        <v>0.0121283658596667</v>
-      </c>
-      <c r="D109">
-        <v>0.006305373883394203</v>
+        <v>0.01494878304823524</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Real_vs_Predict.xlsx
+++ b/datasets/Real_vs_Predict.xlsx
@@ -405,1402 +405,1402 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>3.219706175747628</v>
+        <v>2.580876650737995</v>
       </c>
       <c r="B2">
-        <v>3.21636591215306</v>
+        <v>2.560220418178357</v>
       </c>
       <c r="C2">
-        <v>0.003340263594568071</v>
+        <v>0.02065623255963756</v>
       </c>
       <c r="D2">
-        <v>0.103744360890088</v>
+        <v>0.800357217913958</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2.700376295693827</v>
+        <v>2.048123395432709</v>
       </c>
       <c r="B3">
-        <v>2.696887601650782</v>
+        <v>2.028915898780181</v>
       </c>
       <c r="C3">
-        <v>0.003488694043045193</v>
+        <v>0.01920749665252819</v>
       </c>
       <c r="D3">
-        <v>0.1291928850289666</v>
+        <v>0.9378095428898805</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2.225197794754311</v>
+        <v>1.517940705042908</v>
       </c>
       <c r="B4">
-        <v>2.222700485029582</v>
+        <v>1.497611379382005</v>
       </c>
       <c r="C4">
-        <v>0.002497309724729391</v>
+        <v>0.02032932566090317</v>
       </c>
       <c r="D4">
-        <v>0.1122286625762688</v>
+        <v>1.339270077768191</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1.79745404532855</v>
+        <v>0.9874568714030724</v>
       </c>
       <c r="B5">
-        <v>1.793804562289459</v>
+        <v>0.9663068599838283</v>
       </c>
       <c r="C5">
-        <v>0.003649483039091406</v>
+        <v>0.02115001141924411</v>
       </c>
       <c r="D5">
-        <v>0.2030362360904938</v>
+        <v>2.141866853302886</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1.412374653486217</v>
+        <v>0.4561162797235548</v>
       </c>
       <c r="B6">
-        <v>1.410199833430414</v>
+        <v>0.4350023405856522</v>
       </c>
       <c r="C6">
-        <v>0.00217482005580294</v>
+        <v>0.0211139391379026</v>
       </c>
       <c r="D6">
-        <v>0.1539832260820279</v>
+        <v>4.62906940105261</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1.073631005418439</v>
+        <v>-0.0757945006863741</v>
       </c>
       <c r="B7">
-        <v>1.071886298452447</v>
+        <v>-0.0963021788125247</v>
       </c>
       <c r="C7">
-        <v>0.00174470696599216</v>
+        <v>0.02050767812615061</v>
       </c>
       <c r="D7">
-        <v>0.1625052701707487</v>
+        <v>-27.05694732525279</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.7786176858819784</v>
+        <v>-0.6070183349557225</v>
       </c>
       <c r="B8">
-        <v>0.7788639573555574</v>
+        <v>-0.6276066982107009</v>
       </c>
       <c r="C8">
-        <v>0.0002462714735789184</v>
+        <v>0.02058836325497837</v>
       </c>
       <c r="D8">
-        <v>0.0316293192467051</v>
+        <v>-3.391720162205667</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.5320193090032052</v>
+        <v>-1.140054509809362</v>
       </c>
       <c r="B9">
-        <v>0.5311328101397468</v>
+        <v>-1.158911217608877</v>
       </c>
       <c r="C9">
-        <v>0.0008864988634583737</v>
+        <v>0.0188567077995152</v>
       </c>
       <c r="D9">
-        <v>0.1666290768880783</v>
+        <v>-1.654018087492009</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.3295135306277908</v>
+        <v>-1.671479398856432</v>
       </c>
       <c r="B10">
-        <v>0.3286928568050129</v>
+        <v>-1.690215737007054</v>
       </c>
       <c r="C10">
-        <v>0.0008206738227778954</v>
+        <v>0.01873633815062159</v>
       </c>
       <c r="D10">
-        <v>0.2490561832815616</v>
+        <v>-1.120943408781487</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.1716598904805359</v>
+        <v>-2.202170675824935</v>
       </c>
       <c r="B11">
-        <v>0.1715440973513576</v>
+        <v>-2.221520256405229</v>
       </c>
       <c r="C11">
-        <v>0.0001157931291783376</v>
+        <v>0.01934958058029457</v>
       </c>
       <c r="D11">
-        <v>0.06745497090449741</v>
+        <v>-0.8786594423725218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.05966737878847223</v>
+        <v>-2.733740968320959</v>
       </c>
       <c r="B12">
-        <v>0.05968653177878025</v>
+        <v>-2.752824775803405</v>
       </c>
       <c r="C12">
-        <v>1.915299030801759E-05</v>
+        <v>0.01908380748244642</v>
       </c>
       <c r="D12">
-        <v>0.03209960064764561</v>
+        <v>-0.6980839700466406</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>-0.006067118829339596</v>
+        <v>-3.264018751372689</v>
       </c>
       <c r="B13">
-        <v>-0.006879839912719898</v>
+        <v>-3.284129295201581</v>
       </c>
       <c r="C13">
-        <v>0.0008127210833803024</v>
+        <v>0.02011054382889244</v>
       </c>
       <c r="D13">
-        <v>-13.39550297663721</v>
+        <v>-0.6161283179036551</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>-0.0291135208962642</v>
+        <v>-3.795194561445739</v>
       </c>
       <c r="B14">
-        <v>-0.02815501772314244</v>
+        <v>-3.815433814599758</v>
       </c>
       <c r="C14">
-        <v>0.0009585031731217594</v>
+        <v>0.02023925315401875</v>
       </c>
       <c r="D14">
-        <v>-3.292295619403262</v>
+        <v>-0.533286313160947</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>-0.003737483376161106</v>
+        <v>-4.327588796701135</v>
       </c>
       <c r="B15">
-        <v>-0.004139001652486041</v>
+        <v>-4.346738333997934</v>
       </c>
       <c r="C15">
-        <v>0.0004015182763249347</v>
+        <v>0.01914953729679958</v>
       </c>
       <c r="D15">
-        <v>-10.74301169835162</v>
+        <v>-0.4424990034033969</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.06632684875767067</v>
+        <v>-4.858613046128093</v>
       </c>
       <c r="B16">
-        <v>0.06516820829924708</v>
+        <v>-4.87804285339611</v>
       </c>
       <c r="C16">
-        <v>0.001158640458423593</v>
+        <v>0.01942980726801657</v>
       </c>
       <c r="D16">
-        <v>1.746864927439504</v>
+        <v>-0.399904398303555</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.1796626120231249</v>
+        <v>-5.388137053270595</v>
       </c>
       <c r="B17">
-        <v>0.1797666121320582</v>
+        <v>-5.409347372794286</v>
       </c>
       <c r="C17">
-        <v>0.0001040001089333553</v>
+        <v>0.0212103195236919</v>
       </c>
       <c r="D17">
-        <v>0.05788633915662384</v>
+        <v>-0.3936484783885973</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.3400625228430507</v>
+        <v>-5.922430886453511</v>
       </c>
       <c r="B18">
-        <v>0.3396562098459479</v>
+        <v>-5.940651892192464</v>
       </c>
       <c r="C18">
-        <v>0.000406312997102809</v>
+        <v>0.01822100573895291</v>
       </c>
       <c r="D18">
-        <v>0.1194818510742905</v>
+        <v>-0.3076609265399815</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.5441264029602549</v>
+        <v>-6.451404202459663</v>
       </c>
       <c r="B19">
-        <v>0.5448370014409156</v>
+        <v>-6.471956411590639</v>
       </c>
       <c r="C19">
-        <v>0.0007105984806606847</v>
+        <v>0.02055220913097511</v>
       </c>
       <c r="D19">
-        <v>0.130594376011669</v>
+        <v>-0.3185695468149302</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.7962338913112076</v>
+        <v>-6.984061352776331</v>
       </c>
       <c r="B20">
-        <v>0.7953089869169601</v>
+        <v>-7.003260930988816</v>
       </c>
       <c r="C20">
-        <v>0.0009249043942475277</v>
+        <v>0.01919957821248452</v>
       </c>
       <c r="D20">
-        <v>0.1161598877340464</v>
+        <v>-0.2749056350264196</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>1.091804128368968</v>
+        <v>-7.5144037715765</v>
       </c>
       <c r="B21">
-        <v>1.091072166274083</v>
+        <v>-7.534565450386991</v>
       </c>
       <c r="C21">
-        <v>0.0007319620948853522</v>
+        <v>0.02016167881049125</v>
       </c>
       <c r="D21">
-        <v>0.06704152108115043</v>
+        <v>-0.2683070995832499</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>1.430419267476538</v>
+        <v>-8.046693504813501</v>
       </c>
       <c r="B22">
-        <v>1.432126539512284</v>
+        <v>-8.065869969785169</v>
       </c>
       <c r="C22">
-        <v>0.001707272035745611</v>
+        <v>0.01917646497166814</v>
       </c>
       <c r="D22">
-        <v>0.1193546587747997</v>
+        <v>-0.2383148427387827</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>1.818848566203085</v>
+        <v>-8.577749887454461</v>
       </c>
       <c r="B23">
-        <v>1.818472106631563</v>
+        <v>-8.597174489183347</v>
       </c>
       <c r="C23">
-        <v>0.0003764595715221031</v>
+        <v>0.01942460172888616</v>
       </c>
       <c r="D23">
-        <v>0.02069768635593323</v>
+        <v>-0.2264533471335642</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>2.249567946797578</v>
+        <v>-9.10968336019066</v>
       </c>
       <c r="B24">
-        <v>2.250108867631918</v>
+        <v>-9.128479008581522</v>
       </c>
       <c r="C24">
-        <v>0.0005409208343403193</v>
+        <v>0.01879564839086179</v>
       </c>
       <c r="D24">
-        <v>0.0240455432835607</v>
+        <v>-0.2063260340419604</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>2.727092271778383</v>
+        <v>-9.639835392611747</v>
       </c>
       <c r="B25">
-        <v>2.727036822513353</v>
+        <v>-9.6597835279797</v>
       </c>
       <c r="C25">
-        <v>5.544926502976111E-05</v>
+        <v>0.0199481353679527</v>
       </c>
       <c r="D25">
-        <v>0.002033274253445106</v>
+        <v>-0.2069343983118377</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>3.248825759880158</v>
+        <v>-10.17130826279369</v>
       </c>
       <c r="B26">
-        <v>3.249255971275865</v>
+        <v>-10.19108804737787</v>
       </c>
       <c r="C26">
-        <v>0.0004302113957068698</v>
+        <v>0.01977978458418406</v>
       </c>
       <c r="D26">
-        <v>0.01324205813126584</v>
+        <v>-0.1944664744508615</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>3.816473481587067</v>
+        <v>-10.70238431322362</v>
       </c>
       <c r="B27">
-        <v>3.816766313919456</v>
+        <v>-10.72239256677605</v>
       </c>
       <c r="C27">
-        <v>0.0002928323323887483</v>
+        <v>0.0200082535524313</v>
       </c>
       <c r="D27">
-        <v>0.007672851227751096</v>
+        <v>-0.1869513649188393</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>4.42833333496757</v>
+        <v>-11.23487025978524</v>
       </c>
       <c r="B28">
-        <v>4.429567850444123</v>
+        <v>-11.25369708617423</v>
       </c>
       <c r="C28">
-        <v>0.001234515476552289</v>
+        <v>0.01882682638898814</v>
       </c>
       <c r="D28">
-        <v>0.02787765471050137</v>
+        <v>-0.1675749336988607</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>5.085792038051454</v>
+        <v>-11.76457946383168</v>
       </c>
       <c r="B29">
-        <v>5.087660580849869</v>
+        <v>-11.7850016055724</v>
       </c>
       <c r="C29">
-        <v>0.001868542798415085</v>
+        <v>0.02042214174072399</v>
       </c>
       <c r="D29">
-        <v>0.03674044837922609</v>
+        <v>-0.1735900701211514</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>5.790215634249964</v>
+        <v>-12.29671440178429</v>
       </c>
       <c r="B30">
-        <v>5.791044505136691</v>
+        <v>-12.31630612497058</v>
       </c>
       <c r="C30">
-        <v>0.0008288708867265626</v>
+        <v>0.01959172318628966</v>
       </c>
       <c r="D30">
-        <v>0.01431502622844772</v>
+        <v>-0.1593248614723201</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>6.537999045137668</v>
+        <v>-12.82832376445579</v>
       </c>
       <c r="B31">
-        <v>6.539719623304594</v>
+        <v>-12.84761064436876</v>
       </c>
       <c r="C31">
-        <v>0.001720578166925613</v>
+        <v>0.01928687991296663</v>
       </c>
       <c r="D31">
-        <v>0.02631658639052896</v>
+        <v>-0.1503460644359939</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>7.332920295167548</v>
+        <v>-13.36065540119018</v>
       </c>
       <c r="B32">
-        <v>7.333685935353571</v>
+        <v>-13.37891516376693</v>
       </c>
       <c r="C32">
-        <v>0.0007656401860236528</v>
+        <v>0.01825976257675244</v>
       </c>
       <c r="D32">
-        <v>0.0104411360713714</v>
+        <v>-0.1366681650596709</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>8.172223197999942</v>
+        <v>-13.88991597639569</v>
       </c>
       <c r="B33">
-        <v>8.17294344128363</v>
+        <v>-13.91021968316511</v>
       </c>
       <c r="C33">
-        <v>0.0007202432836876937</v>
+        <v>0.02030370676942006</v>
       </c>
       <c r="D33">
-        <v>0.008813309013194414</v>
+        <v>-0.1461758789896488</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>9.056835190769727</v>
+        <v>-14.42281510000129</v>
       </c>
       <c r="B34">
-        <v>9.057492141094762</v>
+        <v>-14.44152420256328</v>
       </c>
       <c r="C34">
-        <v>0.0006569503250357656</v>
+        <v>0.01870910256199387</v>
       </c>
       <c r="D34">
-        <v>0.007253641158285583</v>
+        <v>-0.1297187992238228</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>9.985834106709703</v>
+        <v>-14.9526396726442</v>
       </c>
       <c r="B35">
-        <v>9.987332034786977</v>
+        <v>-14.97282872196146</v>
       </c>
       <c r="C35">
-        <v>0.001497928077274224</v>
+        <v>0.0201890493172634</v>
       </c>
       <c r="D35">
-        <v>0.01500053036398565</v>
+        <v>-0.1350199681076993</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>10.96091664230036</v>
+        <v>-15.48459584037293</v>
       </c>
       <c r="B36">
-        <v>10.96246312236027</v>
+        <v>-15.50413324135964</v>
       </c>
       <c r="C36">
-        <v>0.001546480059905875</v>
+        <v>0.01953740098670842</v>
       </c>
       <c r="D36">
-        <v>0.01410903951169285</v>
+        <v>-0.1261731412825682</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>11.98198211900225</v>
+        <v>-16.01563600387641</v>
       </c>
       <c r="B37">
-        <v>11.98288540381464</v>
+        <v>-16.03543776075781</v>
       </c>
       <c r="C37">
-        <v>0.0009032848123862181</v>
+        <v>0.01980175688140307</v>
       </c>
       <c r="D37">
-        <v>0.007538692708894105</v>
+        <v>-0.1236401531391589</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>13.0485233761499</v>
+        <v>-16.54873033663295</v>
       </c>
       <c r="B38">
-        <v>13.04859887915008</v>
+        <v>-16.56674228015599</v>
       </c>
       <c r="C38">
-        <v>7.550300018088762E-05</v>
+        <v>0.01801194352303881</v>
       </c>
       <c r="D38">
-        <v>0.000578632524189611</v>
+        <v>-0.1088418456077372</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>14.15940626314065</v>
+        <v>-17.08043937221302</v>
       </c>
       <c r="B39">
-        <v>14.15960354836661</v>
+        <v>-17.09804679955417</v>
       </c>
       <c r="C39">
-        <v>0.0001972852259566338</v>
+        <v>0.01760742734114373</v>
       </c>
       <c r="D39">
-        <v>0.001393315667975435</v>
+        <v>-0.103085330285988</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>15.31472717667958</v>
+        <v>-17.61115451471074</v>
       </c>
       <c r="B40">
-        <v>15.3158994114642</v>
+        <v>-17.62935131895234</v>
       </c>
       <c r="C40">
-        <v>0.001172234784624138</v>
+        <v>0.01819680424160097</v>
       </c>
       <c r="D40">
-        <v>0.007654297534004732</v>
+        <v>-0.1033254476667105</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>16.51798146403575</v>
+        <v>-18.14013580054829</v>
       </c>
       <c r="B41">
-        <v>16.51748646844289</v>
+        <v>-18.16065583835052</v>
       </c>
       <c r="C41">
-        <v>0.0004949955928594818</v>
+        <v>0.02052003780222833</v>
       </c>
       <c r="D41">
-        <v>0.002996707521056524</v>
+        <v>-0.1131195379563151</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>17.7637925715202</v>
+        <v>-18.67148231573965</v>
       </c>
       <c r="B42">
-        <v>17.76436471930265</v>
+        <v>-18.6919603577487</v>
       </c>
       <c r="C42">
-        <v>0.0005721477824529586</v>
+        <v>0.02047804200904935</v>
       </c>
       <c r="D42">
-        <v>0.003220865027270441</v>
+        <v>-0.1096755022593295</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>19.05884705361218</v>
+        <v>-19.20433008377492</v>
       </c>
       <c r="B43">
-        <v>19.05653416404348</v>
+        <v>-19.22326487714687</v>
       </c>
       <c r="C43">
-        <v>0.002312889568699461</v>
+        <v>0.01893479337195103</v>
       </c>
       <c r="D43">
-        <v>0.01213551670881951</v>
+        <v>-0.09859647948848989</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>20.3945044561875</v>
+        <v>-19.73681560005754</v>
       </c>
       <c r="B44">
-        <v>20.3939948026654</v>
+        <v>-19.75456939654505</v>
       </c>
       <c r="C44">
-        <v>0.0005096535221049692</v>
+        <v>0.01775379648750786</v>
       </c>
       <c r="D44">
-        <v>0.002498974776267952</v>
+        <v>-0.08995268967024295</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>21.77553694793183</v>
+        <v>-20.26701420494038</v>
       </c>
       <c r="B45">
-        <v>21.77674663516839</v>
+        <v>-20.28587391594322</v>
       </c>
       <c r="C45">
-        <v>0.001209687236560342</v>
+        <v>0.01885971100284323</v>
       </c>
       <c r="D45">
-        <v>0.005555257899967578</v>
+        <v>-0.09305618880084417</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>23.20474000457469</v>
+        <v>-20.79822691027624</v>
       </c>
       <c r="B46">
-        <v>23.20478966155246</v>
+        <v>-20.8171784353414</v>
       </c>
       <c r="C46">
-        <v>4.96569777723721E-05</v>
+        <v>0.0189515250651624</v>
       </c>
       <c r="D46">
-        <v>0.0002139949758652004</v>
+        <v>-0.09112086884578896</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>24.67730484281448</v>
+        <v>-21.329944668934</v>
       </c>
       <c r="B47">
-        <v>24.6781238818176</v>
+        <v>-21.34848295473957</v>
       </c>
       <c r="C47">
-        <v>0.0008190390031188599</v>
+        <v>0.01853828580557249</v>
       </c>
       <c r="D47">
-        <v>0.003318996982595314</v>
+        <v>-0.08691202013558232</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>26.19737702421959</v>
+        <v>-21.8620165997525</v>
       </c>
       <c r="B48">
-        <v>26.19674929596383</v>
+        <v>-21.87978747413775</v>
       </c>
       <c r="C48">
-        <v>0.0006277282557611841</v>
+        <v>0.01777087438524916</v>
       </c>
       <c r="D48">
-        <v>0.002396149260213519</v>
+        <v>-0.08128652864278925</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>27.76056594001353</v>
+        <v>-22.39278484039104</v>
       </c>
       <c r="B49">
-        <v>27.76066590399113</v>
+        <v>-22.41109199353593</v>
       </c>
       <c r="C49">
-        <v>9.996397760048126E-05</v>
+        <v>0.01830715314488884</v>
       </c>
       <c r="D49">
-        <v>0.0003600934426786853</v>
+        <v>-0.08175469587805476</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>29.36970712782713</v>
+        <v>-22.92248157267415</v>
       </c>
       <c r="B50">
-        <v>29.36987370589951</v>
+        <v>-22.94239651293411</v>
       </c>
       <c r="C50">
-        <v>0.0001665780723847377</v>
+        <v>0.01991494025995522</v>
       </c>
       <c r="D50">
-        <v>0.0005671764844631655</v>
+        <v>-0.08687951257291349</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>31.0273469098853</v>
+        <v>-23.45325611777823</v>
       </c>
       <c r="B51">
-        <v>31.02437270168898</v>
+        <v>-23.47370103233228</v>
       </c>
       <c r="C51">
-        <v>0.002974208196317107</v>
+        <v>0.02044491455405151</v>
       </c>
       <c r="D51">
-        <v>0.009585763826199158</v>
+        <v>-0.08717303239848936</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>32.72411871816266</v>
+        <v>-23.98514210815209</v>
       </c>
       <c r="B52">
-        <v>32.72416289135951</v>
+        <v>-24.00500555173046</v>
       </c>
       <c r="C52">
-        <v>4.417319684790755E-05</v>
+        <v>0.019863443578366</v>
       </c>
       <c r="D52">
-        <v>0.0001349866660378248</v>
+        <v>-0.08281561763861636</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>34.47191849010084</v>
+        <v>-24.51505561772709</v>
       </c>
       <c r="B53">
-        <v>34.46924427491113</v>
+        <v>-24.53631007112863</v>
       </c>
       <c r="C53">
-        <v>0.002674215189713891</v>
+        <v>0.02125445340154286</v>
       </c>
       <c r="D53">
-        <v>0.007757662778420164</v>
+        <v>-0.08669959282561671</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>36.25978167363415</v>
+        <v>-25.0475635805467</v>
       </c>
       <c r="B54">
-        <v>36.25961685234382</v>
+        <v>-25.06761459052681</v>
       </c>
       <c r="C54">
-        <v>0.0001648212903333501</v>
+        <v>0.02005100998011144</v>
       </c>
       <c r="D54">
-        <v>0.000454556764342566</v>
+        <v>-0.08005173802886022</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>38.0960774515336</v>
+        <v>-25.5803855684425</v>
       </c>
       <c r="B55">
-        <v>38.09528062365759</v>
+        <v>-25.59891910992499</v>
       </c>
       <c r="C55">
-        <v>0.0007968278760088765</v>
+        <v>0.01853354148248698</v>
       </c>
       <c r="D55">
-        <v>0.002091627089488709</v>
+        <v>-0.07245215844342499</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>39.9783243882559</v>
+        <v>-26.11050690796261</v>
       </c>
       <c r="B56">
-        <v>39.97623558885243</v>
+        <v>-26.13022362932316</v>
       </c>
       <c r="C56">
-        <v>0.002088799403466624</v>
+        <v>0.01971672136055247</v>
       </c>
       <c r="D56">
-        <v>0.005224829793217228</v>
+        <v>-0.075512595102241</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>41.90661119946478</v>
+        <v>-26.64314358291286</v>
       </c>
       <c r="B57">
-        <v>41.90248174792836</v>
+        <v>-26.66152814872134</v>
       </c>
       <c r="C57">
-        <v>0.004129451536421413</v>
+        <v>0.01838456580847847</v>
       </c>
       <c r="D57">
-        <v>0.009853938121520439</v>
+        <v>-0.06900299039888487</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>43.87695240712237</v>
+        <v>-27.17506970646387</v>
       </c>
       <c r="B58">
-        <v>43.87401910088536</v>
+        <v>-27.19283266811951</v>
       </c>
       <c r="C58">
-        <v>0.002933306237004274</v>
+        <v>0.01776296165564517</v>
       </c>
       <c r="D58">
-        <v>0.006685300769722836</v>
+        <v>-0.06536491662216443</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>45.89467310722644</v>
+        <v>-27.7053772529191</v>
       </c>
       <c r="B59">
-        <v>45.89084764772345</v>
+        <v>-27.72413718751769</v>
       </c>
       <c r="C59">
-        <v>0.00382545950299118</v>
+        <v>0.01875993459859515</v>
       </c>
       <c r="D59">
-        <v>0.008335301776860971</v>
+        <v>-0.06771225104548455</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>47.95455089752981</v>
+        <v>-28.23507117965667</v>
       </c>
       <c r="B60">
-        <v>47.95296738844259</v>
+        <v>-28.25544170691587</v>
       </c>
       <c r="C60">
-        <v>0.001583509087218715</v>
+        <v>0.02037052725919608</v>
       </c>
       <c r="D60">
-        <v>0.003302103882908605</v>
+        <v>-0.07214618702244681</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>50.06424493347262</v>
+        <v>-28.76505180290239</v>
       </c>
       <c r="B61">
-        <v>50.06037832304283</v>
+        <v>-28.78674622631404</v>
       </c>
       <c r="C61">
-        <v>0.003866610429788864</v>
+        <v>0.02169442341165251</v>
       </c>
       <c r="D61">
-        <v>0.007723297205274884</v>
+        <v>-0.07541937890570231</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>52.21760517324593</v>
+        <v>-29.29983450096113</v>
       </c>
       <c r="B62">
-        <v>52.21308045152417</v>
+        <v>-29.31805074571222</v>
       </c>
       <c r="C62">
-        <v>0.004524721721757885</v>
+        <v>0.01821624475109473</v>
       </c>
       <c r="D62">
-        <v>0.008665126841313204</v>
+        <v>-0.06217183496547458</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>54.41487834699468</v>
+        <v>-29.82879130708832</v>
       </c>
       <c r="B63">
-        <v>54.41107377388655</v>
+        <v>-29.8493552651104</v>
       </c>
       <c r="C63">
-        <v>0.00380457310813398</v>
+        <v>0.02056395802207689</v>
       </c>
       <c r="D63">
-        <v>0.00699178831913001</v>
+        <v>-0.06893996411175468</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>56.66035204722863</v>
+        <v>-30.36262683124833</v>
       </c>
       <c r="B64">
-        <v>56.65435829013001</v>
+        <v>-30.38065978450857</v>
       </c>
       <c r="C64">
-        <v>0.005993757098615049</v>
+        <v>0.01803295326023857</v>
       </c>
       <c r="D64">
-        <v>0.01057839720730824</v>
+        <v>-0.05939194049468599</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>58.94784136816728</v>
+        <v>-30.89154974003207</v>
       </c>
       <c r="B65">
-        <v>58.94293400025456</v>
+        <v>-30.91196430390675</v>
       </c>
       <c r="C65">
-        <v>0.004907367912721838</v>
+        <v>0.02041456387468088</v>
       </c>
       <c r="D65">
-        <v>0.00832493234497284</v>
+        <v>-0.06608462199688817</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>61.2826732592094</v>
+        <v>-31.42442102141086</v>
       </c>
       <c r="B66">
-        <v>61.27680090426021</v>
+        <v>-31.44326882330493</v>
       </c>
       <c r="C66">
-        <v>0.005872354949197245</v>
+        <v>0.01884780189406854</v>
       </c>
       <c r="D66">
-        <v>0.009582406636144519</v>
+        <v>-0.05997819937947843</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>63.6618240328749</v>
+        <v>-31.95499814301883</v>
       </c>
       <c r="B67">
-        <v>63.6559590021469</v>
+        <v>-31.9745733427031</v>
       </c>
       <c r="C67">
-        <v>0.005865030727996157</v>
+        <v>0.01957519968427235</v>
       </c>
       <c r="D67">
-        <v>0.009212790894850045</v>
+        <v>-0.06125864754133593</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>66.08755028393047</v>
+        <v>-32.48565585961443</v>
       </c>
       <c r="B68">
-        <v>66.08040829391469</v>
+        <v>-32.50587786210128</v>
       </c>
       <c r="C68">
-        <v>0.007141990015782085</v>
+        <v>0.02022200248684669</v>
       </c>
       <c r="D68">
-        <v>0.01080686148162265</v>
+        <v>-0.06224902022675895</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>68.55697085970382</v>
+        <v>-33.01774967775521</v>
       </c>
       <c r="B69">
-        <v>68.55014877956353</v>
+        <v>-33.03718238149946</v>
       </c>
       <c r="C69">
-        <v>0.006822080140295839</v>
+        <v>0.01943270374424344</v>
       </c>
       <c r="D69">
-        <v>0.009950964948927896</v>
+        <v>-0.05885532458723461</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>71.07280890112769</v>
+        <v>-33.54905310412074</v>
       </c>
       <c r="B70">
-        <v>71.0651804590935</v>
+        <v>-33.56848690089764</v>
       </c>
       <c r="C70">
-        <v>0.00762844203418922</v>
+        <v>0.0194337967769016</v>
       </c>
       <c r="D70">
-        <v>0.01073327782049737</v>
+        <v>-0.05792651350423539</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>73.6330606209449</v>
+        <v>-34.07933068056617</v>
       </c>
       <c r="B71">
-        <v>73.62550333250451</v>
+        <v>-34.09979142029581</v>
       </c>
       <c r="C71">
-        <v>0.007557288440395382</v>
+        <v>0.02046073972963569</v>
       </c>
       <c r="D71">
-        <v>0.01026344467643345</v>
+        <v>-0.06003856097239457</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>76.24048909651322</v>
+        <v>-34.61350845109136</v>
       </c>
       <c r="B72">
-        <v>76.2311173997966</v>
+        <v>-34.63109593969399</v>
       </c>
       <c r="C72">
-        <v>0.009371696716613087</v>
+        <v>0.01758748860262216</v>
       </c>
       <c r="D72">
-        <v>0.01229228304759353</v>
+        <v>-0.05081105438205766</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>78.89007310539429</v>
+        <v>-35.14367503218144</v>
       </c>
       <c r="B73">
-        <v>78.88202266096975</v>
+        <v>-35.16240045909216</v>
       </c>
       <c r="C73">
-        <v>0.008050444424540615</v>
+        <v>0.01872542691071999</v>
       </c>
       <c r="D73">
-        <v>0.010204635523389</v>
+        <v>-0.05328249505372706</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>81.58810245576932</v>
+        <v>-35.67369454082013</v>
       </c>
       <c r="B74">
-        <v>81.57821911602397</v>
+        <v>-35.69370497849033</v>
       </c>
       <c r="C74">
-        <v>0.009883339745343278</v>
+        <v>0.0200104376702015</v>
       </c>
       <c r="D74">
-        <v>0.01211370217943388</v>
+        <v>-0.05609297811109604</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>84.32830225858284</v>
+        <v>-36.20588527820313</v>
       </c>
       <c r="B75">
-        <v>84.31970676495934</v>
+        <v>-36.22500949788851</v>
       </c>
       <c r="C75">
-        <v>0.008595493623502648</v>
+        <v>0.0191242196853878</v>
       </c>
       <c r="D75">
-        <v>0.01019289300660361</v>
+        <v>-0.05282074872203462</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>87.11676359543526</v>
+        <v>-36.7373031691475</v>
       </c>
       <c r="B76">
-        <v>87.10648560777574</v>
+        <v>-36.75631401728669</v>
       </c>
       <c r="C76">
-        <v>0.0102779876595207</v>
+        <v>0.01901084813918885</v>
       </c>
       <c r="D76">
-        <v>0.01179794477587692</v>
+        <v>-0.05174807756480728</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>89.94853471207314</v>
+        <v>-37.26764391649977</v>
       </c>
       <c r="B77">
-        <v>89.93855564447321</v>
+        <v>-37.28761853668486</v>
       </c>
       <c r="C77">
-        <v>0.009979067599928726</v>
+        <v>0.01997462018508855</v>
       </c>
       <c r="D77">
-        <v>0.01109419695592808</v>
+        <v>-0.05359775420695443</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>92.82519121237088</v>
+        <v>-37.79873431413557</v>
       </c>
       <c r="B78">
-        <v>92.81591687505176</v>
+        <v>-37.81892305608304</v>
       </c>
       <c r="C78">
-        <v>0.009274337319126857</v>
+        <v>0.02018874194746445</v>
       </c>
       <c r="D78">
-        <v>0.009991185795576212</v>
+        <v>-0.05341115863743215</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>95.74891957016341</v>
+        <v>-38.33129367157059</v>
       </c>
       <c r="B79">
-        <v>95.73856929951143</v>
+        <v>-38.35022757548122</v>
       </c>
       <c r="C79">
-        <v>0.01035027065198335</v>
+        <v>0.01893390391062866</v>
       </c>
       <c r="D79">
-        <v>0.01080980411940714</v>
+        <v>-0.04939542106994287</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>98.71833689849635</v>
+        <v>-38.86257790521675</v>
       </c>
       <c r="B80">
-        <v>98.70651291785214</v>
+        <v>-38.8815320948794</v>
       </c>
       <c r="C80">
-        <v>0.01182398064420909</v>
+        <v>0.01895418966264373</v>
       </c>
       <c r="D80">
-        <v>0.01197749173627862</v>
+        <v>-0.04877234266051968</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>101.7316887288901</v>
+        <v>-39.39311599248776</v>
       </c>
       <c r="B81">
-        <v>101.7197477300739</v>
+        <v>-39.41283661427757</v>
       </c>
       <c r="C81">
-        <v>0.01194099881618627</v>
+        <v>0.01972062178980849</v>
       </c>
       <c r="D81">
-        <v>0.01173773773480595</v>
+        <v>-0.05006108629124236</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>104.7904753905455</v>
+        <v>-39.92611799153099</v>
       </c>
       <c r="B82">
-        <v>104.7782737361768</v>
+        <v>-39.94414113367575</v>
       </c>
       <c r="C82">
-        <v>0.01220165436866694</v>
+        <v>0.01802314214476297</v>
       </c>
       <c r="D82">
-        <v>0.01164385820676199</v>
+        <v>-0.04514123348677672</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>107.8954254948007</v>
+        <v>-40.45710137209262</v>
       </c>
       <c r="B83">
-        <v>107.8820909361608</v>
+        <v>-40.47544565307393</v>
       </c>
       <c r="C83">
-        <v>0.01333455863994004</v>
+        <v>0.01834428098130303</v>
       </c>
       <c r="D83">
-        <v>0.01235878034568075</v>
+        <v>-0.0453425489201185</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>111.0452773214064</v>
+        <v>-40.9885516358412</v>
       </c>
       <c r="B84">
-        <v>111.0311993300258</v>
+        <v>-41.0067501724721</v>
       </c>
       <c r="C84">
-        <v>0.01407799138064547</v>
+        <v>0.01819853663089788</v>
       </c>
       <c r="D84">
-        <v>0.01267770383417434</v>
+        <v>-0.04439907219113524</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>114.2406200338595</v>
+        <v>-41.51916748725189</v>
       </c>
       <c r="B85">
-        <v>114.2255989177719</v>
+        <v>-41.53805469187028</v>
       </c>
       <c r="C85">
-        <v>0.01502111608759549</v>
+        <v>0.01888720461838744</v>
       </c>
       <c r="D85">
-        <v>0.0131486647071273</v>
+        <v>-0.04549032594207627</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>117.4797871316415</v>
+        <v>-42.05003304489579</v>
       </c>
       <c r="B86">
-        <v>117.4652896993991</v>
+        <v>-42.06935921126845</v>
       </c>
       <c r="C86">
-        <v>0.01449743224243605</v>
+        <v>0.01932616637265738</v>
       </c>
       <c r="D86">
-        <v>0.01234036305002069</v>
+        <v>-0.04595993147502003</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>120.7642220827281</v>
+        <v>-42.58210468517502</v>
       </c>
       <c r="B87">
-        <v>120.7502716749074</v>
+        <v>-42.60066373066664</v>
       </c>
       <c r="C87">
-        <v>0.01395040782072954</v>
+        <v>0.01855904549162091</v>
       </c>
       <c r="D87">
-        <v>0.01155177218892941</v>
+        <v>-0.04358414321892889</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>124.0966325167546</v>
+        <v>-43.1115354452515</v>
       </c>
       <c r="B88">
-        <v>124.0805448442967</v>
+        <v>-43.13196825006481</v>
       </c>
       <c r="C88">
-        <v>0.01608767245792819</v>
+        <v>0.02043280481331067</v>
       </c>
       <c r="D88">
-        <v>0.01296382676279</v>
+        <v>-0.04739521476626329</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>127.4733643652253</v>
+        <v>-43.64490304820092</v>
       </c>
       <c r="B89">
-        <v>127.4561092075671</v>
+        <v>-43.66327276946298</v>
       </c>
       <c r="C89">
-        <v>0.01725515765822649</v>
+        <v>0.01836972126206149</v>
       </c>
       <c r="D89">
-        <v>0.01353628481067508</v>
+        <v>-0.04208904128340984</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>130.8942962526324</v>
+        <v>-44.1758894683458</v>
       </c>
       <c r="B90">
-        <v>130.8769647647186</v>
+        <v>-44.19457728886117</v>
       </c>
       <c r="C90">
-        <v>0.01733148791379335</v>
+        <v>0.01868782051536755</v>
       </c>
       <c r="D90">
-        <v>0.013240827453889</v>
+        <v>-0.042303212771207</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>134.3609775886858</v>
+        <v>-44.70658942467375</v>
       </c>
       <c r="B91">
-        <v>134.3431115157511</v>
+        <v>-44.72588180825934</v>
       </c>
       <c r="C91">
-        <v>0.01786607293468023</v>
+        <v>0.01929238358558649</v>
       </c>
       <c r="D91">
-        <v>0.01329706977078789</v>
+        <v>-0.04315333339863082</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>137.872949117355</v>
+        <v>-45.23996255875334</v>
       </c>
       <c r="B92">
-        <v>137.8545494606648</v>
+        <v>-45.25718632765751</v>
       </c>
       <c r="C92">
-        <v>0.01839965669023513</v>
+        <v>0.01722376890417365</v>
       </c>
       <c r="D92">
-        <v>0.01334537108840232</v>
+        <v>-0.03807202289746608</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>141.4303987354384</v>
+        <v>-45.77104873623237</v>
       </c>
       <c r="B93">
-        <v>141.4112785994596</v>
+        <v>-45.78849084705569</v>
       </c>
       <c r="C93">
-        <v>0.01912013597882378</v>
+        <v>0.01744211082331759</v>
       </c>
       <c r="D93">
-        <v>0.01351911339413683</v>
+        <v>-0.03810729993064461</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>145.0323648034416</v>
+        <v>-46.30027568297962</v>
       </c>
       <c r="B94">
-        <v>145.0132989321353</v>
+        <v>-46.31979536645387</v>
       </c>
       <c r="C94">
-        <v>0.01906587130625326</v>
+        <v>0.01951968347425037</v>
       </c>
       <c r="D94">
-        <v>0.01314594251572241</v>
+        <v>-0.04215889254721215</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>148.6818598345328</v>
+        <v>-46.83234168652226</v>
       </c>
       <c r="B95">
-        <v>148.6606104586923</v>
+        <v>-46.85109988585205</v>
       </c>
       <c r="C95">
-        <v>0.02124937584051168</v>
+        <v>0.01875819932978828</v>
       </c>
       <c r="D95">
-        <v>0.0142918415630259</v>
+        <v>-0.04005394275466402</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>152.3744492125125</v>
+        <v>-47.36256255066841</v>
       </c>
       <c r="B96">
-        <v>152.3532131791302</v>
+        <v>-47.38240440525022</v>
       </c>
       <c r="C96">
-        <v>0.02123603338233693</v>
+        <v>0.01984185458181287</v>
       </c>
       <c r="D96">
-        <v>0.01393674168608125</v>
+        <v>-0.04189354104433449</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>156.1123630918457</v>
+        <v>-47.89709123963097</v>
       </c>
       <c r="B97">
-        <v>156.0911070934492</v>
+        <v>-47.9137089246484</v>
       </c>
       <c r="C97">
-        <v>0.02125599839652637</v>
+        <v>0.01661768501742955</v>
       </c>
       <c r="D97">
-        <v>0.01361583283703214</v>
+        <v>-0.0346945599144855</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>159.8949185898636</v>
+        <v>-48.42718786740964</v>
       </c>
       <c r="B98">
-        <v>159.8742922016494</v>
+        <v>-48.44501344404657</v>
       </c>
       <c r="C98">
-        <v>0.02062638821425367</v>
+        <v>0.01782557663693041</v>
       </c>
       <c r="D98">
-        <v>0.01289996479948254</v>
+        <v>-0.03680902695761651</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>163.7260042450968</v>
+        <v>-48.95705302161678</v>
       </c>
       <c r="B99">
-        <v>163.7027685037305</v>
+        <v>-48.97631796344475</v>
       </c>
       <c r="C99">
-        <v>0.02323574136624984</v>
+        <v>0.01926494182797001</v>
       </c>
       <c r="D99">
-        <v>0.01419184537812703</v>
+        <v>-0.03935069747654878</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>167.600363471084</v>
+        <v>-49.48948123313464</v>
       </c>
       <c r="B100">
-        <v>167.5765359996929</v>
+        <v>-49.50762248284293</v>
       </c>
       <c r="C100">
-        <v>0.02382747139114372</v>
+        <v>0.01814124970829312</v>
       </c>
       <c r="D100">
-        <v>0.01421683754000609</v>
+        <v>-0.03665677888768619</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>171.521235026842</v>
+        <v>-50.02176140379842</v>
       </c>
       <c r="B101">
-        <v>171.4955946895362</v>
+        <v>-50.0389270022411</v>
       </c>
       <c r="C101">
-        <v>0.02564033730581627</v>
+        <v>0.01716559844268062</v>
       </c>
       <c r="D101">
-        <v>0.01494878304823524</v>
+        <v>-0.03431626148490073</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Real_vs_Predict.xlsx
+++ b/datasets/Real_vs_Predict.xlsx
@@ -408,13 +408,13 @@
         <v>2.580876650737995</v>
       </c>
       <c r="B2">
-        <v>2.560220418178357</v>
+        <v>2.58093498523661</v>
       </c>
       <c r="C2">
-        <v>0.02065623255963756</v>
+        <v>5.833449861514239E-05</v>
       </c>
       <c r="D2">
-        <v>0.800357217913958</v>
+        <v>0.002260259071213721</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>2.048123395432709</v>
       </c>
       <c r="B3">
-        <v>2.028915898780181</v>
+        <v>2.051724153478434</v>
       </c>
       <c r="C3">
-        <v>0.01920749665252819</v>
+        <v>0.003600758045724461</v>
       </c>
       <c r="D3">
-        <v>0.9378095428898805</v>
+        <v>0.1758076712445212</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>1.517940705042908</v>
       </c>
       <c r="B4">
-        <v>1.497611379382005</v>
+        <v>1.522513321720257</v>
       </c>
       <c r="C4">
-        <v>0.02032932566090317</v>
+        <v>0.004572616677348762</v>
       </c>
       <c r="D4">
-        <v>1.339270077768191</v>
+        <v>0.3012381618173621</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.9874568714030724</v>
       </c>
       <c r="B5">
-        <v>0.9663068599838283</v>
+        <v>0.9933024899620801</v>
       </c>
       <c r="C5">
-        <v>0.02115001141924411</v>
+        <v>0.005845618559007781</v>
       </c>
       <c r="D5">
-        <v>2.141866853302886</v>
+        <v>0.5919872278271529</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.4561162797235548</v>
       </c>
       <c r="B6">
-        <v>0.4350023405856522</v>
+        <v>0.4640916582039032</v>
       </c>
       <c r="C6">
-        <v>0.0211139391379026</v>
+        <v>0.007975378480348405</v>
       </c>
       <c r="D6">
-        <v>4.62906940105261</v>
+        <v>1.748540632047197</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>-0.0757945006863741</v>
       </c>
       <c r="B7">
-        <v>-0.0963021788125247</v>
+        <v>-0.06511917355427377</v>
       </c>
       <c r="C7">
-        <v>0.02050767812615061</v>
+        <v>0.01067532713210033</v>
       </c>
       <c r="D7">
-        <v>-27.05694732525279</v>
+        <v>-14.08456686887243</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>-0.6070183349557225</v>
       </c>
       <c r="B8">
-        <v>-0.6276066982107009</v>
+        <v>-0.5943300053124507</v>
       </c>
       <c r="C8">
-        <v>0.02058836325497837</v>
+        <v>0.01268832964327182</v>
       </c>
       <c r="D8">
-        <v>-3.391720162205667</v>
+        <v>-2.090271234426114</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>-1.140054509809362</v>
       </c>
       <c r="B9">
-        <v>-1.158911217608877</v>
+        <v>-1.123540837070627</v>
       </c>
       <c r="C9">
-        <v>0.0188567077995152</v>
+        <v>0.01651367273873472</v>
       </c>
       <c r="D9">
-        <v>-1.654018087492009</v>
+        <v>-1.448498523241324</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>-1.671479398856432</v>
       </c>
       <c r="B10">
-        <v>-1.690215737007054</v>
+        <v>-1.652751668828804</v>
       </c>
       <c r="C10">
-        <v>0.01873633815062159</v>
+        <v>0.01872773002762829</v>
       </c>
       <c r="D10">
-        <v>-1.120943408781487</v>
+        <v>-1.120428408536841</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>-2.202170675824935</v>
       </c>
       <c r="B11">
-        <v>-2.221520256405229</v>
+        <v>-2.181962500586981</v>
       </c>
       <c r="C11">
-        <v>0.01934958058029457</v>
+        <v>0.02020817523795415</v>
       </c>
       <c r="D11">
-        <v>-0.8786594423725218</v>
+        <v>-0.9176480033902982</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>-2.733740968320959</v>
       </c>
       <c r="B12">
-        <v>-2.752824775803405</v>
+        <v>-2.711173332345157</v>
       </c>
       <c r="C12">
-        <v>0.01908380748244642</v>
+        <v>0.02256763597580225</v>
       </c>
       <c r="D12">
-        <v>-0.6980839700466406</v>
+        <v>-0.8255221045929272</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>-3.264018751372689</v>
       </c>
       <c r="B13">
-        <v>-3.284129295201581</v>
+        <v>-3.240384164103334</v>
       </c>
       <c r="C13">
-        <v>0.02011054382889244</v>
+        <v>0.0236345872693553</v>
       </c>
       <c r="D13">
-        <v>-0.6161283179036551</v>
+        <v>-0.7240947148179137</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>-3.795194561445739</v>
       </c>
       <c r="B14">
-        <v>-3.815433814599758</v>
+        <v>-3.76959499586151</v>
       </c>
       <c r="C14">
-        <v>0.02023925315401875</v>
+        <v>0.02559956558422938</v>
       </c>
       <c r="D14">
-        <v>-0.533286313160947</v>
+        <v>-0.6745257764723792</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>-4.327588796701135</v>
       </c>
       <c r="B15">
-        <v>-4.346738333997934</v>
+        <v>-4.298805827619686</v>
       </c>
       <c r="C15">
-        <v>0.01914953729679958</v>
+        <v>0.02878296908144851</v>
       </c>
       <c r="D15">
-        <v>-0.4424990034033969</v>
+        <v>-0.665104066804808</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>-4.858613046128093</v>
       </c>
       <c r="B16">
-        <v>-4.87804285339611</v>
+        <v>-4.828016659377864</v>
       </c>
       <c r="C16">
-        <v>0.01942980726801657</v>
+        <v>0.03059638675022924</v>
       </c>
       <c r="D16">
-        <v>-0.399904398303555</v>
+        <v>-0.6297349976164904</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>-5.388137053270595</v>
       </c>
       <c r="B17">
-        <v>-5.409347372794286</v>
+        <v>-5.35722749113604</v>
       </c>
       <c r="C17">
-        <v>0.0212103195236919</v>
+        <v>0.03090956213455431</v>
       </c>
       <c r="D17">
-        <v>-0.3936484783885973</v>
+        <v>-0.5736595381476467</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>-5.922430886453511</v>
       </c>
       <c r="B18">
-        <v>-5.940651892192464</v>
+        <v>-5.886438322894218</v>
       </c>
       <c r="C18">
-        <v>0.01822100573895291</v>
+        <v>0.03599256355929281</v>
       </c>
       <c r="D18">
-        <v>-0.3076609265399815</v>
+        <v>-0.6077329436063035</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>-6.451404202459663</v>
       </c>
       <c r="B19">
-        <v>-6.471956411590639</v>
+        <v>-6.415649154652394</v>
       </c>
       <c r="C19">
-        <v>0.02055220913097511</v>
+        <v>0.03575504780726924</v>
       </c>
       <c r="D19">
-        <v>-0.3185695468149302</v>
+        <v>-0.5542211693019833</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>-6.984061352776331</v>
       </c>
       <c r="B20">
-        <v>-7.003260930988816</v>
+        <v>-6.94485998641057</v>
       </c>
       <c r="C20">
-        <v>0.01919957821248452</v>
+        <v>0.0392013663657611</v>
       </c>
       <c r="D20">
-        <v>-0.2749056350264196</v>
+        <v>-0.561297565780656</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>-7.5144037715765</v>
       </c>
       <c r="B21">
-        <v>-7.534565450386991</v>
+        <v>-7.474070818168748</v>
       </c>
       <c r="C21">
-        <v>0.02016167881049125</v>
+        <v>0.04033295340775211</v>
       </c>
       <c r="D21">
-        <v>-0.2683070995832499</v>
+        <v>-0.5367418977446081</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>-8.046693504813501</v>
       </c>
       <c r="B22">
-        <v>-8.065869969785169</v>
+        <v>-8.003281649926924</v>
       </c>
       <c r="C22">
-        <v>0.01917646497166814</v>
+        <v>0.04341185488657651</v>
       </c>
       <c r="D22">
-        <v>-0.2383148427387827</v>
+        <v>-0.5394992969548015</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>-8.577749887454461</v>
       </c>
       <c r="B23">
-        <v>-8.597174489183347</v>
+        <v>-8.532492481685102</v>
       </c>
       <c r="C23">
-        <v>0.01942460172888616</v>
+        <v>0.04525740576935888</v>
       </c>
       <c r="D23">
-        <v>-0.2264533471335642</v>
+        <v>-0.5276139589422034</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>-9.10968336019066</v>
       </c>
       <c r="B24">
-        <v>-9.128479008581522</v>
+        <v>-9.061703313443278</v>
       </c>
       <c r="C24">
-        <v>0.01879564839086179</v>
+        <v>0.04798004674738188</v>
       </c>
       <c r="D24">
-        <v>-0.2063260340419604</v>
+        <v>-0.5266928042422946</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>-9.639835392611747</v>
       </c>
       <c r="B25">
-        <v>-9.6597835279797</v>
+        <v>-9.590914145201456</v>
       </c>
       <c r="C25">
-        <v>0.0199481353679527</v>
+        <v>0.04892124741029136</v>
       </c>
       <c r="D25">
-        <v>-0.2069343983118377</v>
+        <v>-0.5074904852398832</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>-10.17130826279369</v>
       </c>
       <c r="B26">
-        <v>-10.19108804737787</v>
+        <v>-10.12012497695963</v>
       </c>
       <c r="C26">
-        <v>0.01977978458418406</v>
+        <v>0.0511832858340604</v>
       </c>
       <c r="D26">
-        <v>-0.1944664744508615</v>
+        <v>-0.5032124138965207</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>-10.70238431322362</v>
       </c>
       <c r="B27">
-        <v>-10.72239256677605</v>
+        <v>-10.64933580871781</v>
       </c>
       <c r="C27">
-        <v>0.0200082535524313</v>
+        <v>0.05304850450581178</v>
       </c>
       <c r="D27">
-        <v>-0.1869513649188393</v>
+        <v>-0.4956699643112822</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>-11.23487025978524</v>
       </c>
       <c r="B28">
-        <v>-11.25369708617423</v>
+        <v>-11.17854664047598</v>
       </c>
       <c r="C28">
-        <v>0.01882682638898814</v>
+        <v>0.05632361930925533</v>
       </c>
       <c r="D28">
-        <v>-0.1675749336988607</v>
+        <v>-0.5013286135654226</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>-11.76457946383168</v>
       </c>
       <c r="B29">
-        <v>-11.7850016055724</v>
+        <v>-11.70775747223416</v>
       </c>
       <c r="C29">
-        <v>0.02042214174072399</v>
+        <v>0.05682199159751811</v>
       </c>
       <c r="D29">
-        <v>-0.1735900701211514</v>
+        <v>-0.4829921186066042</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>-12.29671440178429</v>
       </c>
       <c r="B30">
-        <v>-12.31630612497058</v>
+        <v>-12.23696830399234</v>
       </c>
       <c r="C30">
-        <v>0.01959172318628966</v>
+        <v>0.05974609779195283</v>
       </c>
       <c r="D30">
-        <v>-0.1593248614723201</v>
+        <v>-0.4858704190387921</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>-12.82832376445579</v>
       </c>
       <c r="B31">
-        <v>-12.84761064436876</v>
+        <v>-12.76617913575052</v>
       </c>
       <c r="C31">
-        <v>0.01928687991296663</v>
+        <v>0.06214462870527449</v>
       </c>
       <c r="D31">
-        <v>-0.1503460644359939</v>
+        <v>-0.4844329613621255</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>-13.36065540119018</v>
       </c>
       <c r="B32">
-        <v>-13.37891516376693</v>
+        <v>-13.29538996750869</v>
       </c>
       <c r="C32">
-        <v>0.01825976257675244</v>
+        <v>0.06526543368148907</v>
       </c>
       <c r="D32">
-        <v>-0.1366681650596709</v>
+        <v>-0.4884897613306842</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>-13.88991597639569</v>
       </c>
       <c r="B33">
-        <v>-13.91021968316511</v>
+        <v>-13.82460079926687</v>
       </c>
       <c r="C33">
-        <v>0.02030370676942006</v>
+        <v>0.06531517712882184</v>
       </c>
       <c r="D33">
-        <v>-0.1461758789896488</v>
+        <v>-0.4702345013448422</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>-14.42281510000129</v>
       </c>
       <c r="B34">
-        <v>-14.44152420256328</v>
+        <v>-14.35381163102505</v>
       </c>
       <c r="C34">
-        <v>0.01870910256199387</v>
+        <v>0.06900346897624487</v>
       </c>
       <c r="D34">
-        <v>-0.1297187992238228</v>
+        <v>-0.4784327365899512</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>-14.9526396726442</v>
       </c>
       <c r="B35">
-        <v>-14.97282872196146</v>
+        <v>-14.88302246278322</v>
       </c>
       <c r="C35">
-        <v>0.0201890493172634</v>
+        <v>0.06961720986097575</v>
       </c>
       <c r="D35">
-        <v>-0.1350199681076993</v>
+        <v>-0.465584748814219</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>-15.48459584037293</v>
       </c>
       <c r="B36">
-        <v>-15.50413324135964</v>
+        <v>-15.4122332945414</v>
       </c>
       <c r="C36">
-        <v>0.01953740098670842</v>
+        <v>0.07236254583153112</v>
       </c>
       <c r="D36">
-        <v>-0.1261731412825682</v>
+        <v>-0.4673195644077485</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>-16.01563600387641</v>
       </c>
       <c r="B37">
-        <v>-16.03543776075781</v>
+        <v>-15.94144412629958</v>
       </c>
       <c r="C37">
-        <v>0.01980175688140307</v>
+        <v>0.07419187757683332</v>
       </c>
       <c r="D37">
-        <v>-0.1236401531391589</v>
+        <v>-0.4632465270743915</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>-16.54873033663295</v>
       </c>
       <c r="B38">
-        <v>-16.56674228015599</v>
+        <v>-16.47065495805775</v>
       </c>
       <c r="C38">
-        <v>0.01801194352303881</v>
+        <v>0.07807537857519975</v>
       </c>
       <c r="D38">
-        <v>-0.1088418456077372</v>
+        <v>-0.4717907476102193</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>-17.08043937221302</v>
       </c>
       <c r="B39">
-        <v>-17.09804679955417</v>
+        <v>-16.99986578981593</v>
       </c>
       <c r="C39">
-        <v>0.01760742734114373</v>
+        <v>0.08057358239709345</v>
       </c>
       <c r="D39">
-        <v>-0.103085330285988</v>
+        <v>-0.4717301507370648</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>-17.61115451471074</v>
       </c>
       <c r="B40">
-        <v>-17.62935131895234</v>
+        <v>-17.52907662157411</v>
       </c>
       <c r="C40">
-        <v>0.01819680424160097</v>
+        <v>0.08207789313663483</v>
       </c>
       <c r="D40">
-        <v>-0.1033254476667105</v>
+        <v>-0.4660562887462857</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>-18.14013580054829</v>
       </c>
       <c r="B41">
-        <v>-18.16065583835052</v>
+        <v>-18.05828745333228</v>
       </c>
       <c r="C41">
-        <v>0.02052003780222833</v>
+        <v>0.08184834721600609</v>
       </c>
       <c r="D41">
-        <v>-0.1131195379563151</v>
+        <v>-0.4512003003501893</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>-18.67148231573965</v>
       </c>
       <c r="B42">
-        <v>-18.6919603577487</v>
+        <v>-18.58749828509046</v>
       </c>
       <c r="C42">
-        <v>0.02047804200904935</v>
+        <v>0.08398403064918725</v>
       </c>
       <c r="D42">
-        <v>-0.1096755022593295</v>
+        <v>-0.4497984103725421</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>-19.20433008377492</v>
       </c>
       <c r="B43">
-        <v>-19.22326487714687</v>
+        <v>-19.11670911684864</v>
       </c>
       <c r="C43">
-        <v>0.01893479337195103</v>
+        <v>0.08762096692628418</v>
       </c>
       <c r="D43">
-        <v>-0.09859647948848989</v>
+        <v>-0.4562563054480726</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>-19.73681560005754</v>
       </c>
       <c r="B44">
-        <v>-19.75456939654505</v>
+        <v>-19.64591994860681</v>
       </c>
       <c r="C44">
-        <v>0.01775379648750786</v>
+        <v>0.09089565145072598</v>
       </c>
       <c r="D44">
-        <v>-0.08995268967024295</v>
+        <v>-0.4605385858216205</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>-20.26701420494038</v>
       </c>
       <c r="B45">
-        <v>-20.28587391594322</v>
+        <v>-20.17513078036499</v>
       </c>
       <c r="C45">
-        <v>0.01885971100284323</v>
+        <v>0.09188342457538923</v>
       </c>
       <c r="D45">
-        <v>-0.09305618880084417</v>
+        <v>-0.4533643863188851</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>-20.79822691027624</v>
       </c>
       <c r="B46">
-        <v>-20.8171784353414</v>
+        <v>-20.70434161212317</v>
       </c>
       <c r="C46">
-        <v>0.0189515250651624</v>
+        <v>0.09388529815307223</v>
       </c>
       <c r="D46">
-        <v>-0.09112086884578896</v>
+        <v>-0.4514101060542052</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>-21.329944668934</v>
       </c>
       <c r="B47">
-        <v>-21.34848295473957</v>
+        <v>-21.23355244388134</v>
       </c>
       <c r="C47">
-        <v>0.01853828580557249</v>
+        <v>0.09639222505265721</v>
       </c>
       <c r="D47">
-        <v>-0.08691202013558232</v>
+        <v>-0.4519103380190558</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>-21.8620165997525</v>
       </c>
       <c r="B48">
-        <v>-21.87978747413775</v>
+        <v>-21.76276327563952</v>
       </c>
       <c r="C48">
-        <v>0.01777087438524916</v>
+        <v>0.09925332411297916</v>
       </c>
       <c r="D48">
-        <v>-0.08128652864278925</v>
+        <v>-0.4539989422297978</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>-22.39278484039104</v>
       </c>
       <c r="B49">
-        <v>-22.41109199353593</v>
+        <v>-22.2919741073977</v>
       </c>
       <c r="C49">
-        <v>0.01830715314488884</v>
+        <v>0.1008107329933416</v>
       </c>
       <c r="D49">
-        <v>-0.08175469587805476</v>
+        <v>-0.4501929246937792</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>-22.92248157267415</v>
       </c>
       <c r="B50">
-        <v>-22.94239651293411</v>
+        <v>-22.82118493915588</v>
       </c>
       <c r="C50">
-        <v>0.01991494025995522</v>
+        <v>0.1012966335182739</v>
       </c>
       <c r="D50">
-        <v>-0.08687951257291349</v>
+        <v>-0.4419095428089663</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>-23.45325611777823</v>
       </c>
       <c r="B51">
-        <v>-23.47370103233228</v>
+        <v>-23.35039577091406</v>
       </c>
       <c r="C51">
-        <v>0.02044491455405151</v>
+        <v>0.1028603468641762</v>
       </c>
       <c r="D51">
-        <v>-0.08717303239848936</v>
+        <v>-0.4385759757520627</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>-23.98514210815209</v>
       </c>
       <c r="B52">
-        <v>-24.00500555173046</v>
+        <v>-23.87960660267223</v>
       </c>
       <c r="C52">
-        <v>0.019863443578366</v>
+        <v>0.1055355054798639</v>
       </c>
       <c r="D52">
-        <v>-0.08281561763861636</v>
+        <v>-0.440003669788533</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>-24.51505561772709</v>
       </c>
       <c r="B53">
-        <v>-24.53631007112863</v>
+        <v>-24.4088174344304</v>
       </c>
       <c r="C53">
-        <v>0.02125445340154286</v>
+        <v>0.1062381832966857</v>
       </c>
       <c r="D53">
-        <v>-0.08669959282561671</v>
+        <v>-0.4333589323773092</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>-25.0475635805467</v>
       </c>
       <c r="B54">
-        <v>-25.06761459052681</v>
+        <v>-24.93802826618858</v>
       </c>
       <c r="C54">
-        <v>0.02005100998011144</v>
+        <v>0.1095353143581193</v>
       </c>
       <c r="D54">
-        <v>-0.08005173802886022</v>
+        <v>-0.4373092576684398</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>-25.5803855684425</v>
       </c>
       <c r="B55">
-        <v>-25.59891910992499</v>
+        <v>-25.46723909794676</v>
       </c>
       <c r="C55">
-        <v>0.01853354148248698</v>
+        <v>0.1131464704957423</v>
       </c>
       <c r="D55">
-        <v>-0.07245215844342499</v>
+        <v>-0.4423172989046991</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>-26.11050690796261</v>
       </c>
       <c r="B56">
-        <v>-26.13022362932316</v>
+        <v>-25.99644992970493</v>
       </c>
       <c r="C56">
-        <v>0.01971672136055247</v>
+        <v>0.1140569782576755</v>
       </c>
       <c r="D56">
-        <v>-0.075512595102241</v>
+        <v>-0.4368240672604211</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>-26.64314358291286</v>
       </c>
       <c r="B57">
-        <v>-26.66152814872134</v>
+        <v>-26.52566076146311</v>
       </c>
       <c r="C57">
-        <v>0.01838456580847847</v>
+        <v>0.1174828214497481</v>
       </c>
       <c r="D57">
-        <v>-0.06900299039888487</v>
+        <v>-0.4409495489304563</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>-27.17506970646387</v>
       </c>
       <c r="B58">
-        <v>-27.19283266811951</v>
+        <v>-27.05487159322129</v>
       </c>
       <c r="C58">
-        <v>0.01776296165564517</v>
+        <v>0.12019811324258</v>
       </c>
       <c r="D58">
-        <v>-0.06536491662216443</v>
+        <v>-0.4423102297102467</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>-27.7053772529191</v>
       </c>
       <c r="B59">
-        <v>-27.72413718751769</v>
+        <v>-27.58408242497947</v>
       </c>
       <c r="C59">
-        <v>0.01875993459859515</v>
+        <v>0.1212948279396322</v>
       </c>
       <c r="D59">
-        <v>-0.06771225104548455</v>
+        <v>-0.4378024772315717</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>-28.23507117965667</v>
       </c>
       <c r="B60">
-        <v>-28.25544170691587</v>
+        <v>-28.11329325673764</v>
       </c>
       <c r="C60">
-        <v>0.02037052725919608</v>
+        <v>0.1217779229190299</v>
       </c>
       <c r="D60">
-        <v>-0.07214618702244681</v>
+        <v>-0.431300215764183</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>-28.76505180290239</v>
       </c>
       <c r="B61">
-        <v>-28.78674622631404</v>
+        <v>-28.64250408849582</v>
       </c>
       <c r="C61">
-        <v>0.02169442341165251</v>
+        <v>0.1225477144065721</v>
       </c>
       <c r="D61">
-        <v>-0.07541937890570231</v>
+        <v>-0.4260298755805023</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>-29.29983450096113</v>
       </c>
       <c r="B62">
-        <v>-29.31805074571222</v>
+        <v>-29.171714920254</v>
       </c>
       <c r="C62">
-        <v>0.01821624475109473</v>
+        <v>0.1281195807071285</v>
       </c>
       <c r="D62">
-        <v>-0.06217183496547458</v>
+        <v>-0.4372706634330161</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>-29.82879130708832</v>
       </c>
       <c r="B63">
-        <v>-29.8493552651104</v>
+        <v>-29.70092575201217</v>
       </c>
       <c r="C63">
-        <v>0.02056395802207689</v>
+        <v>0.1278655550761449</v>
       </c>
       <c r="D63">
-        <v>-0.06893996411175468</v>
+        <v>-0.4286648887638964</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>-30.36262683124833</v>
       </c>
       <c r="B64">
-        <v>-30.38065978450857</v>
+        <v>-30.23013658377035</v>
       </c>
       <c r="C64">
-        <v>0.01803295326023857</v>
+        <v>0.1324902474779854</v>
       </c>
       <c r="D64">
-        <v>-0.05939194049468599</v>
+        <v>-0.4363596345413379</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>-30.89154974003207</v>
       </c>
       <c r="B65">
-        <v>-30.91196430390675</v>
+        <v>-30.75934741552852</v>
       </c>
       <c r="C65">
-        <v>0.02041456387468088</v>
+        <v>0.1322023245035453</v>
       </c>
       <c r="D65">
-        <v>-0.06608462199688817</v>
+        <v>-0.427956271589138</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>-31.42442102141086</v>
       </c>
       <c r="B66">
-        <v>-31.44326882330493</v>
+        <v>-31.28855824728671</v>
       </c>
       <c r="C66">
-        <v>0.01884780189406854</v>
+        <v>0.1358627741241527</v>
       </c>
       <c r="D66">
-        <v>-0.05997819937947843</v>
+        <v>-0.4323477400954606</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>-31.95499814301883</v>
       </c>
       <c r="B67">
-        <v>-31.9745733427031</v>
+        <v>-31.81776907904488</v>
       </c>
       <c r="C67">
-        <v>0.01957519968427235</v>
+        <v>0.1372290639739511</v>
       </c>
       <c r="D67">
-        <v>-0.06125864754133593</v>
+        <v>-0.4294447565284285</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>-32.48565585961443</v>
       </c>
       <c r="B68">
-        <v>-32.50587786210128</v>
+        <v>-32.34697991080306</v>
       </c>
       <c r="C68">
-        <v>0.02022200248684669</v>
+        <v>0.1386759488113753</v>
       </c>
       <c r="D68">
-        <v>-0.06224902022675895</v>
+        <v>-0.4268836356903439</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>-33.01774967775521</v>
       </c>
       <c r="B69">
-        <v>-33.03718238149946</v>
+        <v>-32.87619074256123</v>
       </c>
       <c r="C69">
-        <v>0.01943270374424344</v>
+        <v>0.1415589351939772</v>
       </c>
       <c r="D69">
-        <v>-0.05885532458723461</v>
+        <v>-0.428735866543166</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>-33.54905310412074</v>
       </c>
       <c r="B70">
-        <v>-33.56848690089764</v>
+        <v>-33.40540157431941</v>
       </c>
       <c r="C70">
-        <v>0.0194337967769016</v>
+        <v>0.1436515298013248</v>
       </c>
       <c r="D70">
-        <v>-0.05792651350423539</v>
+        <v>-0.4281835596238645</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>-34.07933068056617</v>
       </c>
       <c r="B71">
-        <v>-34.09979142029581</v>
+        <v>-33.93461240607759</v>
       </c>
       <c r="C71">
-        <v>0.02046073972963569</v>
+        <v>0.1447182744885822</v>
       </c>
       <c r="D71">
-        <v>-0.06003856097239457</v>
+        <v>-0.4246511642058398</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>-34.61350845109136</v>
       </c>
       <c r="B72">
-        <v>-34.63109593969399</v>
+        <v>-34.46382323783577</v>
       </c>
       <c r="C72">
-        <v>0.01758748860262216</v>
+        <v>0.1496852132555944</v>
       </c>
       <c r="D72">
-        <v>-0.05081105438205766</v>
+        <v>-0.4324473881840047</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>-35.14367503218144</v>
       </c>
       <c r="B73">
-        <v>-35.16240045909216</v>
+        <v>-34.99303406959394</v>
       </c>
       <c r="C73">
-        <v>0.01872542691071999</v>
+        <v>0.1506409625875023</v>
       </c>
       <c r="D73">
-        <v>-0.05328249505372706</v>
+        <v>-0.4286431696444914</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>-35.67369454082013</v>
       </c>
       <c r="B74">
-        <v>-35.69370497849033</v>
+        <v>-35.52224490135211</v>
       </c>
       <c r="C74">
-        <v>0.0200104376702015</v>
+        <v>0.1514496394680194</v>
       </c>
       <c r="D74">
-        <v>-0.05609297811109604</v>
+        <v>-0.4245415043701767</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>-36.20588527820313</v>
       </c>
       <c r="B75">
-        <v>-36.22500949788851</v>
+        <v>-36.05145573311029</v>
       </c>
       <c r="C75">
-        <v>0.0191242196853878</v>
+        <v>0.1544295450928317</v>
       </c>
       <c r="D75">
-        <v>-0.05282074872203462</v>
+        <v>-0.4265316091740539</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>-36.7373031691475</v>
       </c>
       <c r="B76">
-        <v>-36.75631401728669</v>
+        <v>-36.58066656486847</v>
       </c>
       <c r="C76">
-        <v>0.01901084813918885</v>
+        <v>0.1566366042790293</v>
       </c>
       <c r="D76">
-        <v>-0.05174807756480728</v>
+        <v>-0.4263693596610403</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>-37.26764391649977</v>
       </c>
       <c r="B77">
-        <v>-37.28761853668486</v>
+        <v>-37.10987739662664</v>
       </c>
       <c r="C77">
-        <v>0.01997462018508855</v>
+        <v>0.1577665198731282</v>
       </c>
       <c r="D77">
-        <v>-0.05359775420695443</v>
+        <v>-0.4233337643415635</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>-37.79873431413557</v>
       </c>
       <c r="B78">
-        <v>-37.81892305608304</v>
+        <v>-37.63908822838482</v>
       </c>
       <c r="C78">
-        <v>0.02018874194746445</v>
+        <v>0.1596460857507509</v>
       </c>
       <c r="D78">
-        <v>-0.05341115863743215</v>
+        <v>-0.4223582843382355</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>-38.33129367157059</v>
       </c>
       <c r="B79">
-        <v>-38.35022757548122</v>
+        <v>-38.168299060143</v>
       </c>
       <c r="C79">
-        <v>0.01893390391062866</v>
+        <v>0.1629946114275924</v>
       </c>
       <c r="D79">
-        <v>-0.04939542106994287</v>
+        <v>-0.4252259598232179</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>-38.86257790521675</v>
       </c>
       <c r="B80">
-        <v>-38.8815320948794</v>
+        <v>-38.69750989190118</v>
       </c>
       <c r="C80">
-        <v>0.01895418966264373</v>
+        <v>0.165068013315576</v>
       </c>
       <c r="D80">
-        <v>-0.04877234266051968</v>
+        <v>-0.4247479766220499</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>-39.39311599248776</v>
       </c>
       <c r="B81">
-        <v>-39.41283661427757</v>
+        <v>-39.22672072365935</v>
       </c>
       <c r="C81">
-        <v>0.01972062178980849</v>
+        <v>0.1663952688284027</v>
       </c>
       <c r="D81">
-        <v>-0.05006108629124236</v>
+        <v>-0.4223968189267744</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>-39.92611799153099</v>
       </c>
       <c r="B82">
-        <v>-39.94414113367575</v>
+        <v>-39.75593155541753</v>
       </c>
       <c r="C82">
-        <v>0.01802314214476297</v>
+        <v>0.170186436113454</v>
       </c>
       <c r="D82">
-        <v>-0.04514123348677672</v>
+        <v>-0.4262534017195296</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>-40.45710137209262</v>
       </c>
       <c r="B83">
-        <v>-40.47544565307393</v>
+        <v>-40.28514238717571</v>
       </c>
       <c r="C83">
-        <v>0.01834428098130303</v>
+        <v>0.1719589849169125</v>
       </c>
       <c r="D83">
-        <v>-0.0453425489201185</v>
+        <v>-0.4250402996877333</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>-40.9885516358412</v>
       </c>
       <c r="B84">
-        <v>-41.0067501724721</v>
+        <v>-40.81435321893388</v>
       </c>
       <c r="C84">
-        <v>0.01819853663089788</v>
+        <v>0.1741984169073163</v>
       </c>
       <c r="D84">
-        <v>-0.04439907219113524</v>
+        <v>-0.4249928576519736</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>-41.51916748725189</v>
       </c>
       <c r="B85">
-        <v>-41.53805469187028</v>
+        <v>-41.34356405069207</v>
       </c>
       <c r="C85">
-        <v>0.01888720461838744</v>
+        <v>0.1756034365598254</v>
       </c>
       <c r="D85">
-        <v>-0.04549032594207627</v>
+        <v>-0.4229454663650057</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>-42.05003304489579</v>
       </c>
       <c r="B86">
-        <v>-42.06935921126845</v>
+        <v>-41.87277488245024</v>
       </c>
       <c r="C86">
-        <v>0.01932616637265738</v>
+        <v>0.177258162445554</v>
       </c>
       <c r="D86">
-        <v>-0.04595993147502003</v>
+        <v>-0.4215410776402954</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>-42.58210468517502</v>
       </c>
       <c r="B87">
-        <v>-42.60066373066664</v>
+        <v>-42.40198571420842</v>
       </c>
       <c r="C87">
-        <v>0.01855904549162091</v>
+        <v>0.1801189709665962</v>
       </c>
       <c r="D87">
-        <v>-0.04358414321892889</v>
+        <v>-0.4229921754649782</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>-43.1115354452515</v>
       </c>
       <c r="B88">
-        <v>-43.13196825006481</v>
+        <v>-42.93119654596659</v>
       </c>
       <c r="C88">
-        <v>0.02043280481331067</v>
+        <v>0.1803388992849051</v>
       </c>
       <c r="D88">
-        <v>-0.04739521476626329</v>
+        <v>-0.4183077624639984</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>-43.64490304820092</v>
       </c>
       <c r="B89">
-        <v>-43.66327276946298</v>
+        <v>-43.46040737772476</v>
       </c>
       <c r="C89">
-        <v>0.01836972126206149</v>
+        <v>0.18449567047616</v>
       </c>
       <c r="D89">
-        <v>-0.04208904128340984</v>
+        <v>-0.4227198540741519</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>-44.1758894683458</v>
       </c>
       <c r="B90">
-        <v>-44.19457728886117</v>
+        <v>-43.98961820948295</v>
       </c>
       <c r="C90">
-        <v>0.01868782051536755</v>
+        <v>0.1862712588628526</v>
       </c>
       <c r="D90">
-        <v>-0.042303212771207</v>
+        <v>-0.4216581965968678</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>-44.70658942467375</v>
       </c>
       <c r="B91">
-        <v>-44.72588180825934</v>
+        <v>-44.51882904124112</v>
       </c>
       <c r="C91">
-        <v>0.01929238358558649</v>
+        <v>0.1877603834326322</v>
       </c>
       <c r="D91">
-        <v>-0.04315333339863082</v>
+        <v>-0.419983688867589</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1668,13 +1668,13 @@
         <v>-45.23996255875334</v>
       </c>
       <c r="B92">
-        <v>-45.25718632765751</v>
+        <v>-45.0480398729993</v>
       </c>
       <c r="C92">
-        <v>0.01722376890417365</v>
+        <v>0.1919226857540437</v>
       </c>
       <c r="D92">
-        <v>-0.03807202289746608</v>
+        <v>-0.4242326361450738</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1682,13 +1682,13 @@
         <v>-45.77104873623237</v>
       </c>
       <c r="B93">
-        <v>-45.78849084705569</v>
+        <v>-45.57725070475747</v>
       </c>
       <c r="C93">
-        <v>0.01744211082331759</v>
+        <v>0.1937980314748984</v>
       </c>
       <c r="D93">
-        <v>-0.03810729993064461</v>
+        <v>-0.4234074525836412</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1696,13 +1696,13 @@
         <v>-46.30027568297962</v>
       </c>
       <c r="B94">
-        <v>-46.31979536645387</v>
+        <v>-46.10646153651565</v>
       </c>
       <c r="C94">
-        <v>0.01951968347425037</v>
+        <v>0.1938141464639642</v>
       </c>
       <c r="D94">
-        <v>-0.04215889254721215</v>
+        <v>-0.4186025754814501</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1710,13 +1710,13 @@
         <v>-46.83234168652226</v>
       </c>
       <c r="B95">
-        <v>-46.85109988585205</v>
+        <v>-46.63567236827383</v>
       </c>
       <c r="C95">
-        <v>0.01875819932978828</v>
+        <v>0.196669318248432</v>
       </c>
       <c r="D95">
-        <v>-0.04005394275466402</v>
+        <v>-0.4199433792246842</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>-47.36256255066841</v>
       </c>
       <c r="B96">
-        <v>-47.38240440525022</v>
+        <v>-47.16488320003201</v>
       </c>
       <c r="C96">
-        <v>0.01984185458181287</v>
+        <v>0.197679350636399</v>
       </c>
       <c r="D96">
-        <v>-0.04189354104433449</v>
+        <v>-0.4173746942533396</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1738,13 +1738,13 @@
         <v>-47.89709123963097</v>
       </c>
       <c r="B97">
-        <v>-47.9137089246484</v>
+        <v>-47.69409403179018</v>
       </c>
       <c r="C97">
-        <v>0.01661768501742955</v>
+        <v>0.202997207840788</v>
       </c>
       <c r="D97">
-        <v>-0.0346945599144855</v>
+        <v>-0.4238194900504192</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1752,13 +1752,13 @@
         <v>-48.42718786740964</v>
       </c>
       <c r="B98">
-        <v>-48.44501344404657</v>
+        <v>-48.22330486354836</v>
       </c>
       <c r="C98">
-        <v>0.01782557663693041</v>
+        <v>0.2038830038612787</v>
       </c>
       <c r="D98">
-        <v>-0.03680902695761651</v>
+        <v>-0.4210093809690055</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1766,13 +1766,13 @@
         <v>-48.95705302161678</v>
       </c>
       <c r="B99">
-        <v>-48.97631796344475</v>
+        <v>-48.75251569530653</v>
       </c>
       <c r="C99">
-        <v>0.01926494182797001</v>
+        <v>0.2045373263102448</v>
       </c>
       <c r="D99">
-        <v>-0.03935069747654878</v>
+        <v>-0.4177892942615075</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1780,13 +1780,13 @@
         <v>-49.48948123313464</v>
       </c>
       <c r="B100">
-        <v>-49.50762248284293</v>
+        <v>-49.28172652706472</v>
       </c>
       <c r="C100">
-        <v>0.01814124970829312</v>
+        <v>0.2077547060699203</v>
       </c>
       <c r="D100">
-        <v>-0.03665677888768619</v>
+        <v>-0.4197956836347327</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1794,13 +1794,13 @@
         <v>-50.02176140379842</v>
       </c>
       <c r="B101">
-        <v>-50.0389270022411</v>
+        <v>-49.81093735882289</v>
       </c>
       <c r="C101">
-        <v>0.01716559844268062</v>
+        <v>0.2108240449755314</v>
       </c>
       <c r="D101">
-        <v>-0.03431626148490073</v>
+        <v>-0.4214646566994388</v>
       </c>
     </row>
   </sheetData>
